--- a/DSA_QUESTION.xlsx
+++ b/DSA_QUESTION.xlsx
@@ -1685,8 +1685,8 @@
   </sheetPr>
   <dimension ref="A1:D481"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C10" activeCellId="0" sqref="C10"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C14" activeCellId="0" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1809,7 +1809,7 @@
         <v>14</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1837,7 +1837,7 @@
         <v>16</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1907,7 +1907,7 @@
         <v>21</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/DSA_QUESTION.xlsx
+++ b/DSA_QUESTION.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1353" uniqueCount="467">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1354" uniqueCount="468">
   <si>
     <t xml:space="preserve">Number</t>
   </si>
@@ -32,6 +32,9 @@
   </si>
   <si>
     <t xml:space="preserve">Topic:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Class Name</t>
   </si>
   <si>
     <t xml:space="preserve">Problem: </t>
@@ -1685,7 +1688,7 @@
   </sheetPr>
   <dimension ref="A1:D481"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B6" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C14" activeCellId="0" sqref="C14"/>
     </sheetView>
   </sheetViews>
@@ -1715,481 +1718,487 @@
       <c r="A4" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="4"/>
+      <c r="B4" s="4" t="s">
+        <v>4</v>
+      </c>
       <c r="C4" s="4" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D5" s="6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="7" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B6" s="7" t="n">
         <v>1</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="7" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B7" s="7" t="n">
         <v>2</v>
       </c>
       <c r="C7" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" s="6" t="s">
         <v>10</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="7" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B8" s="7" t="n">
         <v>3</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="7" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B9" s="7" t="n">
         <v>4</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="7" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B10" s="9" t="n">
         <v>5</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="7" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B11" s="7" t="n">
         <v>6</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="7" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B12" s="7" t="n">
         <v>7</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="7" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B13" s="7" t="n">
         <v>8</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="7" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B14" s="7" t="n">
         <v>9</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="7" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B15" s="7" t="n">
         <v>10</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="7" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B16" s="7" t="n">
         <v>11</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="7" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B17" s="7" t="n">
         <v>12</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="7" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B18" s="7" t="n">
         <v>13</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B19" s="7"/>
+        <v>8</v>
+      </c>
+      <c r="B19" s="7" t="n">
+        <v>14</v>
+      </c>
       <c r="C19" s="8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B20" s="7"/>
+        <v>8</v>
+      </c>
+      <c r="B20" s="7" t="n">
+        <v>15</v>
+      </c>
       <c r="C20" s="8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="7" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B21" s="7"/>
       <c r="C21" s="8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="7" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B22" s="7"/>
       <c r="C22" s="8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="7" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B23" s="7"/>
       <c r="C23" s="8" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="7" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B24" s="7"/>
       <c r="C24" s="8" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="7" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B25" s="7"/>
       <c r="C25" s="8" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D25" s="6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="7" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B26" s="7"/>
       <c r="C26" s="8" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D26" s="6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="7" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B27" s="7"/>
       <c r="C27" s="8" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D27" s="6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="7" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B28" s="7"/>
       <c r="C28" s="8" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D28" s="6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="7" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B29" s="7"/>
       <c r="C29" s="8" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D29" s="6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="7" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B30" s="7"/>
       <c r="C30" s="8" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D30" s="6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="7" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B31" s="7"/>
       <c r="C31" s="8" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D31" s="6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="7" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B32" s="7"/>
       <c r="C32" s="8" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D32" s="6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="7" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B33" s="7"/>
       <c r="C33" s="8" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D33" s="6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="7" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B34" s="7"/>
       <c r="C34" s="8" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D34" s="6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="7" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B35" s="7"/>
       <c r="C35" s="8" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D35" s="6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="7" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B36" s="7"/>
       <c r="C36" s="8" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D36" s="6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="7" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B37" s="7"/>
       <c r="C37" s="8" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D37" s="6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="7" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B38" s="7"/>
       <c r="C38" s="8" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D38" s="6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="7" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B39" s="7"/>
       <c r="C39" s="8" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D39" s="6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="7" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B40" s="7"/>
       <c r="C40" s="8" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D40" s="6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="7" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B41" s="7"/>
       <c r="C41" s="8" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D41" s="6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C42" s="10"/>
       <c r="D42" s="6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2197,127 +2206,127 @@
       <c r="B43" s="7"/>
       <c r="C43" s="10"/>
       <c r="D43" s="6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B44" s="7"/>
       <c r="C44" s="8" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D44" s="6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B45" s="7"/>
       <c r="C45" s="8" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D45" s="6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B46" s="7"/>
       <c r="C46" s="8" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D46" s="6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B47" s="7"/>
       <c r="C47" s="8" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D47" s="6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B48" s="7"/>
       <c r="C48" s="8" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D48" s="6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B49" s="7"/>
       <c r="C49" s="8" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D49" s="6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B50" s="7"/>
       <c r="C50" s="8" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D50" s="6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B51" s="7"/>
       <c r="C51" s="8" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D51" s="6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B52" s="7"/>
       <c r="C52" s="8" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D52" s="6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B53" s="7"/>
       <c r="C53" s="8" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D53" s="6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2328,518 +2337,518 @@
     </row>
     <row r="56" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B56" s="7"/>
       <c r="C56" s="8" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D56" s="6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B57" s="7"/>
       <c r="C57" s="8" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D57" s="6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B58" s="7"/>
       <c r="C58" s="8" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D58" s="6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B59" s="7"/>
       <c r="C59" s="10" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D59" s="6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B60" s="7"/>
       <c r="C60" s="8" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D60" s="6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B61" s="7"/>
       <c r="C61" s="8" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D61" s="6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B62" s="7"/>
       <c r="C62" s="8" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D62" s="6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B63" s="7"/>
       <c r="C63" s="8" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D63" s="6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B64" s="7"/>
       <c r="C64" s="8" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D64" s="6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B65" s="7"/>
       <c r="C65" s="8" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D65" s="6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B66" s="7"/>
       <c r="C66" s="8" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D66" s="6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B67" s="7"/>
       <c r="C67" s="8" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D67" s="6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B68" s="7"/>
       <c r="C68" s="8" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D68" s="6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B69" s="7"/>
       <c r="C69" s="8" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D69" s="6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B70" s="7"/>
       <c r="C70" s="8" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D70" s="6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B71" s="7"/>
       <c r="C71" s="8" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D71" s="6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B72" s="7"/>
       <c r="C72" s="8" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D72" s="6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B73" s="7"/>
       <c r="C73" s="8" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D73" s="6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B74" s="7"/>
       <c r="C74" s="8" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D74" s="6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B75" s="7"/>
       <c r="C75" s="8" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D75" s="6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B76" s="7"/>
       <c r="C76" s="8" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D76" s="6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B77" s="7"/>
       <c r="C77" s="8" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D77" s="6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B78" s="7"/>
       <c r="C78" s="8" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D78" s="6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B79" s="7"/>
       <c r="C79" s="8" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D79" s="6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B80" s="7"/>
       <c r="C80" s="8" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D80" s="6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B81" s="7"/>
       <c r="C81" s="8" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D81" s="6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B82" s="7"/>
       <c r="C82" s="8" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D82" s="6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B83" s="7"/>
       <c r="C83" s="8" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D83" s="6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B84" s="7"/>
       <c r="C84" s="8" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D84" s="6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B85" s="7"/>
       <c r="C85" s="8" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D85" s="6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B86" s="7"/>
       <c r="C86" s="8" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D86" s="6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B87" s="7"/>
       <c r="C87" s="8" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D87" s="6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B88" s="7"/>
       <c r="C88" s="8" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D88" s="6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B89" s="7"/>
       <c r="C89" s="8" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D89" s="6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B90" s="7"/>
       <c r="C90" s="8" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D90" s="6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B91" s="7"/>
       <c r="C91" s="8" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D91" s="6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B92" s="7"/>
       <c r="C92" s="8" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D92" s="6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B93" s="7"/>
       <c r="C93" s="8" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D93" s="6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B94" s="7"/>
       <c r="C94" s="8" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D94" s="6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B95" s="7"/>
       <c r="C95" s="8" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D95" s="6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B96" s="7"/>
       <c r="C96" s="8" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D96" s="6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B97" s="7"/>
       <c r="C97" s="8" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D97" s="6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B98" s="7"/>
       <c r="C98" s="8" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D98" s="6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2850,434 +2859,434 @@
     </row>
     <row r="101" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B101" s="7"/>
       <c r="C101" s="8" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D101" s="6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B102" s="7"/>
       <c r="C102" s="8" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D102" s="6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B103" s="7"/>
       <c r="C103" s="8" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D103" s="6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B104" s="7"/>
       <c r="C104" s="8" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D104" s="6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B105" s="7"/>
       <c r="C105" s="8" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D105" s="6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B106" s="7"/>
       <c r="C106" s="8" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D106" s="6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B107" s="7"/>
       <c r="C107" s="8" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D107" s="6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B108" s="7"/>
       <c r="C108" s="8" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D108" s="6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B109" s="7"/>
       <c r="C109" s="8" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D109" s="6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B110" s="7"/>
       <c r="C110" s="8" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D110" s="6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B111" s="7"/>
       <c r="C111" s="8" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D111" s="6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B112" s="7"/>
       <c r="C112" s="8" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D112" s="6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B113" s="7"/>
       <c r="C113" s="8" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D113" s="6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B114" s="7"/>
       <c r="C114" s="8" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D114" s="6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B115" s="7"/>
       <c r="C115" s="8" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D115" s="6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B116" s="7"/>
       <c r="C116" s="8" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D116" s="6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B117" s="7"/>
       <c r="C117" s="8" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D117" s="6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B118" s="7"/>
       <c r="C118" s="8" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D118" s="6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B119" s="7"/>
       <c r="C119" s="8" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D119" s="6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B120" s="7"/>
       <c r="C120" s="8" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D120" s="6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B121" s="7"/>
       <c r="C121" s="8" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D121" s="6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="122" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B122" s="7"/>
       <c r="C122" s="8" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D122" s="6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="123" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B123" s="7"/>
       <c r="C123" s="8" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D123" s="6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="124" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B124" s="7"/>
       <c r="C124" s="8" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D124" s="6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="125" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B125" s="7"/>
       <c r="C125" s="8" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D125" s="6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="126" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B126" s="7"/>
       <c r="C126" s="8" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D126" s="6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="127" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B127" s="7"/>
       <c r="C127" s="8" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D127" s="6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="128" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B128" s="7"/>
       <c r="C128" s="8" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D128" s="6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="129" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B129" s="7"/>
       <c r="C129" s="8" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D129" s="6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="130" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B130" s="7"/>
       <c r="C130" s="8" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D130" s="6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="131" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A131" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B131" s="7"/>
       <c r="C131" s="8" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D131" s="6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="132" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A132" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B132" s="7"/>
       <c r="C132" s="8" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D132" s="6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="133" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A133" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B133" s="7"/>
       <c r="C133" s="8" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D133" s="6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="134" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A134" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B134" s="7"/>
       <c r="C134" s="8" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D134" s="6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="135" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A135" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B135" s="7"/>
       <c r="C135" s="8" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D135" s="6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="136" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A136" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B136" s="7"/>
       <c r="C136" s="8" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="D136" s="6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="138" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3286,434 +3295,434 @@
     </row>
     <row r="139" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A139" s="7" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B139" s="7"/>
       <c r="C139" s="8" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="D139" s="6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="140" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A140" s="7" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B140" s="7"/>
       <c r="C140" s="8" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D140" s="6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="141" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A141" s="7" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B141" s="7"/>
       <c r="C141" s="8" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D141" s="6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="142" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A142" s="7" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B142" s="7"/>
       <c r="C142" s="8" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="D142" s="6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="143" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A143" s="7" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B143" s="7"/>
       <c r="C143" s="8" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="D143" s="6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="144" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A144" s="7" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B144" s="7"/>
       <c r="C144" s="8" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="D144" s="6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="145" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A145" s="7" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B145" s="7"/>
       <c r="C145" s="8" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="D145" s="6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="146" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A146" s="7" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B146" s="7"/>
       <c r="C146" s="8" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="D146" s="6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="147" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A147" s="7" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B147" s="7"/>
       <c r="C147" s="8" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D147" s="6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="148" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A148" s="7" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B148" s="7"/>
       <c r="C148" s="8" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="D148" s="6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="149" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A149" s="7" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B149" s="7"/>
       <c r="C149" s="8" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D149" s="6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="150" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A150" s="7" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B150" s="7"/>
       <c r="C150" s="8" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D150" s="6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="151" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A151" s="7" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B151" s="7"/>
       <c r="C151" s="8" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D151" s="6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="152" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A152" s="7" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B152" s="7"/>
       <c r="C152" s="8" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="D152" s="6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="153" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A153" s="7" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B153" s="7"/>
       <c r="C153" s="8" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D153" s="6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="154" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A154" s="7" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B154" s="7"/>
       <c r="C154" s="8" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="D154" s="6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="155" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A155" s="7" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B155" s="7"/>
       <c r="C155" s="8" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="D155" s="6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="156" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A156" s="7" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B156" s="7"/>
       <c r="C156" s="8" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="D156" s="6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="157" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A157" s="7" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B157" s="7"/>
       <c r="C157" s="8" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="D157" s="6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="158" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A158" s="7" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B158" s="7"/>
       <c r="C158" s="8" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="D158" s="6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="159" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A159" s="7" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B159" s="7"/>
       <c r="C159" s="8" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D159" s="6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="160" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A160" s="7" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B160" s="7"/>
       <c r="C160" s="8" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="D160" s="6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="161" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A161" s="7" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B161" s="7"/>
       <c r="C161" s="8" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="D161" s="6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="162" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A162" s="7" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B162" s="7"/>
       <c r="C162" s="8" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="D162" s="6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="163" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A163" s="7" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B163" s="7"/>
       <c r="C163" s="8" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D163" s="6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="164" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A164" s="7" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B164" s="7"/>
       <c r="C164" s="10" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D164" s="6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="165" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A165" s="7" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B165" s="7"/>
       <c r="C165" s="10" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="D165" s="6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="166" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A166" s="7" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B166" s="7"/>
       <c r="C166" s="8" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="D166" s="6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="167" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A167" s="7" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B167" s="7"/>
       <c r="C167" s="8" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="D167" s="6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="168" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A168" s="7" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B168" s="7"/>
       <c r="C168" s="8" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="D168" s="6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="169" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A169" s="7" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B169" s="7"/>
       <c r="C169" s="8" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="D169" s="6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="170" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A170" s="7" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B170" s="7"/>
       <c r="C170" s="8" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="D170" s="6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="171" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A171" s="7" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B171" s="7"/>
       <c r="C171" s="8" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="D171" s="6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="172" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A172" s="7" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B172" s="7"/>
       <c r="C172" s="8" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="D172" s="6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="173" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A173" s="7" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B173" s="7"/>
       <c r="C173" s="8" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="D173" s="6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="174" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A174" s="7" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B174" s="7"/>
       <c r="C174" s="8" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="D174" s="6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="176" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3722,422 +3731,422 @@
     </row>
     <row r="177" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A177" s="7" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B177" s="7"/>
       <c r="C177" s="8" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="D177" s="6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="178" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A178" s="7" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B178" s="7"/>
       <c r="C178" s="8" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="D178" s="6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="179" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A179" s="7" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B179" s="7"/>
       <c r="C179" s="8" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D179" s="6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="180" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A180" s="7" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B180" s="7"/>
       <c r="C180" s="8" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="D180" s="6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="181" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A181" s="7" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B181" s="7"/>
       <c r="C181" s="8" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="D181" s="6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="182" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A182" s="7" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B182" s="7"/>
       <c r="C182" s="8" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="D182" s="6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="183" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A183" s="7" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B183" s="7"/>
       <c r="C183" s="8" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="D183" s="6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="184" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A184" s="7" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B184" s="7"/>
       <c r="C184" s="8" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="D184" s="6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="185" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A185" s="7" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B185" s="7"/>
       <c r="C185" s="8" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="D185" s="6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="186" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A186" s="7" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B186" s="7"/>
       <c r="C186" s="8" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="D186" s="6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="187" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A187" s="7" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B187" s="7"/>
       <c r="C187" s="8" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="D187" s="6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="188" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A188" s="7" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B188" s="7"/>
       <c r="C188" s="8" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="D188" s="6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="189" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A189" s="7" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B189" s="7"/>
       <c r="C189" s="8" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="D189" s="6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="190" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A190" s="7" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B190" s="7"/>
       <c r="C190" s="8" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="D190" s="6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="191" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A191" s="7" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B191" s="7"/>
       <c r="C191" s="8" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D191" s="6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="192" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A192" s="7" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B192" s="7"/>
       <c r="C192" s="8" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="D192" s="6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="193" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A193" s="7" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B193" s="7"/>
       <c r="C193" s="8" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="D193" s="6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="194" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A194" s="7" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B194" s="7"/>
       <c r="C194" s="8" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="D194" s="6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="195" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A195" s="7" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B195" s="7"/>
       <c r="C195" s="8" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="D195" s="6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="196" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A196" s="7" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B196" s="7"/>
       <c r="C196" s="8" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="D196" s="6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="197" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A197" s="7" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B197" s="7"/>
       <c r="C197" s="8" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="D197" s="6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="198" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A198" s="7" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B198" s="7"/>
       <c r="C198" s="8" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="D198" s="6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="199" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A199" s="7" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B199" s="7"/>
       <c r="C199" s="8" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="D199" s="6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="200" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A200" s="7" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B200" s="7"/>
       <c r="C200" s="8" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="D200" s="6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="201" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A201" s="7" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B201" s="7"/>
       <c r="C201" s="8" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="D201" s="6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="202" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A202" s="7" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B202" s="7"/>
       <c r="C202" s="8" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="D202" s="6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="203" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A203" s="7" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B203" s="7"/>
       <c r="C203" s="8" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="D203" s="6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="204" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A204" s="7" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B204" s="7"/>
       <c r="C204" s="8" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="D204" s="6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="205" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A205" s="7" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B205" s="7"/>
       <c r="C205" s="8" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="D205" s="6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="206" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A206" s="7" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B206" s="7"/>
       <c r="C206" s="8" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="D206" s="6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="207" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A207" s="7" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B207" s="7"/>
       <c r="C207" s="8" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="D207" s="6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="208" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A208" s="7" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B208" s="7"/>
       <c r="C208" s="8" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="D208" s="6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="209" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A209" s="7" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B209" s="7"/>
       <c r="C209" s="8" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="D209" s="6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="210" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A210" s="7" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B210" s="7"/>
       <c r="C210" s="8" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="D210" s="6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="211" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A211" s="7" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B211" s="7"/>
       <c r="C211" s="8" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="D211" s="6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="212" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4154,266 +4163,266 @@
     </row>
     <row r="214" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A214" s="7" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B214" s="7"/>
       <c r="C214" s="8" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="D214" s="6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="215" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A215" s="7" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B215" s="7"/>
       <c r="C215" s="8" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D215" s="6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="216" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A216" s="7" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B216" s="7"/>
       <c r="C216" s="8" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="D216" s="6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="217" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A217" s="7" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B217" s="7"/>
       <c r="C217" s="8" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="D217" s="6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="218" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A218" s="7" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B218" s="7"/>
       <c r="C218" s="8" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="D218" s="6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="219" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A219" s="7" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B219" s="7"/>
       <c r="C219" s="8" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="D219" s="6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="220" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A220" s="7" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B220" s="7"/>
       <c r="C220" s="11" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="D220" s="6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="221" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A221" s="7" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B221" s="7"/>
       <c r="C221" s="8" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="D221" s="6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="222" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A222" s="7" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B222" s="7"/>
       <c r="C222" s="8" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="D222" s="6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="223" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A223" s="7" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B223" s="7"/>
       <c r="C223" s="8" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="D223" s="6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="224" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A224" s="7" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B224" s="7"/>
       <c r="C224" s="8" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="D224" s="6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="225" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A225" s="7" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B225" s="7"/>
       <c r="C225" s="8" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="D225" s="6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="226" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A226" s="7" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B226" s="7"/>
       <c r="C226" s="8" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="D226" s="6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="227" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A227" s="7" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B227" s="7"/>
       <c r="C227" s="8" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="D227" s="6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="228" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A228" s="7" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B228" s="7"/>
       <c r="C228" s="8" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="D228" s="6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="229" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A229" s="7" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B229" s="7"/>
       <c r="C229" s="8" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="D229" s="6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="230" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A230" s="7" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B230" s="7"/>
       <c r="C230" s="8" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="D230" s="6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="231" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A231" s="7" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B231" s="7"/>
       <c r="C231" s="8" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="D231" s="6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="232" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A232" s="7" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B232" s="7"/>
       <c r="C232" s="8" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="D232" s="6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="233" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A233" s="7" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B233" s="7"/>
       <c r="C233" s="8" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="D233" s="6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="234" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A234" s="7" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B234" s="7"/>
       <c r="C234" s="8" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="D234" s="6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="235" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A235" s="7" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B235" s="7"/>
       <c r="C235" s="8" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="D235" s="6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="236" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4426,422 +4435,422 @@
     </row>
     <row r="238" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A238" s="7" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B238" s="7"/>
       <c r="C238" s="8" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="D238" s="6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="239" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A239" s="7" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B239" s="7"/>
       <c r="C239" s="8" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="D239" s="6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="240" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A240" s="7" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B240" s="7"/>
       <c r="C240" s="8" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="D240" s="6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="241" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A241" s="7" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B241" s="7"/>
       <c r="C241" s="8" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="D241" s="6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="242" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A242" s="7" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B242" s="7"/>
       <c r="C242" s="8" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="D242" s="6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="243" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A243" s="7" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B243" s="7"/>
       <c r="C243" s="8" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="D243" s="6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="244" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A244" s="7" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B244" s="7"/>
       <c r="C244" s="8" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="D244" s="6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="245" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A245" s="7" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B245" s="7"/>
       <c r="C245" s="8" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="D245" s="6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="246" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A246" s="7" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B246" s="7"/>
       <c r="C246" s="8" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="D246" s="6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="247" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A247" s="7" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B247" s="7"/>
       <c r="C247" s="8" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="D247" s="6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="248" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A248" s="7" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B248" s="7"/>
       <c r="C248" s="8" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="D248" s="6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="249" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A249" s="7" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B249" s="7"/>
       <c r="C249" s="8" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="D249" s="6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="250" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A250" s="7" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B250" s="7"/>
       <c r="C250" s="8" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="D250" s="6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="251" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A251" s="7" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B251" s="7"/>
       <c r="C251" s="8" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="D251" s="6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="252" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A252" s="7" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B252" s="7"/>
       <c r="C252" s="8" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="D252" s="6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="253" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A253" s="7" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B253" s="7"/>
       <c r="C253" s="8" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="D253" s="6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="254" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A254" s="7" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B254" s="7"/>
       <c r="C254" s="8" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="D254" s="6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="255" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A255" s="7" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B255" s="7"/>
       <c r="C255" s="8" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="D255" s="6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="256" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A256" s="7" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B256" s="7"/>
       <c r="C256" s="8" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="D256" s="6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="257" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A257" s="7" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B257" s="7"/>
       <c r="C257" s="8" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="D257" s="6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="258" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A258" s="7" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B258" s="7"/>
       <c r="C258" s="8" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="D258" s="6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="259" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A259" s="7" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B259" s="7"/>
       <c r="C259" s="8" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="D259" s="6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="260" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A260" s="7" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B260" s="7"/>
       <c r="C260" s="8" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="D260" s="6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="261" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A261" s="7" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B261" s="7"/>
       <c r="C261" s="8" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="D261" s="6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="262" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A262" s="7" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B262" s="7"/>
       <c r="C262" s="8" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="D262" s="6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="263" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A263" s="7" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B263" s="7"/>
       <c r="C263" s="8" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="D263" s="6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="264" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A264" s="7" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B264" s="7"/>
       <c r="C264" s="8" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="D264" s="6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="265" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A265" s="7" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B265" s="7"/>
       <c r="C265" s="8" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="D265" s="6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="266" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A266" s="7" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B266" s="7"/>
       <c r="C266" s="8" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="D266" s="6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="267" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A267" s="7" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B267" s="7"/>
       <c r="C267" s="8" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="D267" s="6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="268" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A268" s="7" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B268" s="7"/>
       <c r="C268" s="8" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="D268" s="6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="269" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A269" s="7" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B269" s="7"/>
       <c r="C269" s="8" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="D269" s="6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="270" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A270" s="7" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B270" s="7"/>
       <c r="C270" s="8" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="D270" s="6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="271" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A271" s="7" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B271" s="7"/>
       <c r="C271" s="8" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D271" s="6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="272" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A272" s="7" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B272" s="7"/>
       <c r="C272" s="8" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="D272" s="6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="273" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4854,230 +4863,230 @@
     </row>
     <row r="275" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A275" s="7" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="B275" s="7"/>
       <c r="C275" s="8" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="D275" s="6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="276" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A276" s="7" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="B276" s="7"/>
       <c r="C276" s="8" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="D276" s="6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="277" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A277" s="7" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="B277" s="7"/>
       <c r="C277" s="8" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="D277" s="6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="278" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A278" s="7" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="B278" s="7"/>
       <c r="C278" s="8" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="D278" s="6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="279" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A279" s="7" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="B279" s="7"/>
       <c r="C279" s="8" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="D279" s="6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="280" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A280" s="7" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="B280" s="7"/>
       <c r="C280" s="8" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="D280" s="6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="281" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A281" s="7" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="B281" s="7"/>
       <c r="C281" s="8" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="D281" s="6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="282" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A282" s="7" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="B282" s="7"/>
       <c r="C282" s="8" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="D282" s="6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="283" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A283" s="7" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="B283" s="7"/>
       <c r="C283" s="8" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="D283" s="6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="284" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A284" s="7" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="B284" s="7"/>
       <c r="C284" s="8" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="D284" s="6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="285" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A285" s="7" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="B285" s="7"/>
       <c r="C285" s="8" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="D285" s="6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="286" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A286" s="7" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="B286" s="7"/>
       <c r="C286" s="8" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="D286" s="6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="287" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A287" s="7" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="B287" s="7"/>
       <c r="C287" s="8" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="D287" s="6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="288" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A288" s="7" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="B288" s="7"/>
       <c r="C288" s="8" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="D288" s="6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="289" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A289" s="7" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="B289" s="7"/>
       <c r="C289" s="8" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="D289" s="6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="290" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A290" s="7" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="B290" s="7"/>
       <c r="C290" s="8" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="D290" s="6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="291" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A291" s="7" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="B291" s="7"/>
       <c r="C291" s="8" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="D291" s="6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="292" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A292" s="7" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="B292" s="7"/>
       <c r="C292" s="8" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="D292" s="6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="293" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A293" s="7" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="B293" s="7"/>
       <c r="C293" s="8" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="D293" s="6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="294" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5090,458 +5099,458 @@
     </row>
     <row r="296" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A296" s="7" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="B296" s="7"/>
       <c r="C296" s="8" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="D296" s="6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="297" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A297" s="7" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="B297" s="7"/>
       <c r="C297" s="8" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="D297" s="6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="298" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A298" s="7" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="B298" s="7"/>
       <c r="C298" s="8" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="D298" s="6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="299" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A299" s="7" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="B299" s="7"/>
       <c r="C299" s="8" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="D299" s="6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="300" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A300" s="7" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="B300" s="7"/>
       <c r="C300" s="8" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="D300" s="6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="301" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A301" s="7" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="B301" s="7"/>
       <c r="C301" s="8" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="D301" s="6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="302" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A302" s="7" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="B302" s="7"/>
       <c r="C302" s="8" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="D302" s="6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="303" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A303" s="7" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="B303" s="7"/>
       <c r="C303" s="8" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="D303" s="6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="304" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A304" s="7" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="B304" s="7"/>
       <c r="C304" s="8" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="D304" s="6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="305" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A305" s="7" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="B305" s="7"/>
       <c r="C305" s="8" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="D305" s="6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="306" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A306" s="7" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="B306" s="7"/>
       <c r="C306" s="8" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="D306" s="6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="307" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A307" s="7" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="B307" s="7"/>
       <c r="C307" s="8" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="D307" s="6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="308" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A308" s="7" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="B308" s="7"/>
       <c r="C308" s="8" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="D308" s="6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="309" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A309" s="7" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="B309" s="7"/>
       <c r="C309" s="11" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="D309" s="6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="310" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A310" s="7" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="B310" s="7"/>
       <c r="C310" s="8" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="D310" s="6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="311" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A311" s="7" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="B311" s="7"/>
       <c r="C311" s="8" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="D311" s="6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="312" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A312" s="7" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="B312" s="7"/>
       <c r="C312" s="8" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="D312" s="6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="313" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A313" s="7" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="B313" s="7"/>
       <c r="C313" s="8" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="D313" s="6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="314" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A314" s="7" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="B314" s="7"/>
       <c r="C314" s="8" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="D314" s="6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="315" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A315" s="7" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="B315" s="7"/>
       <c r="C315" s="8" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="D315" s="6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="316" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A316" s="7" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="B316" s="7"/>
       <c r="C316" s="8" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="D316" s="6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="317" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A317" s="7" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="B317" s="7"/>
       <c r="C317" s="8" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="D317" s="6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="318" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A318" s="7" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="B318" s="7"/>
       <c r="C318" s="8" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="D318" s="6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="319" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A319" s="7" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="B319" s="7"/>
       <c r="C319" s="8" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="D319" s="6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="320" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A320" s="7" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="B320" s="7"/>
       <c r="C320" s="8" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="D320" s="6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="321" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A321" s="7" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="B321" s="7"/>
       <c r="C321" s="8" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="D321" s="6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="322" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A322" s="7" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="B322" s="7"/>
       <c r="C322" s="8" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="D322" s="6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="323" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A323" s="7" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="B323" s="7"/>
       <c r="C323" s="8" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="D323" s="6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="324" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A324" s="7" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="B324" s="7"/>
       <c r="C324" s="8" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="D324" s="6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="325" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A325" s="7" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="B325" s="7"/>
       <c r="C325" s="8" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="D325" s="6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="326" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A326" s="7" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="B326" s="7"/>
       <c r="C326" s="8" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="D326" s="6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="327" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A327" s="7" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="B327" s="7"/>
       <c r="C327" s="8" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="D327" s="6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="328" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A328" s="7" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="B328" s="7"/>
       <c r="C328" s="8" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="D328" s="6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="329" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A329" s="7" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="B329" s="7"/>
       <c r="C329" s="8" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="D329" s="6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="330" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A330" s="7" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="B330" s="7"/>
       <c r="C330" s="8" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="D330" s="6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="331" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A331" s="7" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="B331" s="7"/>
       <c r="C331" s="8" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="D331" s="6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="332" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A332" s="7" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="B332" s="7"/>
       <c r="C332" s="8" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="D332" s="6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="333" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A333" s="7" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="B333" s="7"/>
       <c r="C333" s="8" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="D333" s="6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="334" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5554,218 +5563,218 @@
     </row>
     <row r="336" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A336" s="7" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B336" s="7"/>
       <c r="C336" s="8" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="D336" s="6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="337" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A337" s="7" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B337" s="7"/>
       <c r="C337" s="8" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="D337" s="6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="338" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A338" s="7" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B338" s="7"/>
       <c r="C338" s="8" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="D338" s="6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="339" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A339" s="7" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B339" s="7"/>
       <c r="C339" s="8" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="D339" s="6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="340" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A340" s="7" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B340" s="7"/>
       <c r="C340" s="8" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="D340" s="6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="341" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A341" s="7" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B341" s="7"/>
       <c r="C341" s="8" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="D341" s="6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="342" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A342" s="7" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B342" s="7"/>
       <c r="C342" s="8" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="D342" s="6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="343" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A343" s="7" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B343" s="7"/>
       <c r="C343" s="8" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="D343" s="6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="344" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A344" s="7" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B344" s="7"/>
       <c r="C344" s="11" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="D344" s="6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="345" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A345" s="7" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B345" s="7"/>
       <c r="C345" s="8" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="D345" s="6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="346" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A346" s="7" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B346" s="7"/>
       <c r="C346" s="8" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="D346" s="6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="347" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A347" s="7" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B347" s="7"/>
       <c r="C347" s="8" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="D347" s="6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="348" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A348" s="7" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B348" s="7"/>
       <c r="C348" s="8" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="D348" s="6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="349" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A349" s="7" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B349" s="7"/>
       <c r="C349" s="8" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="D349" s="6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="350" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A350" s="7" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B350" s="7"/>
       <c r="C350" s="8" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="D350" s="6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="351" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A351" s="7" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B351" s="7"/>
       <c r="C351" s="8" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="D351" s="6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="352" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A352" s="7" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B352" s="7"/>
       <c r="C352" s="8" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="D352" s="6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="353" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A353" s="7" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B353" s="7"/>
       <c r="C353" s="8" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="D353" s="6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="354" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5778,530 +5787,530 @@
     </row>
     <row r="356" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A356" s="7" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="B356" s="7"/>
       <c r="C356" s="8" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="D356" s="6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="357" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A357" s="7" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="B357" s="7"/>
       <c r="C357" s="8" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="D357" s="6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="358" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A358" s="7" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="B358" s="7"/>
       <c r="C358" s="8" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="D358" s="6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="359" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A359" s="7" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="B359" s="7"/>
       <c r="C359" s="8" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="D359" s="6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="360" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A360" s="7" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="B360" s="7"/>
       <c r="C360" s="8" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="D360" s="6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="361" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A361" s="7" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="B361" s="7"/>
       <c r="C361" s="8" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="D361" s="6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="362" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A362" s="7" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="B362" s="7"/>
       <c r="C362" s="8" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="D362" s="6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="363" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A363" s="7" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="B363" s="7"/>
       <c r="C363" s="8" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="D363" s="6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="364" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A364" s="7" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="B364" s="7"/>
       <c r="C364" s="8" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="D364" s="6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="365" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A365" s="7" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="B365" s="7"/>
       <c r="C365" s="8" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="D365" s="6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="366" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A366" s="7" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="B366" s="7"/>
       <c r="C366" s="8" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="D366" s="6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="367" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A367" s="7" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="B367" s="7"/>
       <c r="C367" s="8" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="D367" s="6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="368" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A368" s="7" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="B368" s="7"/>
       <c r="C368" s="8" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="D368" s="6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="369" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A369" s="7" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="B369" s="7"/>
       <c r="C369" s="8" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="D369" s="6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="370" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A370" s="7" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="B370" s="7"/>
       <c r="C370" s="8" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="D370" s="6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="371" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A371" s="7" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="B371" s="7"/>
       <c r="C371" s="8" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="D371" s="6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="372" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A372" s="7" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="B372" s="7"/>
       <c r="C372" s="8" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="D372" s="6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="373" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A373" s="7" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="B373" s="7"/>
       <c r="C373" s="8" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="D373" s="6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="374" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A374" s="7" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="B374" s="7"/>
       <c r="C374" s="8" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="D374" s="6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="375" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A375" s="7" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="B375" s="7"/>
       <c r="C375" s="8" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="D375" s="6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="376" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A376" s="7" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="B376" s="7"/>
       <c r="C376" s="8" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="D376" s="6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="377" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A377" s="7" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="B377" s="7"/>
       <c r="C377" s="8" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="D377" s="6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="378" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A378" s="7" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="B378" s="7"/>
       <c r="C378" s="8" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="D378" s="6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="379" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A379" s="7" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="B379" s="7"/>
       <c r="C379" s="8" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="D379" s="6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="380" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A380" s="7" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="B380" s="7"/>
       <c r="C380" s="8" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="D380" s="6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="381" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A381" s="7" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="B381" s="7"/>
       <c r="C381" s="8" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="D381" s="6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="382" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A382" s="7" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="B382" s="7"/>
       <c r="C382" s="8" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="D382" s="6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="383" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A383" s="7" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="B383" s="7"/>
       <c r="C383" s="8" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="D383" s="6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="384" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A384" s="7" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="B384" s="7"/>
       <c r="C384" s="8" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="D384" s="6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="385" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A385" s="7" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="B385" s="7"/>
       <c r="C385" s="8" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="D385" s="6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="386" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A386" s="7" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="B386" s="7"/>
       <c r="C386" s="8" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="D386" s="6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="387" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A387" s="7" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="B387" s="7"/>
       <c r="C387" s="8" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="D387" s="6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="388" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A388" s="7" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="B388" s="7"/>
       <c r="C388" s="8" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="D388" s="6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="389" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A389" s="7" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="B389" s="7"/>
       <c r="C389" s="8" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="D389" s="6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="390" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A390" s="7" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="B390" s="7"/>
       <c r="C390" s="8" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="D390" s="6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="391" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A391" s="7" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="B391" s="7"/>
       <c r="C391" s="8" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="D391" s="6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="392" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A392" s="7" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="B392" s="7"/>
       <c r="C392" s="8" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="D392" s="6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="393" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A393" s="7" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="B393" s="7"/>
       <c r="C393" s="8" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="D393" s="6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="394" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A394" s="7" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="B394" s="7"/>
       <c r="C394" s="8" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="D394" s="6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="395" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A395" s="7" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="B395" s="7"/>
       <c r="C395" s="8" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="D395" s="6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="396" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A396" s="7" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="B396" s="7"/>
       <c r="C396" s="8" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="D396" s="6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="397" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A397" s="7" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="B397" s="7"/>
       <c r="C397" s="8" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="D397" s="6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="398" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A398" s="7" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="B398" s="7"/>
       <c r="C398" s="8" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="D398" s="6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="399" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A399" s="7" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="B399" s="7"/>
       <c r="C399" s="8" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="D399" s="6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="400" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6314,74 +6323,74 @@
     </row>
     <row r="402" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A402" s="7" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="B402" s="7"/>
       <c r="C402" s="8" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="D402" s="6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="403" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A403" s="7" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="B403" s="7"/>
       <c r="C403" s="8" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="D403" s="6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="404" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A404" s="7" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="B404" s="7"/>
       <c r="C404" s="8" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="D404" s="6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="405" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A405" s="7" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="B405" s="7"/>
       <c r="C405" s="8" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D405" s="6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="406" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A406" s="7" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="B406" s="7"/>
       <c r="C406" s="8" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="D406" s="6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="407" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A407" s="7" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="B407" s="7"/>
       <c r="C407" s="8" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="D407" s="6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="408" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6394,722 +6403,722 @@
     </row>
     <row r="410" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A410" s="7" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="B410" s="7"/>
       <c r="C410" s="8" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="D410" s="6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="411" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A411" s="7" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="B411" s="7"/>
       <c r="C411" s="8" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="D411" s="6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="412" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A412" s="7" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="B412" s="7"/>
       <c r="C412" s="8" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="D412" s="6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="413" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A413" s="7" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="B413" s="7"/>
       <c r="C413" s="8" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="D413" s="6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="414" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A414" s="7" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="B414" s="7"/>
       <c r="C414" s="8" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="D414" s="6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="415" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A415" s="7" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="B415" s="7"/>
       <c r="C415" s="8" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="D415" s="6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="416" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A416" s="7" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="B416" s="7"/>
       <c r="C416" s="8" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="D416" s="6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="417" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A417" s="7" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="B417" s="7"/>
       <c r="C417" s="8" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="D417" s="6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="418" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A418" s="7" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="B418" s="7"/>
       <c r="C418" s="8" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="D418" s="6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="419" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A419" s="7" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="B419" s="7"/>
       <c r="C419" s="8" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="D419" s="6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="420" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A420" s="7" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="B420" s="7"/>
       <c r="C420" s="8" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="D420" s="6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="421" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A421" s="7" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="B421" s="7"/>
       <c r="C421" s="8" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="D421" s="6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="422" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A422" s="7" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="B422" s="7"/>
       <c r="C422" s="8" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="D422" s="6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="423" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A423" s="7" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="B423" s="7"/>
       <c r="C423" s="8" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="D423" s="6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="424" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A424" s="7" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="B424" s="7"/>
       <c r="C424" s="8" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="D424" s="6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="425" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A425" s="7" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="B425" s="7"/>
       <c r="C425" s="8" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="D425" s="6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="426" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A426" s="7" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="B426" s="7"/>
       <c r="C426" s="8" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="D426" s="6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="427" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A427" s="7" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="B427" s="7"/>
       <c r="C427" s="8" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="D427" s="6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="428" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A428" s="7" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="B428" s="7"/>
       <c r="C428" s="8" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="D428" s="6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="429" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A429" s="7" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="B429" s="7"/>
       <c r="C429" s="8" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="D429" s="6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="430" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A430" s="7" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="B430" s="7"/>
       <c r="C430" s="8" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="D430" s="6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="431" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A431" s="7" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="B431" s="7"/>
       <c r="C431" s="8" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="D431" s="6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="432" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A432" s="7" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="B432" s="7"/>
       <c r="C432" s="8" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="D432" s="6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="433" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A433" s="7" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="B433" s="7"/>
       <c r="C433" s="8" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="D433" s="6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="434" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A434" s="7" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="B434" s="7"/>
       <c r="C434" s="8" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="D434" s="6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="435" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A435" s="7" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="B435" s="7"/>
       <c r="C435" s="8" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="D435" s="6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="436" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A436" s="7" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="B436" s="7"/>
       <c r="C436" s="8" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="D436" s="6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="437" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A437" s="7" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="B437" s="7"/>
       <c r="C437" s="8" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="D437" s="6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="438" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A438" s="7" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="B438" s="7"/>
       <c r="C438" s="8" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="D438" s="6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="439" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A439" s="7" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="B439" s="7"/>
       <c r="C439" s="8" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="D439" s="6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="440" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A440" s="7" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="B440" s="7"/>
       <c r="C440" s="8" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="D440" s="6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="441" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A441" s="7" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="B441" s="7"/>
       <c r="C441" s="8" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="D441" s="6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="442" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A442" s="7" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="B442" s="7"/>
       <c r="C442" s="8" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="D442" s="6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="443" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A443" s="7" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="B443" s="7"/>
       <c r="C443" s="8" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="D443" s="6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="444" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A444" s="7" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="B444" s="7"/>
       <c r="C444" s="8" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="D444" s="6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="445" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A445" s="7" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="B445" s="7"/>
       <c r="C445" s="8" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="D445" s="6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="446" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A446" s="7" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="B446" s="7"/>
       <c r="C446" s="8" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="D446" s="6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="447" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A447" s="7" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="B447" s="7"/>
       <c r="C447" s="8" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="D447" s="6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="448" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A448" s="7" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="B448" s="7"/>
       <c r="C448" s="8" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="D448" s="6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="449" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A449" s="7" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="B449" s="7"/>
       <c r="C449" s="8" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="D449" s="6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="450" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A450" s="7" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="B450" s="7"/>
       <c r="C450" s="8" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="D450" s="6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="451" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A451" s="7" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="B451" s="7"/>
       <c r="C451" s="8" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="D451" s="6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="452" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A452" s="7" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="B452" s="7"/>
       <c r="C452" s="8" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="D452" s="6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="453" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A453" s="7" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="B453" s="7"/>
       <c r="C453" s="8" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="D453" s="6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="454" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A454" s="7" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="B454" s="7"/>
       <c r="C454" s="8" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="D454" s="6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="455" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A455" s="7" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="B455" s="7"/>
       <c r="C455" s="8" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="D455" s="6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="456" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A456" s="7" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="B456" s="7"/>
       <c r="C456" s="8" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="D456" s="6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="457" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A457" s="7" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="B457" s="7"/>
       <c r="C457" s="8" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="D457" s="6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="458" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A458" s="7" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="B458" s="7"/>
       <c r="C458" s="8" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="D458" s="6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="459" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A459" s="7" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="B459" s="7"/>
       <c r="C459" s="8" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="D459" s="6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="460" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A460" s="7" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="B460" s="7"/>
       <c r="C460" s="8" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="D460" s="6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="461" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A461" s="7" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="B461" s="7"/>
       <c r="C461" s="8" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="D461" s="6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="462" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A462" s="7" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="B462" s="7"/>
       <c r="C462" s="8" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="D462" s="6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="463" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A463" s="7" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="B463" s="7"/>
       <c r="C463" s="8" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="D463" s="6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="464" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A464" s="7" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="B464" s="7"/>
       <c r="C464" s="8" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="D464" s="6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="465" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A465" s="7" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="B465" s="7"/>
       <c r="C465" s="8" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="D465" s="6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="466" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A466" s="7" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="B466" s="7"/>
       <c r="C466" s="8" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="D466" s="6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="467" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A467" s="7" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="B467" s="7"/>
       <c r="C467" s="8" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="D467" s="6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="468" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A468" s="7" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="B468" s="7"/>
       <c r="C468" s="8" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="D468" s="6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="469" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A469" s="7" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="B469" s="7"/>
       <c r="C469" s="8" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="D469" s="6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="470" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7124,122 +7133,122 @@
     </row>
     <row r="472" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A472" s="7" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="B472" s="7"/>
       <c r="C472" s="8" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="D472" s="6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="473" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A473" s="7" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="B473" s="7"/>
       <c r="C473" s="8" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="D473" s="6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="474" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A474" s="7" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="B474" s="7"/>
       <c r="C474" s="8" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="D474" s="6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="475" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A475" s="7" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="B475" s="7"/>
       <c r="C475" s="8" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="D475" s="6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="476" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A476" s="7" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="B476" s="7"/>
       <c r="C476" s="8" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="D476" s="6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="477" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A477" s="7" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="B477" s="7"/>
       <c r="C477" s="8" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="D477" s="6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="478" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A478" s="7" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="B478" s="7"/>
       <c r="C478" s="8" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="D478" s="6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="479" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A479" s="7" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="B479" s="7"/>
       <c r="C479" s="8" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="D479" s="6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="480" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A480" s="7" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="B480" s="7"/>
       <c r="C480" s="8" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="D480" s="6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="481" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A481" s="7" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="B481" s="7"/>
       <c r="C481" s="8" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="D481" s="6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -7249,7 +7258,7 @@
     <hyperlink ref="C7" r:id="rId3" display="Find the maximum and minimum element in an array"/>
     <hyperlink ref="C8" r:id="rId4" display="Find the &quot;Kth&quot; max and min element of an array "/>
     <hyperlink ref="C9" r:id="rId5" display="Given an array which consists of only 0, 1 and 2. Sort the array without using any sorting algo"/>
-    <hyperlink ref="C10" r:id="rId6" display="Move all the negative elements to one side of the array "/>
+    <hyperlink ref="C10" r:id="rId6" display="Move all the negative elements to one side of the array (leftend and rightend both solutions present)"/>
     <hyperlink ref="C11" r:id="rId7" display="Find the Union and Intersection of the two sorted arrays."/>
     <hyperlink ref="C12" r:id="rId8" display="Write a program to cyclically rotate an array by one."/>
     <hyperlink ref="C13" r:id="rId9" display="find Largest sum contiguous Subarray [V. IMP]"/>

--- a/DSA_QUESTION.xlsx
+++ b/DSA_QUESTION.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1354" uniqueCount="468">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1354" uniqueCount="469">
   <si>
     <t xml:space="preserve">Number</t>
   </si>
@@ -77,6 +77,9 @@
   </si>
   <si>
     <t xml:space="preserve">Minimise the maximum difference between heights [V.IMP]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;Partial&gt;</t>
   </si>
   <si>
     <t xml:space="preserve">Minimum no. of Jumps to reach end of an array</t>
@@ -1688,8 +1691,8 @@
   </sheetPr>
   <dimension ref="A1:D481"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B6" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C14" activeCellId="0" sqref="C14"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B15" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C15" activeCellId="0" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1856,7 +1859,7 @@
         <v>18</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1867,7 +1870,7 @@
         <v>10</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D15" s="6" t="s">
         <v>7</v>
@@ -1881,7 +1884,7 @@
         <v>11</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D16" s="6" t="s">
         <v>10</v>
@@ -1895,7 +1898,7 @@
         <v>12</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D17" s="6" t="s">
         <v>10</v>
@@ -1909,7 +1912,7 @@
         <v>13</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D18" s="6" t="s">
         <v>10</v>
@@ -1923,10 +1926,10 @@
         <v>14</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1937,10 +1940,10 @@
         <v>15</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1949,10 +1952,10 @@
       </c>
       <c r="B21" s="7"/>
       <c r="C21" s="8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1961,7 +1964,7 @@
       </c>
       <c r="B22" s="7"/>
       <c r="C22" s="8" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D22" s="6" t="s">
         <v>7</v>
@@ -1973,7 +1976,7 @@
       </c>
       <c r="B23" s="7"/>
       <c r="C23" s="8" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D23" s="6" t="s">
         <v>7</v>
@@ -1985,7 +1988,7 @@
       </c>
       <c r="B24" s="7"/>
       <c r="C24" s="8" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D24" s="6" t="s">
         <v>7</v>
@@ -1997,7 +2000,7 @@
       </c>
       <c r="B25" s="7"/>
       <c r="C25" s="8" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D25" s="6" t="s">
         <v>7</v>
@@ -2009,7 +2012,7 @@
       </c>
       <c r="B26" s="7"/>
       <c r="C26" s="8" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D26" s="6" t="s">
         <v>7</v>
@@ -2021,7 +2024,7 @@
       </c>
       <c r="B27" s="7"/>
       <c r="C27" s="8" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D27" s="6" t="s">
         <v>7</v>
@@ -2033,7 +2036,7 @@
       </c>
       <c r="B28" s="7"/>
       <c r="C28" s="8" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D28" s="6" t="s">
         <v>7</v>
@@ -2045,7 +2048,7 @@
       </c>
       <c r="B29" s="7"/>
       <c r="C29" s="8" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D29" s="6" t="s">
         <v>7</v>
@@ -2057,7 +2060,7 @@
       </c>
       <c r="B30" s="7"/>
       <c r="C30" s="8" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D30" s="6" t="s">
         <v>7</v>
@@ -2069,7 +2072,7 @@
       </c>
       <c r="B31" s="7"/>
       <c r="C31" s="8" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D31" s="6" t="s">
         <v>7</v>
@@ -2081,7 +2084,7 @@
       </c>
       <c r="B32" s="7"/>
       <c r="C32" s="8" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D32" s="6" t="s">
         <v>7</v>
@@ -2093,7 +2096,7 @@
       </c>
       <c r="B33" s="7"/>
       <c r="C33" s="8" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D33" s="6" t="s">
         <v>7</v>
@@ -2105,7 +2108,7 @@
       </c>
       <c r="B34" s="7"/>
       <c r="C34" s="8" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D34" s="6" t="s">
         <v>7</v>
@@ -2117,7 +2120,7 @@
       </c>
       <c r="B35" s="7"/>
       <c r="C35" s="8" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D35" s="6" t="s">
         <v>7</v>
@@ -2129,7 +2132,7 @@
       </c>
       <c r="B36" s="7"/>
       <c r="C36" s="8" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D36" s="6" t="s">
         <v>7</v>
@@ -2141,7 +2144,7 @@
       </c>
       <c r="B37" s="7"/>
       <c r="C37" s="8" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D37" s="6" t="s">
         <v>7</v>
@@ -2153,7 +2156,7 @@
       </c>
       <c r="B38" s="7"/>
       <c r="C38" s="8" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D38" s="6" t="s">
         <v>7</v>
@@ -2165,7 +2168,7 @@
       </c>
       <c r="B39" s="7"/>
       <c r="C39" s="8" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D39" s="6" t="s">
         <v>7</v>
@@ -2177,7 +2180,7 @@
       </c>
       <c r="B40" s="7"/>
       <c r="C40" s="8" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D40" s="6" t="s">
         <v>7</v>
@@ -2189,7 +2192,7 @@
       </c>
       <c r="B41" s="7"/>
       <c r="C41" s="8" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D41" s="6" t="s">
         <v>7</v>
@@ -2211,11 +2214,11 @@
     </row>
     <row r="44" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B44" s="7"/>
       <c r="C44" s="8" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D44" s="6" t="s">
         <v>7</v>
@@ -2223,11 +2226,11 @@
     </row>
     <row r="45" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B45" s="7"/>
       <c r="C45" s="8" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D45" s="6" t="s">
         <v>7</v>
@@ -2235,11 +2238,11 @@
     </row>
     <row r="46" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B46" s="7"/>
       <c r="C46" s="8" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D46" s="6" t="s">
         <v>7</v>
@@ -2247,11 +2250,11 @@
     </row>
     <row r="47" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B47" s="7"/>
       <c r="C47" s="8" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D47" s="6" t="s">
         <v>7</v>
@@ -2259,11 +2262,11 @@
     </row>
     <row r="48" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B48" s="7"/>
       <c r="C48" s="8" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D48" s="6" t="s">
         <v>7</v>
@@ -2271,11 +2274,11 @@
     </row>
     <row r="49" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B49" s="7"/>
       <c r="C49" s="8" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D49" s="6" t="s">
         <v>7</v>
@@ -2283,11 +2286,11 @@
     </row>
     <row r="50" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B50" s="7"/>
       <c r="C50" s="8" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D50" s="6" t="s">
         <v>7</v>
@@ -2295,11 +2298,11 @@
     </row>
     <row r="51" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B51" s="7"/>
       <c r="C51" s="8" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D51" s="6" t="s">
         <v>7</v>
@@ -2307,11 +2310,11 @@
     </row>
     <row r="52" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B52" s="7"/>
       <c r="C52" s="8" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D52" s="6" t="s">
         <v>7</v>
@@ -2319,11 +2322,11 @@
     </row>
     <row r="53" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B53" s="7"/>
       <c r="C53" s="8" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D53" s="6" t="s">
         <v>7</v>
@@ -2337,11 +2340,11 @@
     </row>
     <row r="56" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B56" s="7"/>
       <c r="C56" s="8" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D56" s="6" t="s">
         <v>7</v>
@@ -2349,11 +2352,11 @@
     </row>
     <row r="57" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B57" s="7"/>
       <c r="C57" s="8" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D57" s="6" t="s">
         <v>7</v>
@@ -2361,11 +2364,11 @@
     </row>
     <row r="58" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B58" s="7"/>
       <c r="C58" s="8" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D58" s="6" t="s">
         <v>7</v>
@@ -2373,11 +2376,11 @@
     </row>
     <row r="59" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B59" s="7"/>
       <c r="C59" s="10" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D59" s="6" t="s">
         <v>7</v>
@@ -2385,11 +2388,11 @@
     </row>
     <row r="60" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B60" s="7"/>
       <c r="C60" s="8" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D60" s="6" t="s">
         <v>7</v>
@@ -2397,11 +2400,11 @@
     </row>
     <row r="61" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B61" s="7"/>
       <c r="C61" s="8" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D61" s="6" t="s">
         <v>7</v>
@@ -2409,11 +2412,11 @@
     </row>
     <row r="62" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B62" s="7"/>
       <c r="C62" s="8" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D62" s="6" t="s">
         <v>7</v>
@@ -2421,11 +2424,11 @@
     </row>
     <row r="63" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B63" s="7"/>
       <c r="C63" s="8" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D63" s="6" t="s">
         <v>7</v>
@@ -2433,11 +2436,11 @@
     </row>
     <row r="64" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B64" s="7"/>
       <c r="C64" s="8" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D64" s="6" t="s">
         <v>7</v>
@@ -2445,11 +2448,11 @@
     </row>
     <row r="65" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B65" s="7"/>
       <c r="C65" s="8" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D65" s="6" t="s">
         <v>7</v>
@@ -2457,11 +2460,11 @@
     </row>
     <row r="66" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B66" s="7"/>
       <c r="C66" s="8" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D66" s="6" t="s">
         <v>7</v>
@@ -2469,11 +2472,11 @@
     </row>
     <row r="67" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B67" s="7"/>
       <c r="C67" s="8" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D67" s="6" t="s">
         <v>7</v>
@@ -2481,11 +2484,11 @@
     </row>
     <row r="68" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B68" s="7"/>
       <c r="C68" s="8" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D68" s="6" t="s">
         <v>7</v>
@@ -2493,11 +2496,11 @@
     </row>
     <row r="69" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B69" s="7"/>
       <c r="C69" s="8" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D69" s="6" t="s">
         <v>7</v>
@@ -2505,11 +2508,11 @@
     </row>
     <row r="70" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B70" s="7"/>
       <c r="C70" s="8" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D70" s="6" t="s">
         <v>7</v>
@@ -2517,11 +2520,11 @@
     </row>
     <row r="71" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B71" s="7"/>
       <c r="C71" s="8" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D71" s="6" t="s">
         <v>7</v>
@@ -2529,11 +2532,11 @@
     </row>
     <row r="72" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B72" s="7"/>
       <c r="C72" s="8" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D72" s="6" t="s">
         <v>7</v>
@@ -2541,11 +2544,11 @@
     </row>
     <row r="73" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B73" s="7"/>
       <c r="C73" s="8" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D73" s="6" t="s">
         <v>7</v>
@@ -2553,11 +2556,11 @@
     </row>
     <row r="74" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B74" s="7"/>
       <c r="C74" s="8" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D74" s="6" t="s">
         <v>7</v>
@@ -2565,11 +2568,11 @@
     </row>
     <row r="75" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B75" s="7"/>
       <c r="C75" s="8" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D75" s="6" t="s">
         <v>7</v>
@@ -2577,11 +2580,11 @@
     </row>
     <row r="76" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B76" s="7"/>
       <c r="C76" s="8" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D76" s="6" t="s">
         <v>7</v>
@@ -2589,11 +2592,11 @@
     </row>
     <row r="77" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B77" s="7"/>
       <c r="C77" s="8" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D77" s="6" t="s">
         <v>7</v>
@@ -2601,11 +2604,11 @@
     </row>
     <row r="78" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B78" s="7"/>
       <c r="C78" s="8" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D78" s="6" t="s">
         <v>7</v>
@@ -2613,11 +2616,11 @@
     </row>
     <row r="79" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B79" s="7"/>
       <c r="C79" s="8" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D79" s="6" t="s">
         <v>7</v>
@@ -2625,11 +2628,11 @@
     </row>
     <row r="80" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B80" s="7"/>
       <c r="C80" s="8" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D80" s="6" t="s">
         <v>7</v>
@@ -2637,11 +2640,11 @@
     </row>
     <row r="81" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B81" s="7"/>
       <c r="C81" s="8" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D81" s="6" t="s">
         <v>7</v>
@@ -2649,11 +2652,11 @@
     </row>
     <row r="82" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B82" s="7"/>
       <c r="C82" s="8" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D82" s="6" t="s">
         <v>7</v>
@@ -2661,11 +2664,11 @@
     </row>
     <row r="83" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B83" s="7"/>
       <c r="C83" s="8" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D83" s="6" t="s">
         <v>7</v>
@@ -2673,11 +2676,11 @@
     </row>
     <row r="84" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B84" s="7"/>
       <c r="C84" s="8" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D84" s="6" t="s">
         <v>7</v>
@@ -2685,11 +2688,11 @@
     </row>
     <row r="85" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B85" s="7"/>
       <c r="C85" s="8" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D85" s="6" t="s">
         <v>7</v>
@@ -2697,11 +2700,11 @@
     </row>
     <row r="86" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B86" s="7"/>
       <c r="C86" s="8" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D86" s="6" t="s">
         <v>7</v>
@@ -2709,11 +2712,11 @@
     </row>
     <row r="87" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B87" s="7"/>
       <c r="C87" s="8" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D87" s="6" t="s">
         <v>7</v>
@@ -2721,11 +2724,11 @@
     </row>
     <row r="88" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B88" s="7"/>
       <c r="C88" s="8" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D88" s="6" t="s">
         <v>7</v>
@@ -2733,11 +2736,11 @@
     </row>
     <row r="89" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B89" s="7"/>
       <c r="C89" s="8" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D89" s="6" t="s">
         <v>7</v>
@@ -2745,11 +2748,11 @@
     </row>
     <row r="90" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B90" s="7"/>
       <c r="C90" s="8" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D90" s="6" t="s">
         <v>7</v>
@@ -2757,11 +2760,11 @@
     </row>
     <row r="91" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B91" s="7"/>
       <c r="C91" s="8" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D91" s="6" t="s">
         <v>7</v>
@@ -2769,11 +2772,11 @@
     </row>
     <row r="92" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B92" s="7"/>
       <c r="C92" s="8" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D92" s="6" t="s">
         <v>7</v>
@@ -2781,11 +2784,11 @@
     </row>
     <row r="93" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B93" s="7"/>
       <c r="C93" s="8" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D93" s="6" t="s">
         <v>7</v>
@@ -2793,11 +2796,11 @@
     </row>
     <row r="94" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B94" s="7"/>
       <c r="C94" s="8" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D94" s="6" t="s">
         <v>7</v>
@@ -2805,11 +2808,11 @@
     </row>
     <row r="95" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B95" s="7"/>
       <c r="C95" s="8" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D95" s="6" t="s">
         <v>7</v>
@@ -2817,11 +2820,11 @@
     </row>
     <row r="96" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B96" s="7"/>
       <c r="C96" s="8" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D96" s="6" t="s">
         <v>7</v>
@@ -2829,11 +2832,11 @@
     </row>
     <row r="97" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B97" s="7"/>
       <c r="C97" s="8" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D97" s="6" t="s">
         <v>7</v>
@@ -2841,11 +2844,11 @@
     </row>
     <row r="98" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B98" s="7"/>
       <c r="C98" s="8" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D98" s="6" t="s">
         <v>7</v>
@@ -2859,11 +2862,11 @@
     </row>
     <row r="101" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B101" s="7"/>
       <c r="C101" s="8" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D101" s="6" t="s">
         <v>7</v>
@@ -2871,11 +2874,11 @@
     </row>
     <row r="102" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B102" s="7"/>
       <c r="C102" s="8" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D102" s="6" t="s">
         <v>7</v>
@@ -2883,11 +2886,11 @@
     </row>
     <row r="103" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B103" s="7"/>
       <c r="C103" s="8" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D103" s="6" t="s">
         <v>7</v>
@@ -2895,11 +2898,11 @@
     </row>
     <row r="104" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B104" s="7"/>
       <c r="C104" s="8" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D104" s="6" t="s">
         <v>7</v>
@@ -2907,11 +2910,11 @@
     </row>
     <row r="105" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B105" s="7"/>
       <c r="C105" s="8" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D105" s="6" t="s">
         <v>7</v>
@@ -2919,11 +2922,11 @@
     </row>
     <row r="106" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B106" s="7"/>
       <c r="C106" s="8" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D106" s="6" t="s">
         <v>7</v>
@@ -2931,11 +2934,11 @@
     </row>
     <row r="107" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B107" s="7"/>
       <c r="C107" s="8" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D107" s="6" t="s">
         <v>7</v>
@@ -2943,11 +2946,11 @@
     </row>
     <row r="108" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B108" s="7"/>
       <c r="C108" s="8" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D108" s="6" t="s">
         <v>7</v>
@@ -2955,11 +2958,11 @@
     </row>
     <row r="109" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B109" s="7"/>
       <c r="C109" s="8" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D109" s="6" t="s">
         <v>7</v>
@@ -2967,11 +2970,11 @@
     </row>
     <row r="110" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B110" s="7"/>
       <c r="C110" s="8" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D110" s="6" t="s">
         <v>7</v>
@@ -2979,11 +2982,11 @@
     </row>
     <row r="111" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B111" s="7"/>
       <c r="C111" s="8" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D111" s="6" t="s">
         <v>7</v>
@@ -2991,11 +2994,11 @@
     </row>
     <row r="112" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B112" s="7"/>
       <c r="C112" s="8" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D112" s="6" t="s">
         <v>7</v>
@@ -3003,11 +3006,11 @@
     </row>
     <row r="113" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B113" s="7"/>
       <c r="C113" s="8" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D113" s="6" t="s">
         <v>7</v>
@@ -3015,11 +3018,11 @@
     </row>
     <row r="114" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B114" s="7"/>
       <c r="C114" s="8" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D114" s="6" t="s">
         <v>7</v>
@@ -3027,11 +3030,11 @@
     </row>
     <row r="115" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B115" s="7"/>
       <c r="C115" s="8" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D115" s="6" t="s">
         <v>7</v>
@@ -3039,11 +3042,11 @@
     </row>
     <row r="116" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B116" s="7"/>
       <c r="C116" s="8" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D116" s="6" t="s">
         <v>7</v>
@@ -3051,11 +3054,11 @@
     </row>
     <row r="117" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B117" s="7"/>
       <c r="C117" s="8" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D117" s="6" t="s">
         <v>7</v>
@@ -3063,11 +3066,11 @@
     </row>
     <row r="118" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B118" s="7"/>
       <c r="C118" s="8" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D118" s="6" t="s">
         <v>7</v>
@@ -3075,11 +3078,11 @@
     </row>
     <row r="119" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B119" s="7"/>
       <c r="C119" s="8" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D119" s="6" t="s">
         <v>7</v>
@@ -3087,11 +3090,11 @@
     </row>
     <row r="120" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B120" s="7"/>
       <c r="C120" s="8" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D120" s="6" t="s">
         <v>7</v>
@@ -3099,11 +3102,11 @@
     </row>
     <row r="121" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B121" s="7"/>
       <c r="C121" s="8" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D121" s="6" t="s">
         <v>7</v>
@@ -3111,11 +3114,11 @@
     </row>
     <row r="122" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B122" s="7"/>
       <c r="C122" s="8" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D122" s="6" t="s">
         <v>7</v>
@@ -3123,11 +3126,11 @@
     </row>
     <row r="123" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B123" s="7"/>
       <c r="C123" s="8" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D123" s="6" t="s">
         <v>7</v>
@@ -3135,11 +3138,11 @@
     </row>
     <row r="124" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B124" s="7"/>
       <c r="C124" s="8" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D124" s="6" t="s">
         <v>7</v>
@@ -3147,11 +3150,11 @@
     </row>
     <row r="125" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B125" s="7"/>
       <c r="C125" s="8" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D125" s="6" t="s">
         <v>7</v>
@@ -3159,11 +3162,11 @@
     </row>
     <row r="126" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B126" s="7"/>
       <c r="C126" s="8" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D126" s="6" t="s">
         <v>7</v>
@@ -3171,11 +3174,11 @@
     </row>
     <row r="127" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B127" s="7"/>
       <c r="C127" s="8" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D127" s="6" t="s">
         <v>7</v>
@@ -3183,11 +3186,11 @@
     </row>
     <row r="128" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B128" s="7"/>
       <c r="C128" s="8" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D128" s="6" t="s">
         <v>7</v>
@@ -3195,11 +3198,11 @@
     </row>
     <row r="129" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B129" s="7"/>
       <c r="C129" s="8" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D129" s="6" t="s">
         <v>7</v>
@@ -3207,11 +3210,11 @@
     </row>
     <row r="130" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B130" s="7"/>
       <c r="C130" s="8" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D130" s="6" t="s">
         <v>7</v>
@@ -3219,11 +3222,11 @@
     </row>
     <row r="131" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A131" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B131" s="7"/>
       <c r="C131" s="8" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D131" s="6" t="s">
         <v>7</v>
@@ -3231,11 +3234,11 @@
     </row>
     <row r="132" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A132" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B132" s="7"/>
       <c r="C132" s="8" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D132" s="6" t="s">
         <v>7</v>
@@ -3243,11 +3246,11 @@
     </row>
     <row r="133" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A133" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B133" s="7"/>
       <c r="C133" s="8" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D133" s="6" t="s">
         <v>7</v>
@@ -3255,11 +3258,11 @@
     </row>
     <row r="134" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A134" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B134" s="7"/>
       <c r="C134" s="8" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D134" s="6" t="s">
         <v>7</v>
@@ -3267,11 +3270,11 @@
     </row>
     <row r="135" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A135" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B135" s="7"/>
       <c r="C135" s="8" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="D135" s="6" t="s">
         <v>7</v>
@@ -3279,11 +3282,11 @@
     </row>
     <row r="136" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A136" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B136" s="7"/>
       <c r="C136" s="8" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D136" s="6" t="s">
         <v>7</v>
@@ -3295,11 +3298,11 @@
     </row>
     <row r="139" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A139" s="7" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B139" s="7"/>
       <c r="C139" s="8" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D139" s="6" t="s">
         <v>7</v>
@@ -3307,11 +3310,11 @@
     </row>
     <row r="140" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A140" s="7" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B140" s="7"/>
       <c r="C140" s="8" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D140" s="6" t="s">
         <v>7</v>
@@ -3319,11 +3322,11 @@
     </row>
     <row r="141" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A141" s="7" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B141" s="7"/>
       <c r="C141" s="8" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="D141" s="6" t="s">
         <v>7</v>
@@ -3331,11 +3334,11 @@
     </row>
     <row r="142" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A142" s="7" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B142" s="7"/>
       <c r="C142" s="8" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="D142" s="6" t="s">
         <v>7</v>
@@ -3343,11 +3346,11 @@
     </row>
     <row r="143" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A143" s="7" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B143" s="7"/>
       <c r="C143" s="8" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="D143" s="6" t="s">
         <v>7</v>
@@ -3355,11 +3358,11 @@
     </row>
     <row r="144" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A144" s="7" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B144" s="7"/>
       <c r="C144" s="8" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="D144" s="6" t="s">
         <v>7</v>
@@ -3367,11 +3370,11 @@
     </row>
     <row r="145" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A145" s="7" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B145" s="7"/>
       <c r="C145" s="8" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="D145" s="6" t="s">
         <v>7</v>
@@ -3379,11 +3382,11 @@
     </row>
     <row r="146" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A146" s="7" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B146" s="7"/>
       <c r="C146" s="8" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D146" s="6" t="s">
         <v>7</v>
@@ -3391,11 +3394,11 @@
     </row>
     <row r="147" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A147" s="7" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B147" s="7"/>
       <c r="C147" s="8" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="D147" s="6" t="s">
         <v>7</v>
@@ -3403,11 +3406,11 @@
     </row>
     <row r="148" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A148" s="7" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B148" s="7"/>
       <c r="C148" s="8" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D148" s="6" t="s">
         <v>7</v>
@@ -3415,11 +3418,11 @@
     </row>
     <row r="149" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A149" s="7" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B149" s="7"/>
       <c r="C149" s="8" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D149" s="6" t="s">
         <v>7</v>
@@ -3427,11 +3430,11 @@
     </row>
     <row r="150" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A150" s="7" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B150" s="7"/>
       <c r="C150" s="8" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D150" s="6" t="s">
         <v>7</v>
@@ -3439,11 +3442,11 @@
     </row>
     <row r="151" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A151" s="7" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B151" s="7"/>
       <c r="C151" s="8" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="D151" s="6" t="s">
         <v>7</v>
@@ -3451,11 +3454,11 @@
     </row>
     <row r="152" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A152" s="7" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B152" s="7"/>
       <c r="C152" s="8" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D152" s="6" t="s">
         <v>7</v>
@@ -3463,11 +3466,11 @@
     </row>
     <row r="153" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A153" s="7" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B153" s="7"/>
       <c r="C153" s="8" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="D153" s="6" t="s">
         <v>7</v>
@@ -3475,11 +3478,11 @@
     </row>
     <row r="154" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A154" s="7" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B154" s="7"/>
       <c r="C154" s="8" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="D154" s="6" t="s">
         <v>7</v>
@@ -3487,11 +3490,11 @@
     </row>
     <row r="155" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A155" s="7" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B155" s="7"/>
       <c r="C155" s="8" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="D155" s="6" t="s">
         <v>7</v>
@@ -3499,11 +3502,11 @@
     </row>
     <row r="156" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A156" s="7" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B156" s="7"/>
       <c r="C156" s="8" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="D156" s="6" t="s">
         <v>7</v>
@@ -3511,11 +3514,11 @@
     </row>
     <row r="157" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A157" s="7" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B157" s="7"/>
       <c r="C157" s="8" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="D157" s="6" t="s">
         <v>7</v>
@@ -3523,11 +3526,11 @@
     </row>
     <row r="158" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A158" s="7" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B158" s="7"/>
       <c r="C158" s="8" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D158" s="6" t="s">
         <v>7</v>
@@ -3535,11 +3538,11 @@
     </row>
     <row r="159" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A159" s="7" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B159" s="7"/>
       <c r="C159" s="8" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="D159" s="6" t="s">
         <v>7</v>
@@ -3547,11 +3550,11 @@
     </row>
     <row r="160" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A160" s="7" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B160" s="7"/>
       <c r="C160" s="8" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="D160" s="6" t="s">
         <v>7</v>
@@ -3559,11 +3562,11 @@
     </row>
     <row r="161" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A161" s="7" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B161" s="7"/>
       <c r="C161" s="8" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="D161" s="6" t="s">
         <v>7</v>
@@ -3571,11 +3574,11 @@
     </row>
     <row r="162" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A162" s="7" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B162" s="7"/>
       <c r="C162" s="8" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D162" s="6" t="s">
         <v>7</v>
@@ -3583,11 +3586,11 @@
     </row>
     <row r="163" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A163" s="7" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B163" s="7"/>
       <c r="C163" s="8" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D163" s="6" t="s">
         <v>7</v>
@@ -3595,11 +3598,11 @@
     </row>
     <row r="164" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A164" s="7" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B164" s="7"/>
       <c r="C164" s="10" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="D164" s="6" t="s">
         <v>7</v>
@@ -3607,11 +3610,11 @@
     </row>
     <row r="165" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A165" s="7" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B165" s="7"/>
       <c r="C165" s="10" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="D165" s="6" t="s">
         <v>7</v>
@@ -3619,11 +3622,11 @@
     </row>
     <row r="166" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A166" s="7" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B166" s="7"/>
       <c r="C166" s="8" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="D166" s="6" t="s">
         <v>7</v>
@@ -3631,11 +3634,11 @@
     </row>
     <row r="167" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A167" s="7" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B167" s="7"/>
       <c r="C167" s="8" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="D167" s="6" t="s">
         <v>7</v>
@@ -3643,11 +3646,11 @@
     </row>
     <row r="168" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A168" s="7" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B168" s="7"/>
       <c r="C168" s="8" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="D168" s="6" t="s">
         <v>7</v>
@@ -3655,11 +3658,11 @@
     </row>
     <row r="169" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A169" s="7" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B169" s="7"/>
       <c r="C169" s="8" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="D169" s="6" t="s">
         <v>7</v>
@@ -3667,11 +3670,11 @@
     </row>
     <row r="170" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A170" s="7" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B170" s="7"/>
       <c r="C170" s="8" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="D170" s="6" t="s">
         <v>7</v>
@@ -3679,11 +3682,11 @@
     </row>
     <row r="171" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A171" s="7" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B171" s="7"/>
       <c r="C171" s="8" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="D171" s="6" t="s">
         <v>7</v>
@@ -3691,11 +3694,11 @@
     </row>
     <row r="172" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A172" s="7" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B172" s="7"/>
       <c r="C172" s="8" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="D172" s="6" t="s">
         <v>7</v>
@@ -3703,11 +3706,11 @@
     </row>
     <row r="173" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A173" s="7" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B173" s="7"/>
       <c r="C173" s="8" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="D173" s="6" t="s">
         <v>7</v>
@@ -3715,11 +3718,11 @@
     </row>
     <row r="174" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A174" s="7" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B174" s="7"/>
       <c r="C174" s="8" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="D174" s="6" t="s">
         <v>7</v>
@@ -3731,11 +3734,11 @@
     </row>
     <row r="177" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A177" s="7" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B177" s="7"/>
       <c r="C177" s="8" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="D177" s="6" t="s">
         <v>7</v>
@@ -3743,11 +3746,11 @@
     </row>
     <row r="178" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A178" s="7" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B178" s="7"/>
       <c r="C178" s="8" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D178" s="6" t="s">
         <v>7</v>
@@ -3755,11 +3758,11 @@
     </row>
     <row r="179" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A179" s="7" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B179" s="7"/>
       <c r="C179" s="8" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="D179" s="6" t="s">
         <v>7</v>
@@ -3767,11 +3770,11 @@
     </row>
     <row r="180" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A180" s="7" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B180" s="7"/>
       <c r="C180" s="8" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="D180" s="6" t="s">
         <v>7</v>
@@ -3779,11 +3782,11 @@
     </row>
     <row r="181" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A181" s="7" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B181" s="7"/>
       <c r="C181" s="8" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="D181" s="6" t="s">
         <v>7</v>
@@ -3791,11 +3794,11 @@
     </row>
     <row r="182" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A182" s="7" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B182" s="7"/>
       <c r="C182" s="8" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="D182" s="6" t="s">
         <v>7</v>
@@ -3803,11 +3806,11 @@
     </row>
     <row r="183" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A183" s="7" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B183" s="7"/>
       <c r="C183" s="8" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="D183" s="6" t="s">
         <v>7</v>
@@ -3815,11 +3818,11 @@
     </row>
     <row r="184" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A184" s="7" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B184" s="7"/>
       <c r="C184" s="8" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="D184" s="6" t="s">
         <v>7</v>
@@ -3827,11 +3830,11 @@
     </row>
     <row r="185" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A185" s="7" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B185" s="7"/>
       <c r="C185" s="8" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="D185" s="6" t="s">
         <v>7</v>
@@ -3839,11 +3842,11 @@
     </row>
     <row r="186" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A186" s="7" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B186" s="7"/>
       <c r="C186" s="8" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="D186" s="6" t="s">
         <v>7</v>
@@ -3851,11 +3854,11 @@
     </row>
     <row r="187" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A187" s="7" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B187" s="7"/>
       <c r="C187" s="8" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="D187" s="6" t="s">
         <v>7</v>
@@ -3863,11 +3866,11 @@
     </row>
     <row r="188" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A188" s="7" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B188" s="7"/>
       <c r="C188" s="8" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="D188" s="6" t="s">
         <v>7</v>
@@ -3875,11 +3878,11 @@
     </row>
     <row r="189" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A189" s="7" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B189" s="7"/>
       <c r="C189" s="8" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="D189" s="6" t="s">
         <v>7</v>
@@ -3887,11 +3890,11 @@
     </row>
     <row r="190" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A190" s="7" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B190" s="7"/>
       <c r="C190" s="8" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D190" s="6" t="s">
         <v>7</v>
@@ -3899,11 +3902,11 @@
     </row>
     <row r="191" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A191" s="7" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B191" s="7"/>
       <c r="C191" s="8" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="D191" s="6" t="s">
         <v>7</v>
@@ -3911,11 +3914,11 @@
     </row>
     <row r="192" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A192" s="7" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B192" s="7"/>
       <c r="C192" s="8" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="D192" s="6" t="s">
         <v>7</v>
@@ -3923,11 +3926,11 @@
     </row>
     <row r="193" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A193" s="7" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B193" s="7"/>
       <c r="C193" s="8" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="D193" s="6" t="s">
         <v>7</v>
@@ -3935,11 +3938,11 @@
     </row>
     <row r="194" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A194" s="7" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B194" s="7"/>
       <c r="C194" s="8" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="D194" s="6" t="s">
         <v>7</v>
@@ -3947,11 +3950,11 @@
     </row>
     <row r="195" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A195" s="7" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B195" s="7"/>
       <c r="C195" s="8" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="D195" s="6" t="s">
         <v>7</v>
@@ -3959,11 +3962,11 @@
     </row>
     <row r="196" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A196" s="7" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B196" s="7"/>
       <c r="C196" s="8" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="D196" s="6" t="s">
         <v>7</v>
@@ -3971,11 +3974,11 @@
     </row>
     <row r="197" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A197" s="7" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B197" s="7"/>
       <c r="C197" s="8" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="D197" s="6" t="s">
         <v>7</v>
@@ -3983,11 +3986,11 @@
     </row>
     <row r="198" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A198" s="7" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B198" s="7"/>
       <c r="C198" s="8" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="D198" s="6" t="s">
         <v>7</v>
@@ -3995,11 +3998,11 @@
     </row>
     <row r="199" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A199" s="7" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B199" s="7"/>
       <c r="C199" s="8" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="D199" s="6" t="s">
         <v>7</v>
@@ -4007,11 +4010,11 @@
     </row>
     <row r="200" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A200" s="7" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B200" s="7"/>
       <c r="C200" s="8" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="D200" s="6" t="s">
         <v>7</v>
@@ -4019,11 +4022,11 @@
     </row>
     <row r="201" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A201" s="7" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B201" s="7"/>
       <c r="C201" s="8" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="D201" s="6" t="s">
         <v>7</v>
@@ -4031,11 +4034,11 @@
     </row>
     <row r="202" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A202" s="7" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B202" s="7"/>
       <c r="C202" s="8" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="D202" s="6" t="s">
         <v>7</v>
@@ -4043,11 +4046,11 @@
     </row>
     <row r="203" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A203" s="7" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B203" s="7"/>
       <c r="C203" s="8" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="D203" s="6" t="s">
         <v>7</v>
@@ -4055,11 +4058,11 @@
     </row>
     <row r="204" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A204" s="7" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B204" s="7"/>
       <c r="C204" s="8" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="D204" s="6" t="s">
         <v>7</v>
@@ -4067,11 +4070,11 @@
     </row>
     <row r="205" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A205" s="7" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B205" s="7"/>
       <c r="C205" s="8" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="D205" s="6" t="s">
         <v>7</v>
@@ -4079,11 +4082,11 @@
     </row>
     <row r="206" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A206" s="7" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B206" s="7"/>
       <c r="C206" s="8" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="D206" s="6" t="s">
         <v>7</v>
@@ -4091,11 +4094,11 @@
     </row>
     <row r="207" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A207" s="7" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B207" s="7"/>
       <c r="C207" s="8" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="D207" s="6" t="s">
         <v>7</v>
@@ -4103,11 +4106,11 @@
     </row>
     <row r="208" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A208" s="7" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B208" s="7"/>
       <c r="C208" s="8" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="D208" s="6" t="s">
         <v>7</v>
@@ -4115,11 +4118,11 @@
     </row>
     <row r="209" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A209" s="7" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B209" s="7"/>
       <c r="C209" s="8" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="D209" s="6" t="s">
         <v>7</v>
@@ -4127,11 +4130,11 @@
     </row>
     <row r="210" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A210" s="7" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B210" s="7"/>
       <c r="C210" s="8" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="D210" s="6" t="s">
         <v>7</v>
@@ -4139,11 +4142,11 @@
     </row>
     <row r="211" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A211" s="7" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B211" s="7"/>
       <c r="C211" s="8" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="D211" s="6" t="s">
         <v>7</v>
@@ -4163,11 +4166,11 @@
     </row>
     <row r="214" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A214" s="7" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B214" s="7"/>
       <c r="C214" s="8" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D214" s="6" t="s">
         <v>7</v>
@@ -4175,11 +4178,11 @@
     </row>
     <row r="215" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A215" s="7" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B215" s="7"/>
       <c r="C215" s="8" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="D215" s="6" t="s">
         <v>7</v>
@@ -4187,11 +4190,11 @@
     </row>
     <row r="216" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A216" s="7" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B216" s="7"/>
       <c r="C216" s="8" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="D216" s="6" t="s">
         <v>7</v>
@@ -4199,11 +4202,11 @@
     </row>
     <row r="217" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A217" s="7" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B217" s="7"/>
       <c r="C217" s="8" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="D217" s="6" t="s">
         <v>7</v>
@@ -4211,11 +4214,11 @@
     </row>
     <row r="218" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A218" s="7" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B218" s="7"/>
       <c r="C218" s="8" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="D218" s="6" t="s">
         <v>7</v>
@@ -4223,11 +4226,11 @@
     </row>
     <row r="219" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A219" s="7" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B219" s="7"/>
       <c r="C219" s="8" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="D219" s="6" t="s">
         <v>7</v>
@@ -4235,11 +4238,11 @@
     </row>
     <row r="220" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A220" s="7" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B220" s="7"/>
       <c r="C220" s="11" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="D220" s="6" t="s">
         <v>7</v>
@@ -4247,11 +4250,11 @@
     </row>
     <row r="221" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A221" s="7" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B221" s="7"/>
       <c r="C221" s="8" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="D221" s="6" t="s">
         <v>7</v>
@@ -4259,11 +4262,11 @@
     </row>
     <row r="222" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A222" s="7" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B222" s="7"/>
       <c r="C222" s="8" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="D222" s="6" t="s">
         <v>7</v>
@@ -4271,11 +4274,11 @@
     </row>
     <row r="223" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A223" s="7" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B223" s="7"/>
       <c r="C223" s="8" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="D223" s="6" t="s">
         <v>7</v>
@@ -4283,11 +4286,11 @@
     </row>
     <row r="224" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A224" s="7" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B224" s="7"/>
       <c r="C224" s="8" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="D224" s="6" t="s">
         <v>7</v>
@@ -4295,11 +4298,11 @@
     </row>
     <row r="225" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A225" s="7" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B225" s="7"/>
       <c r="C225" s="8" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="D225" s="6" t="s">
         <v>7</v>
@@ -4307,11 +4310,11 @@
     </row>
     <row r="226" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A226" s="7" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B226" s="7"/>
       <c r="C226" s="8" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="D226" s="6" t="s">
         <v>7</v>
@@ -4319,11 +4322,11 @@
     </row>
     <row r="227" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A227" s="7" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B227" s="7"/>
       <c r="C227" s="8" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="D227" s="6" t="s">
         <v>7</v>
@@ -4331,11 +4334,11 @@
     </row>
     <row r="228" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A228" s="7" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B228" s="7"/>
       <c r="C228" s="8" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="D228" s="6" t="s">
         <v>7</v>
@@ -4343,11 +4346,11 @@
     </row>
     <row r="229" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A229" s="7" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B229" s="7"/>
       <c r="C229" s="8" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="D229" s="6" t="s">
         <v>7</v>
@@ -4355,11 +4358,11 @@
     </row>
     <row r="230" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A230" s="7" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B230" s="7"/>
       <c r="C230" s="8" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="D230" s="6" t="s">
         <v>7</v>
@@ -4367,11 +4370,11 @@
     </row>
     <row r="231" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A231" s="7" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B231" s="7"/>
       <c r="C231" s="8" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="D231" s="6" t="s">
         <v>7</v>
@@ -4379,11 +4382,11 @@
     </row>
     <row r="232" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A232" s="7" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B232" s="7"/>
       <c r="C232" s="8" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="D232" s="6" t="s">
         <v>7</v>
@@ -4391,11 +4394,11 @@
     </row>
     <row r="233" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A233" s="7" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B233" s="7"/>
       <c r="C233" s="8" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="D233" s="6" t="s">
         <v>7</v>
@@ -4403,11 +4406,11 @@
     </row>
     <row r="234" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A234" s="7" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B234" s="7"/>
       <c r="C234" s="8" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="D234" s="6" t="s">
         <v>7</v>
@@ -4415,11 +4418,11 @@
     </row>
     <row r="235" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A235" s="7" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B235" s="7"/>
       <c r="C235" s="8" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="D235" s="6" t="s">
         <v>7</v>
@@ -4435,11 +4438,11 @@
     </row>
     <row r="238" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A238" s="7" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="B238" s="7"/>
       <c r="C238" s="8" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="D238" s="6" t="s">
         <v>7</v>
@@ -4447,11 +4450,11 @@
     </row>
     <row r="239" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A239" s="7" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="B239" s="7"/>
       <c r="C239" s="8" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="D239" s="6" t="s">
         <v>7</v>
@@ -4459,11 +4462,11 @@
     </row>
     <row r="240" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A240" s="7" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="B240" s="7"/>
       <c r="C240" s="8" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="D240" s="6" t="s">
         <v>7</v>
@@ -4471,11 +4474,11 @@
     </row>
     <row r="241" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A241" s="7" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="B241" s="7"/>
       <c r="C241" s="8" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="D241" s="6" t="s">
         <v>7</v>
@@ -4483,11 +4486,11 @@
     </row>
     <row r="242" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A242" s="7" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="B242" s="7"/>
       <c r="C242" s="8" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="D242" s="6" t="s">
         <v>7</v>
@@ -4495,11 +4498,11 @@
     </row>
     <row r="243" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A243" s="7" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="B243" s="7"/>
       <c r="C243" s="8" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="D243" s="6" t="s">
         <v>7</v>
@@ -4507,11 +4510,11 @@
     </row>
     <row r="244" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A244" s="7" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="B244" s="7"/>
       <c r="C244" s="8" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="D244" s="6" t="s">
         <v>7</v>
@@ -4519,11 +4522,11 @@
     </row>
     <row r="245" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A245" s="7" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="B245" s="7"/>
       <c r="C245" s="8" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="D245" s="6" t="s">
         <v>7</v>
@@ -4531,11 +4534,11 @@
     </row>
     <row r="246" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A246" s="7" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="B246" s="7"/>
       <c r="C246" s="8" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="D246" s="6" t="s">
         <v>7</v>
@@ -4543,11 +4546,11 @@
     </row>
     <row r="247" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A247" s="7" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="B247" s="7"/>
       <c r="C247" s="8" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="D247" s="6" t="s">
         <v>7</v>
@@ -4555,11 +4558,11 @@
     </row>
     <row r="248" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A248" s="7" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="B248" s="7"/>
       <c r="C248" s="8" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="D248" s="6" t="s">
         <v>7</v>
@@ -4567,11 +4570,11 @@
     </row>
     <row r="249" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A249" s="7" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="B249" s="7"/>
       <c r="C249" s="8" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="D249" s="6" t="s">
         <v>7</v>
@@ -4579,11 +4582,11 @@
     </row>
     <row r="250" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A250" s="7" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="B250" s="7"/>
       <c r="C250" s="8" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="D250" s="6" t="s">
         <v>7</v>
@@ -4591,11 +4594,11 @@
     </row>
     <row r="251" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A251" s="7" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="B251" s="7"/>
       <c r="C251" s="8" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="D251" s="6" t="s">
         <v>7</v>
@@ -4603,11 +4606,11 @@
     </row>
     <row r="252" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A252" s="7" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="B252" s="7"/>
       <c r="C252" s="8" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="D252" s="6" t="s">
         <v>7</v>
@@ -4615,11 +4618,11 @@
     </row>
     <row r="253" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A253" s="7" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="B253" s="7"/>
       <c r="C253" s="8" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="D253" s="6" t="s">
         <v>7</v>
@@ -4627,11 +4630,11 @@
     </row>
     <row r="254" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A254" s="7" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="B254" s="7"/>
       <c r="C254" s="8" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="D254" s="6" t="s">
         <v>7</v>
@@ -4639,11 +4642,11 @@
     </row>
     <row r="255" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A255" s="7" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="B255" s="7"/>
       <c r="C255" s="8" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="D255" s="6" t="s">
         <v>7</v>
@@ -4651,11 +4654,11 @@
     </row>
     <row r="256" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A256" s="7" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="B256" s="7"/>
       <c r="C256" s="8" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="D256" s="6" t="s">
         <v>7</v>
@@ -4663,11 +4666,11 @@
     </row>
     <row r="257" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A257" s="7" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="B257" s="7"/>
       <c r="C257" s="8" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="D257" s="6" t="s">
         <v>7</v>
@@ -4675,11 +4678,11 @@
     </row>
     <row r="258" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A258" s="7" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="B258" s="7"/>
       <c r="C258" s="8" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="D258" s="6" t="s">
         <v>7</v>
@@ -4687,11 +4690,11 @@
     </row>
     <row r="259" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A259" s="7" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="B259" s="7"/>
       <c r="C259" s="8" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="D259" s="6" t="s">
         <v>7</v>
@@ -4699,11 +4702,11 @@
     </row>
     <row r="260" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A260" s="7" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="B260" s="7"/>
       <c r="C260" s="8" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="D260" s="6" t="s">
         <v>7</v>
@@ -4711,11 +4714,11 @@
     </row>
     <row r="261" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A261" s="7" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="B261" s="7"/>
       <c r="C261" s="8" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="D261" s="6" t="s">
         <v>7</v>
@@ -4723,11 +4726,11 @@
     </row>
     <row r="262" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A262" s="7" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="B262" s="7"/>
       <c r="C262" s="8" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="D262" s="6" t="s">
         <v>7</v>
@@ -4735,11 +4738,11 @@
     </row>
     <row r="263" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A263" s="7" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="B263" s="7"/>
       <c r="C263" s="8" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="D263" s="6" t="s">
         <v>7</v>
@@ -4747,11 +4750,11 @@
     </row>
     <row r="264" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A264" s="7" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="B264" s="7"/>
       <c r="C264" s="8" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="D264" s="6" t="s">
         <v>7</v>
@@ -4759,11 +4762,11 @@
     </row>
     <row r="265" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A265" s="7" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="B265" s="7"/>
       <c r="C265" s="8" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="D265" s="6" t="s">
         <v>7</v>
@@ -4771,11 +4774,11 @@
     </row>
     <row r="266" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A266" s="7" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="B266" s="7"/>
       <c r="C266" s="8" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="D266" s="6" t="s">
         <v>7</v>
@@ -4783,11 +4786,11 @@
     </row>
     <row r="267" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A267" s="7" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="B267" s="7"/>
       <c r="C267" s="8" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="D267" s="6" t="s">
         <v>7</v>
@@ -4795,11 +4798,11 @@
     </row>
     <row r="268" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A268" s="7" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="B268" s="7"/>
       <c r="C268" s="8" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="D268" s="6" t="s">
         <v>7</v>
@@ -4807,11 +4810,11 @@
     </row>
     <row r="269" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A269" s="7" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="B269" s="7"/>
       <c r="C269" s="8" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="D269" s="6" t="s">
         <v>7</v>
@@ -4819,11 +4822,11 @@
     </row>
     <row r="270" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A270" s="7" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="B270" s="7"/>
       <c r="C270" s="8" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="D270" s="6" t="s">
         <v>7</v>
@@ -4831,11 +4834,11 @@
     </row>
     <row r="271" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A271" s="7" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="B271" s="7"/>
       <c r="C271" s="8" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D271" s="6" t="s">
         <v>7</v>
@@ -4843,11 +4846,11 @@
     </row>
     <row r="272" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A272" s="7" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="B272" s="7"/>
       <c r="C272" s="8" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="D272" s="6" t="s">
         <v>7</v>
@@ -4863,11 +4866,11 @@
     </row>
     <row r="275" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A275" s="7" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="B275" s="7"/>
       <c r="C275" s="8" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="D275" s="6" t="s">
         <v>7</v>
@@ -4875,11 +4878,11 @@
     </row>
     <row r="276" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A276" s="7" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="B276" s="7"/>
       <c r="C276" s="8" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="D276" s="6" t="s">
         <v>7</v>
@@ -4887,11 +4890,11 @@
     </row>
     <row r="277" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A277" s="7" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="B277" s="7"/>
       <c r="C277" s="8" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="D277" s="6" t="s">
         <v>7</v>
@@ -4899,11 +4902,11 @@
     </row>
     <row r="278" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A278" s="7" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="B278" s="7"/>
       <c r="C278" s="8" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="D278" s="6" t="s">
         <v>7</v>
@@ -4911,11 +4914,11 @@
     </row>
     <row r="279" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A279" s="7" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="B279" s="7"/>
       <c r="C279" s="8" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="D279" s="6" t="s">
         <v>7</v>
@@ -4923,11 +4926,11 @@
     </row>
     <row r="280" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A280" s="7" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="B280" s="7"/>
       <c r="C280" s="8" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="D280" s="6" t="s">
         <v>7</v>
@@ -4935,11 +4938,11 @@
     </row>
     <row r="281" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A281" s="7" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="B281" s="7"/>
       <c r="C281" s="8" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="D281" s="6" t="s">
         <v>7</v>
@@ -4947,11 +4950,11 @@
     </row>
     <row r="282" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A282" s="7" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="B282" s="7"/>
       <c r="C282" s="8" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="D282" s="6" t="s">
         <v>7</v>
@@ -4959,11 +4962,11 @@
     </row>
     <row r="283" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A283" s="7" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="B283" s="7"/>
       <c r="C283" s="8" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="D283" s="6" t="s">
         <v>7</v>
@@ -4971,11 +4974,11 @@
     </row>
     <row r="284" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A284" s="7" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="B284" s="7"/>
       <c r="C284" s="8" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="D284" s="6" t="s">
         <v>7</v>
@@ -4983,11 +4986,11 @@
     </row>
     <row r="285" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A285" s="7" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="B285" s="7"/>
       <c r="C285" s="8" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="D285" s="6" t="s">
         <v>7</v>
@@ -4995,11 +4998,11 @@
     </row>
     <row r="286" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A286" s="7" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="B286" s="7"/>
       <c r="C286" s="8" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="D286" s="6" t="s">
         <v>7</v>
@@ -5007,11 +5010,11 @@
     </row>
     <row r="287" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A287" s="7" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="B287" s="7"/>
       <c r="C287" s="8" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="D287" s="6" t="s">
         <v>7</v>
@@ -5019,11 +5022,11 @@
     </row>
     <row r="288" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A288" s="7" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="B288" s="7"/>
       <c r="C288" s="8" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="D288" s="6" t="s">
         <v>7</v>
@@ -5031,11 +5034,11 @@
     </row>
     <row r="289" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A289" s="7" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="B289" s="7"/>
       <c r="C289" s="8" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="D289" s="6" t="s">
         <v>7</v>
@@ -5043,11 +5046,11 @@
     </row>
     <row r="290" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A290" s="7" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="B290" s="7"/>
       <c r="C290" s="8" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="D290" s="6" t="s">
         <v>7</v>
@@ -5055,11 +5058,11 @@
     </row>
     <row r="291" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A291" s="7" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="B291" s="7"/>
       <c r="C291" s="8" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="D291" s="6" t="s">
         <v>7</v>
@@ -5067,11 +5070,11 @@
     </row>
     <row r="292" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A292" s="7" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="B292" s="7"/>
       <c r="C292" s="8" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="D292" s="6" t="s">
         <v>7</v>
@@ -5079,11 +5082,11 @@
     </row>
     <row r="293" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A293" s="7" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="B293" s="7"/>
       <c r="C293" s="8" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="D293" s="6" t="s">
         <v>7</v>
@@ -5099,11 +5102,11 @@
     </row>
     <row r="296" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A296" s="7" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="B296" s="7"/>
       <c r="C296" s="8" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="D296" s="6" t="s">
         <v>7</v>
@@ -5111,11 +5114,11 @@
     </row>
     <row r="297" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A297" s="7" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="B297" s="7"/>
       <c r="C297" s="8" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="D297" s="6" t="s">
         <v>7</v>
@@ -5123,11 +5126,11 @@
     </row>
     <row r="298" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A298" s="7" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="B298" s="7"/>
       <c r="C298" s="8" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="D298" s="6" t="s">
         <v>7</v>
@@ -5135,11 +5138,11 @@
     </row>
     <row r="299" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A299" s="7" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="B299" s="7"/>
       <c r="C299" s="8" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="D299" s="6" t="s">
         <v>7</v>
@@ -5147,11 +5150,11 @@
     </row>
     <row r="300" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A300" s="7" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="B300" s="7"/>
       <c r="C300" s="8" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="D300" s="6" t="s">
         <v>7</v>
@@ -5159,11 +5162,11 @@
     </row>
     <row r="301" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A301" s="7" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="B301" s="7"/>
       <c r="C301" s="8" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="D301" s="6" t="s">
         <v>7</v>
@@ -5171,11 +5174,11 @@
     </row>
     <row r="302" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A302" s="7" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="B302" s="7"/>
       <c r="C302" s="8" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="D302" s="6" t="s">
         <v>7</v>
@@ -5183,11 +5186,11 @@
     </row>
     <row r="303" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A303" s="7" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="B303" s="7"/>
       <c r="C303" s="8" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="D303" s="6" t="s">
         <v>7</v>
@@ -5195,11 +5198,11 @@
     </row>
     <row r="304" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A304" s="7" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="B304" s="7"/>
       <c r="C304" s="8" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="D304" s="6" t="s">
         <v>7</v>
@@ -5207,11 +5210,11 @@
     </row>
     <row r="305" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A305" s="7" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="B305" s="7"/>
       <c r="C305" s="8" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="D305" s="6" t="s">
         <v>7</v>
@@ -5219,11 +5222,11 @@
     </row>
     <row r="306" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A306" s="7" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="B306" s="7"/>
       <c r="C306" s="8" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="D306" s="6" t="s">
         <v>7</v>
@@ -5231,11 +5234,11 @@
     </row>
     <row r="307" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A307" s="7" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="B307" s="7"/>
       <c r="C307" s="8" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="D307" s="6" t="s">
         <v>7</v>
@@ -5243,11 +5246,11 @@
     </row>
     <row r="308" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A308" s="7" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="B308" s="7"/>
       <c r="C308" s="8" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="D308" s="6" t="s">
         <v>7</v>
@@ -5255,11 +5258,11 @@
     </row>
     <row r="309" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A309" s="7" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="B309" s="7"/>
       <c r="C309" s="11" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="D309" s="6" t="s">
         <v>7</v>
@@ -5267,11 +5270,11 @@
     </row>
     <row r="310" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A310" s="7" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="B310" s="7"/>
       <c r="C310" s="8" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="D310" s="6" t="s">
         <v>7</v>
@@ -5279,11 +5282,11 @@
     </row>
     <row r="311" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A311" s="7" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="B311" s="7"/>
       <c r="C311" s="8" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="D311" s="6" t="s">
         <v>7</v>
@@ -5291,11 +5294,11 @@
     </row>
     <row r="312" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A312" s="7" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="B312" s="7"/>
       <c r="C312" s="8" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="D312" s="6" t="s">
         <v>7</v>
@@ -5303,11 +5306,11 @@
     </row>
     <row r="313" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A313" s="7" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="B313" s="7"/>
       <c r="C313" s="8" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="D313" s="6" t="s">
         <v>7</v>
@@ -5315,11 +5318,11 @@
     </row>
     <row r="314" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A314" s="7" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="B314" s="7"/>
       <c r="C314" s="8" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="D314" s="6" t="s">
         <v>7</v>
@@ -5327,11 +5330,11 @@
     </row>
     <row r="315" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A315" s="7" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="B315" s="7"/>
       <c r="C315" s="8" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="D315" s="6" t="s">
         <v>7</v>
@@ -5339,11 +5342,11 @@
     </row>
     <row r="316" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A316" s="7" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="B316" s="7"/>
       <c r="C316" s="8" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="D316" s="6" t="s">
         <v>7</v>
@@ -5351,11 +5354,11 @@
     </row>
     <row r="317" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A317" s="7" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="B317" s="7"/>
       <c r="C317" s="8" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="D317" s="6" t="s">
         <v>7</v>
@@ -5363,11 +5366,11 @@
     </row>
     <row r="318" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A318" s="7" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="B318" s="7"/>
       <c r="C318" s="8" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="D318" s="6" t="s">
         <v>7</v>
@@ -5375,11 +5378,11 @@
     </row>
     <row r="319" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A319" s="7" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="B319" s="7"/>
       <c r="C319" s="8" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="D319" s="6" t="s">
         <v>7</v>
@@ -5387,11 +5390,11 @@
     </row>
     <row r="320" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A320" s="7" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="B320" s="7"/>
       <c r="C320" s="8" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="D320" s="6" t="s">
         <v>7</v>
@@ -5399,11 +5402,11 @@
     </row>
     <row r="321" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A321" s="7" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="B321" s="7"/>
       <c r="C321" s="8" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="D321" s="6" t="s">
         <v>7</v>
@@ -5411,11 +5414,11 @@
     </row>
     <row r="322" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A322" s="7" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="B322" s="7"/>
       <c r="C322" s="8" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="D322" s="6" t="s">
         <v>7</v>
@@ -5423,11 +5426,11 @@
     </row>
     <row r="323" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A323" s="7" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="B323" s="7"/>
       <c r="C323" s="8" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="D323" s="6" t="s">
         <v>7</v>
@@ -5435,11 +5438,11 @@
     </row>
     <row r="324" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A324" s="7" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="B324" s="7"/>
       <c r="C324" s="8" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="D324" s="6" t="s">
         <v>7</v>
@@ -5447,11 +5450,11 @@
     </row>
     <row r="325" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A325" s="7" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="B325" s="7"/>
       <c r="C325" s="8" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="D325" s="6" t="s">
         <v>7</v>
@@ -5459,11 +5462,11 @@
     </row>
     <row r="326" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A326" s="7" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="B326" s="7"/>
       <c r="C326" s="8" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="D326" s="6" t="s">
         <v>7</v>
@@ -5471,11 +5474,11 @@
     </row>
     <row r="327" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A327" s="7" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="B327" s="7"/>
       <c r="C327" s="8" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="D327" s="6" t="s">
         <v>7</v>
@@ -5483,11 +5486,11 @@
     </row>
     <row r="328" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A328" s="7" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="B328" s="7"/>
       <c r="C328" s="8" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="D328" s="6" t="s">
         <v>7</v>
@@ -5495,11 +5498,11 @@
     </row>
     <row r="329" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A329" s="7" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="B329" s="7"/>
       <c r="C329" s="8" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="D329" s="6" t="s">
         <v>7</v>
@@ -5507,11 +5510,11 @@
     </row>
     <row r="330" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A330" s="7" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="B330" s="7"/>
       <c r="C330" s="8" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="D330" s="6" t="s">
         <v>7</v>
@@ -5519,11 +5522,11 @@
     </row>
     <row r="331" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A331" s="7" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="B331" s="7"/>
       <c r="C331" s="8" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="D331" s="6" t="s">
         <v>7</v>
@@ -5531,11 +5534,11 @@
     </row>
     <row r="332" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A332" s="7" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="B332" s="7"/>
       <c r="C332" s="8" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="D332" s="6" t="s">
         <v>7</v>
@@ -5543,11 +5546,11 @@
     </row>
     <row r="333" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A333" s="7" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="B333" s="7"/>
       <c r="C333" s="8" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="D333" s="6" t="s">
         <v>7</v>
@@ -5563,11 +5566,11 @@
     </row>
     <row r="336" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A336" s="7" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B336" s="7"/>
       <c r="C336" s="8" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="D336" s="6" t="s">
         <v>7</v>
@@ -5575,11 +5578,11 @@
     </row>
     <row r="337" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A337" s="7" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B337" s="7"/>
       <c r="C337" s="8" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="D337" s="6" t="s">
         <v>7</v>
@@ -5587,11 +5590,11 @@
     </row>
     <row r="338" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A338" s="7" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B338" s="7"/>
       <c r="C338" s="8" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="D338" s="6" t="s">
         <v>7</v>
@@ -5599,11 +5602,11 @@
     </row>
     <row r="339" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A339" s="7" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B339" s="7"/>
       <c r="C339" s="8" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="D339" s="6" t="s">
         <v>7</v>
@@ -5611,11 +5614,11 @@
     </row>
     <row r="340" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A340" s="7" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B340" s="7"/>
       <c r="C340" s="8" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="D340" s="6" t="s">
         <v>7</v>
@@ -5623,11 +5626,11 @@
     </row>
     <row r="341" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A341" s="7" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B341" s="7"/>
       <c r="C341" s="8" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="D341" s="6" t="s">
         <v>7</v>
@@ -5635,11 +5638,11 @@
     </row>
     <row r="342" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A342" s="7" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B342" s="7"/>
       <c r="C342" s="8" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="D342" s="6" t="s">
         <v>7</v>
@@ -5647,11 +5650,11 @@
     </row>
     <row r="343" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A343" s="7" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B343" s="7"/>
       <c r="C343" s="8" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="D343" s="6" t="s">
         <v>7</v>
@@ -5659,11 +5662,11 @@
     </row>
     <row r="344" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A344" s="7" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B344" s="7"/>
       <c r="C344" s="11" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="D344" s="6" t="s">
         <v>7</v>
@@ -5671,11 +5674,11 @@
     </row>
     <row r="345" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A345" s="7" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B345" s="7"/>
       <c r="C345" s="8" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="D345" s="6" t="s">
         <v>7</v>
@@ -5683,11 +5686,11 @@
     </row>
     <row r="346" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A346" s="7" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B346" s="7"/>
       <c r="C346" s="8" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="D346" s="6" t="s">
         <v>7</v>
@@ -5695,11 +5698,11 @@
     </row>
     <row r="347" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A347" s="7" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B347" s="7"/>
       <c r="C347" s="8" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="D347" s="6" t="s">
         <v>7</v>
@@ -5707,11 +5710,11 @@
     </row>
     <row r="348" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A348" s="7" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B348" s="7"/>
       <c r="C348" s="8" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="D348" s="6" t="s">
         <v>7</v>
@@ -5719,11 +5722,11 @@
     </row>
     <row r="349" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A349" s="7" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B349" s="7"/>
       <c r="C349" s="8" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="D349" s="6" t="s">
         <v>7</v>
@@ -5731,11 +5734,11 @@
     </row>
     <row r="350" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A350" s="7" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B350" s="7"/>
       <c r="C350" s="8" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="D350" s="6" t="s">
         <v>7</v>
@@ -5743,11 +5746,11 @@
     </row>
     <row r="351" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A351" s="7" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B351" s="7"/>
       <c r="C351" s="8" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="D351" s="6" t="s">
         <v>7</v>
@@ -5755,11 +5758,11 @@
     </row>
     <row r="352" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A352" s="7" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B352" s="7"/>
       <c r="C352" s="8" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="D352" s="6" t="s">
         <v>7</v>
@@ -5767,11 +5770,11 @@
     </row>
     <row r="353" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A353" s="7" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B353" s="7"/>
       <c r="C353" s="8" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="D353" s="6" t="s">
         <v>7</v>
@@ -5787,11 +5790,11 @@
     </row>
     <row r="356" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A356" s="7" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="B356" s="7"/>
       <c r="C356" s="8" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="D356" s="6" t="s">
         <v>7</v>
@@ -5799,11 +5802,11 @@
     </row>
     <row r="357" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A357" s="7" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="B357" s="7"/>
       <c r="C357" s="8" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="D357" s="6" t="s">
         <v>7</v>
@@ -5811,11 +5814,11 @@
     </row>
     <row r="358" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A358" s="7" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="B358" s="7"/>
       <c r="C358" s="8" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="D358" s="6" t="s">
         <v>7</v>
@@ -5823,11 +5826,11 @@
     </row>
     <row r="359" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A359" s="7" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="B359" s="7"/>
       <c r="C359" s="8" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="D359" s="6" t="s">
         <v>7</v>
@@ -5835,11 +5838,11 @@
     </row>
     <row r="360" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A360" s="7" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="B360" s="7"/>
       <c r="C360" s="8" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="D360" s="6" t="s">
         <v>7</v>
@@ -5847,11 +5850,11 @@
     </row>
     <row r="361" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A361" s="7" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="B361" s="7"/>
       <c r="C361" s="8" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="D361" s="6" t="s">
         <v>7</v>
@@ -5859,11 +5862,11 @@
     </row>
     <row r="362" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A362" s="7" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="B362" s="7"/>
       <c r="C362" s="8" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="D362" s="6" t="s">
         <v>7</v>
@@ -5871,11 +5874,11 @@
     </row>
     <row r="363" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A363" s="7" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="B363" s="7"/>
       <c r="C363" s="8" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="D363" s="6" t="s">
         <v>7</v>
@@ -5883,11 +5886,11 @@
     </row>
     <row r="364" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A364" s="7" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="B364" s="7"/>
       <c r="C364" s="8" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="D364" s="6" t="s">
         <v>7</v>
@@ -5895,11 +5898,11 @@
     </row>
     <row r="365" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A365" s="7" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="B365" s="7"/>
       <c r="C365" s="8" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="D365" s="6" t="s">
         <v>7</v>
@@ -5907,11 +5910,11 @@
     </row>
     <row r="366" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A366" s="7" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="B366" s="7"/>
       <c r="C366" s="8" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="D366" s="6" t="s">
         <v>7</v>
@@ -5919,11 +5922,11 @@
     </row>
     <row r="367" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A367" s="7" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="B367" s="7"/>
       <c r="C367" s="8" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="D367" s="6" t="s">
         <v>7</v>
@@ -5931,11 +5934,11 @@
     </row>
     <row r="368" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A368" s="7" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="B368" s="7"/>
       <c r="C368" s="8" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="D368" s="6" t="s">
         <v>7</v>
@@ -5943,11 +5946,11 @@
     </row>
     <row r="369" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A369" s="7" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="B369" s="7"/>
       <c r="C369" s="8" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="D369" s="6" t="s">
         <v>7</v>
@@ -5955,11 +5958,11 @@
     </row>
     <row r="370" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A370" s="7" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="B370" s="7"/>
       <c r="C370" s="8" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="D370" s="6" t="s">
         <v>7</v>
@@ -5967,11 +5970,11 @@
     </row>
     <row r="371" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A371" s="7" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="B371" s="7"/>
       <c r="C371" s="8" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="D371" s="6" t="s">
         <v>7</v>
@@ -5979,11 +5982,11 @@
     </row>
     <row r="372" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A372" s="7" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="B372" s="7"/>
       <c r="C372" s="8" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="D372" s="6" t="s">
         <v>7</v>
@@ -5991,11 +5994,11 @@
     </row>
     <row r="373" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A373" s="7" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="B373" s="7"/>
       <c r="C373" s="8" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="D373" s="6" t="s">
         <v>7</v>
@@ -6003,11 +6006,11 @@
     </row>
     <row r="374" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A374" s="7" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="B374" s="7"/>
       <c r="C374" s="8" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="D374" s="6" t="s">
         <v>7</v>
@@ -6015,11 +6018,11 @@
     </row>
     <row r="375" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A375" s="7" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="B375" s="7"/>
       <c r="C375" s="8" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="D375" s="6" t="s">
         <v>7</v>
@@ -6027,11 +6030,11 @@
     </row>
     <row r="376" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A376" s="7" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="B376" s="7"/>
       <c r="C376" s="8" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="D376" s="6" t="s">
         <v>7</v>
@@ -6039,11 +6042,11 @@
     </row>
     <row r="377" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A377" s="7" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="B377" s="7"/>
       <c r="C377" s="8" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="D377" s="6" t="s">
         <v>7</v>
@@ -6051,11 +6054,11 @@
     </row>
     <row r="378" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A378" s="7" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="B378" s="7"/>
       <c r="C378" s="8" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="D378" s="6" t="s">
         <v>7</v>
@@ -6063,11 +6066,11 @@
     </row>
     <row r="379" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A379" s="7" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="B379" s="7"/>
       <c r="C379" s="8" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="D379" s="6" t="s">
         <v>7</v>
@@ -6075,11 +6078,11 @@
     </row>
     <row r="380" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A380" s="7" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="B380" s="7"/>
       <c r="C380" s="8" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="D380" s="6" t="s">
         <v>7</v>
@@ -6087,11 +6090,11 @@
     </row>
     <row r="381" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A381" s="7" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="B381" s="7"/>
       <c r="C381" s="8" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="D381" s="6" t="s">
         <v>7</v>
@@ -6099,11 +6102,11 @@
     </row>
     <row r="382" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A382" s="7" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="B382" s="7"/>
       <c r="C382" s="8" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="D382" s="6" t="s">
         <v>7</v>
@@ -6111,11 +6114,11 @@
     </row>
     <row r="383" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A383" s="7" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="B383" s="7"/>
       <c r="C383" s="8" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="D383" s="6" t="s">
         <v>7</v>
@@ -6123,11 +6126,11 @@
     </row>
     <row r="384" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A384" s="7" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="B384" s="7"/>
       <c r="C384" s="8" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="D384" s="6" t="s">
         <v>7</v>
@@ -6135,11 +6138,11 @@
     </row>
     <row r="385" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A385" s="7" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="B385" s="7"/>
       <c r="C385" s="8" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="D385" s="6" t="s">
         <v>7</v>
@@ -6147,11 +6150,11 @@
     </row>
     <row r="386" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A386" s="7" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="B386" s="7"/>
       <c r="C386" s="8" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="D386" s="6" t="s">
         <v>7</v>
@@ -6159,11 +6162,11 @@
     </row>
     <row r="387" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A387" s="7" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="B387" s="7"/>
       <c r="C387" s="8" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="D387" s="6" t="s">
         <v>7</v>
@@ -6171,11 +6174,11 @@
     </row>
     <row r="388" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A388" s="7" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="B388" s="7"/>
       <c r="C388" s="8" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="D388" s="6" t="s">
         <v>7</v>
@@ -6183,11 +6186,11 @@
     </row>
     <row r="389" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A389" s="7" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="B389" s="7"/>
       <c r="C389" s="8" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="D389" s="6" t="s">
         <v>7</v>
@@ -6195,11 +6198,11 @@
     </row>
     <row r="390" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A390" s="7" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="B390" s="7"/>
       <c r="C390" s="8" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="D390" s="6" t="s">
         <v>7</v>
@@ -6207,11 +6210,11 @@
     </row>
     <row r="391" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A391" s="7" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="B391" s="7"/>
       <c r="C391" s="8" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="D391" s="6" t="s">
         <v>7</v>
@@ -6219,11 +6222,11 @@
     </row>
     <row r="392" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A392" s="7" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="B392" s="7"/>
       <c r="C392" s="8" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="D392" s="6" t="s">
         <v>7</v>
@@ -6231,11 +6234,11 @@
     </row>
     <row r="393" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A393" s="7" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="B393" s="7"/>
       <c r="C393" s="8" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="D393" s="6" t="s">
         <v>7</v>
@@ -6243,11 +6246,11 @@
     </row>
     <row r="394" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A394" s="7" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="B394" s="7"/>
       <c r="C394" s="8" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="D394" s="6" t="s">
         <v>7</v>
@@ -6255,11 +6258,11 @@
     </row>
     <row r="395" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A395" s="7" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="B395" s="7"/>
       <c r="C395" s="8" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="D395" s="6" t="s">
         <v>7</v>
@@ -6267,11 +6270,11 @@
     </row>
     <row r="396" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A396" s="7" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="B396" s="7"/>
       <c r="C396" s="8" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="D396" s="6" t="s">
         <v>7</v>
@@ -6279,11 +6282,11 @@
     </row>
     <row r="397" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A397" s="7" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="B397" s="7"/>
       <c r="C397" s="8" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="D397" s="6" t="s">
         <v>7</v>
@@ -6291,11 +6294,11 @@
     </row>
     <row r="398" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A398" s="7" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="B398" s="7"/>
       <c r="C398" s="8" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="D398" s="6" t="s">
         <v>7</v>
@@ -6303,11 +6306,11 @@
     </row>
     <row r="399" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A399" s="7" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="B399" s="7"/>
       <c r="C399" s="8" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="D399" s="6" t="s">
         <v>7</v>
@@ -6323,11 +6326,11 @@
     </row>
     <row r="402" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A402" s="7" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="B402" s="7"/>
       <c r="C402" s="8" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="D402" s="6" t="s">
         <v>7</v>
@@ -6335,11 +6338,11 @@
     </row>
     <row r="403" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A403" s="7" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="B403" s="7"/>
       <c r="C403" s="8" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="D403" s="6" t="s">
         <v>7</v>
@@ -6347,11 +6350,11 @@
     </row>
     <row r="404" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A404" s="7" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="B404" s="7"/>
       <c r="C404" s="8" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="D404" s="6" t="s">
         <v>7</v>
@@ -6359,11 +6362,11 @@
     </row>
     <row r="405" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A405" s="7" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="B405" s="7"/>
       <c r="C405" s="8" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D405" s="6" t="s">
         <v>7</v>
@@ -6371,11 +6374,11 @@
     </row>
     <row r="406" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A406" s="7" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="B406" s="7"/>
       <c r="C406" s="8" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="D406" s="6" t="s">
         <v>7</v>
@@ -6383,11 +6386,11 @@
     </row>
     <row r="407" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A407" s="7" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="B407" s="7"/>
       <c r="C407" s="8" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="D407" s="6" t="s">
         <v>7</v>
@@ -6403,11 +6406,11 @@
     </row>
     <row r="410" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A410" s="7" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="B410" s="7"/>
       <c r="C410" s="8" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="D410" s="6" t="s">
         <v>7</v>
@@ -6415,11 +6418,11 @@
     </row>
     <row r="411" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A411" s="7" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="B411" s="7"/>
       <c r="C411" s="8" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="D411" s="6" t="s">
         <v>7</v>
@@ -6427,11 +6430,11 @@
     </row>
     <row r="412" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A412" s="7" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="B412" s="7"/>
       <c r="C412" s="8" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="D412" s="6" t="s">
         <v>7</v>
@@ -6439,11 +6442,11 @@
     </row>
     <row r="413" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A413" s="7" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="B413" s="7"/>
       <c r="C413" s="8" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="D413" s="6" t="s">
         <v>7</v>
@@ -6451,11 +6454,11 @@
     </row>
     <row r="414" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A414" s="7" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="B414" s="7"/>
       <c r="C414" s="8" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="D414" s="6" t="s">
         <v>7</v>
@@ -6463,11 +6466,11 @@
     </row>
     <row r="415" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A415" s="7" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="B415" s="7"/>
       <c r="C415" s="8" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="D415" s="6" t="s">
         <v>7</v>
@@ -6475,11 +6478,11 @@
     </row>
     <row r="416" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A416" s="7" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="B416" s="7"/>
       <c r="C416" s="8" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="D416" s="6" t="s">
         <v>7</v>
@@ -6487,11 +6490,11 @@
     </row>
     <row r="417" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A417" s="7" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="B417" s="7"/>
       <c r="C417" s="8" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="D417" s="6" t="s">
         <v>7</v>
@@ -6499,11 +6502,11 @@
     </row>
     <row r="418" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A418" s="7" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="B418" s="7"/>
       <c r="C418" s="8" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="D418" s="6" t="s">
         <v>7</v>
@@ -6511,11 +6514,11 @@
     </row>
     <row r="419" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A419" s="7" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="B419" s="7"/>
       <c r="C419" s="8" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="D419" s="6" t="s">
         <v>7</v>
@@ -6523,11 +6526,11 @@
     </row>
     <row r="420" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A420" s="7" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="B420" s="7"/>
       <c r="C420" s="8" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="D420" s="6" t="s">
         <v>7</v>
@@ -6535,11 +6538,11 @@
     </row>
     <row r="421" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A421" s="7" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="B421" s="7"/>
       <c r="C421" s="8" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="D421" s="6" t="s">
         <v>7</v>
@@ -6547,11 +6550,11 @@
     </row>
     <row r="422" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A422" s="7" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="B422" s="7"/>
       <c r="C422" s="8" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="D422" s="6" t="s">
         <v>7</v>
@@ -6559,11 +6562,11 @@
     </row>
     <row r="423" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A423" s="7" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="B423" s="7"/>
       <c r="C423" s="8" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="D423" s="6" t="s">
         <v>7</v>
@@ -6571,11 +6574,11 @@
     </row>
     <row r="424" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A424" s="7" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="B424" s="7"/>
       <c r="C424" s="8" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="D424" s="6" t="s">
         <v>7</v>
@@ -6583,11 +6586,11 @@
     </row>
     <row r="425" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A425" s="7" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="B425" s="7"/>
       <c r="C425" s="8" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="D425" s="6" t="s">
         <v>7</v>
@@ -6595,11 +6598,11 @@
     </row>
     <row r="426" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A426" s="7" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="B426" s="7"/>
       <c r="C426" s="8" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="D426" s="6" t="s">
         <v>7</v>
@@ -6607,11 +6610,11 @@
     </row>
     <row r="427" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A427" s="7" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="B427" s="7"/>
       <c r="C427" s="8" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="D427" s="6" t="s">
         <v>7</v>
@@ -6619,11 +6622,11 @@
     </row>
     <row r="428" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A428" s="7" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="B428" s="7"/>
       <c r="C428" s="8" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="D428" s="6" t="s">
         <v>7</v>
@@ -6631,11 +6634,11 @@
     </row>
     <row r="429" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A429" s="7" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="B429" s="7"/>
       <c r="C429" s="8" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="D429" s="6" t="s">
         <v>7</v>
@@ -6643,11 +6646,11 @@
     </row>
     <row r="430" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A430" s="7" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="B430" s="7"/>
       <c r="C430" s="8" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="D430" s="6" t="s">
         <v>7</v>
@@ -6655,11 +6658,11 @@
     </row>
     <row r="431" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A431" s="7" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="B431" s="7"/>
       <c r="C431" s="8" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="D431" s="6" t="s">
         <v>7</v>
@@ -6667,11 +6670,11 @@
     </row>
     <row r="432" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A432" s="7" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="B432" s="7"/>
       <c r="C432" s="8" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="D432" s="6" t="s">
         <v>7</v>
@@ -6679,11 +6682,11 @@
     </row>
     <row r="433" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A433" s="7" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="B433" s="7"/>
       <c r="C433" s="8" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="D433" s="6" t="s">
         <v>7</v>
@@ -6691,11 +6694,11 @@
     </row>
     <row r="434" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A434" s="7" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="B434" s="7"/>
       <c r="C434" s="8" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="D434" s="6" t="s">
         <v>7</v>
@@ -6703,11 +6706,11 @@
     </row>
     <row r="435" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A435" s="7" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="B435" s="7"/>
       <c r="C435" s="8" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="D435" s="6" t="s">
         <v>7</v>
@@ -6715,11 +6718,11 @@
     </row>
     <row r="436" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A436" s="7" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="B436" s="7"/>
       <c r="C436" s="8" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="D436" s="6" t="s">
         <v>7</v>
@@ -6727,11 +6730,11 @@
     </row>
     <row r="437" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A437" s="7" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="B437" s="7"/>
       <c r="C437" s="8" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="D437" s="6" t="s">
         <v>7</v>
@@ -6739,11 +6742,11 @@
     </row>
     <row r="438" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A438" s="7" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="B438" s="7"/>
       <c r="C438" s="8" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="D438" s="6" t="s">
         <v>7</v>
@@ -6751,11 +6754,11 @@
     </row>
     <row r="439" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A439" s="7" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="B439" s="7"/>
       <c r="C439" s="8" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="D439" s="6" t="s">
         <v>7</v>
@@ -6763,11 +6766,11 @@
     </row>
     <row r="440" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A440" s="7" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="B440" s="7"/>
       <c r="C440" s="8" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="D440" s="6" t="s">
         <v>7</v>
@@ -6775,11 +6778,11 @@
     </row>
     <row r="441" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A441" s="7" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="B441" s="7"/>
       <c r="C441" s="8" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="D441" s="6" t="s">
         <v>7</v>
@@ -6787,11 +6790,11 @@
     </row>
     <row r="442" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A442" s="7" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="B442" s="7"/>
       <c r="C442" s="8" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="D442" s="6" t="s">
         <v>7</v>
@@ -6799,11 +6802,11 @@
     </row>
     <row r="443" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A443" s="7" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="B443" s="7"/>
       <c r="C443" s="8" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="D443" s="6" t="s">
         <v>7</v>
@@ -6811,11 +6814,11 @@
     </row>
     <row r="444" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A444" s="7" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="B444" s="7"/>
       <c r="C444" s="8" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="D444" s="6" t="s">
         <v>7</v>
@@ -6823,11 +6826,11 @@
     </row>
     <row r="445" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A445" s="7" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="B445" s="7"/>
       <c r="C445" s="8" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="D445" s="6" t="s">
         <v>7</v>
@@ -6835,11 +6838,11 @@
     </row>
     <row r="446" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A446" s="7" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="B446" s="7"/>
       <c r="C446" s="8" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="D446" s="6" t="s">
         <v>7</v>
@@ -6847,11 +6850,11 @@
     </row>
     <row r="447" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A447" s="7" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="B447" s="7"/>
       <c r="C447" s="8" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="D447" s="6" t="s">
         <v>7</v>
@@ -6859,11 +6862,11 @@
     </row>
     <row r="448" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A448" s="7" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="B448" s="7"/>
       <c r="C448" s="8" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="D448" s="6" t="s">
         <v>7</v>
@@ -6871,11 +6874,11 @@
     </row>
     <row r="449" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A449" s="7" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="B449" s="7"/>
       <c r="C449" s="8" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="D449" s="6" t="s">
         <v>7</v>
@@ -6883,11 +6886,11 @@
     </row>
     <row r="450" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A450" s="7" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="B450" s="7"/>
       <c r="C450" s="8" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="D450" s="6" t="s">
         <v>7</v>
@@ -6895,11 +6898,11 @@
     </row>
     <row r="451" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A451" s="7" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="B451" s="7"/>
       <c r="C451" s="8" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="D451" s="6" t="s">
         <v>7</v>
@@ -6907,11 +6910,11 @@
     </row>
     <row r="452" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A452" s="7" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="B452" s="7"/>
       <c r="C452" s="8" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="D452" s="6" t="s">
         <v>7</v>
@@ -6919,11 +6922,11 @@
     </row>
     <row r="453" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A453" s="7" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="B453" s="7"/>
       <c r="C453" s="8" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="D453" s="6" t="s">
         <v>7</v>
@@ -6931,11 +6934,11 @@
     </row>
     <row r="454" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A454" s="7" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="B454" s="7"/>
       <c r="C454" s="8" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="D454" s="6" t="s">
         <v>7</v>
@@ -6943,11 +6946,11 @@
     </row>
     <row r="455" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A455" s="7" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="B455" s="7"/>
       <c r="C455" s="8" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="D455" s="6" t="s">
         <v>7</v>
@@ -6955,11 +6958,11 @@
     </row>
     <row r="456" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A456" s="7" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="B456" s="7"/>
       <c r="C456" s="8" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="D456" s="6" t="s">
         <v>7</v>
@@ -6967,11 +6970,11 @@
     </row>
     <row r="457" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A457" s="7" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="B457" s="7"/>
       <c r="C457" s="8" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="D457" s="6" t="s">
         <v>7</v>
@@ -6979,11 +6982,11 @@
     </row>
     <row r="458" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A458" s="7" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="B458" s="7"/>
       <c r="C458" s="8" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="D458" s="6" t="s">
         <v>7</v>
@@ -6991,11 +6994,11 @@
     </row>
     <row r="459" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A459" s="7" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="B459" s="7"/>
       <c r="C459" s="8" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="D459" s="6" t="s">
         <v>7</v>
@@ -7003,11 +7006,11 @@
     </row>
     <row r="460" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A460" s="7" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="B460" s="7"/>
       <c r="C460" s="8" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="D460" s="6" t="s">
         <v>7</v>
@@ -7015,11 +7018,11 @@
     </row>
     <row r="461" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A461" s="7" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="B461" s="7"/>
       <c r="C461" s="8" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="D461" s="6" t="s">
         <v>7</v>
@@ -7027,11 +7030,11 @@
     </row>
     <row r="462" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A462" s="7" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="B462" s="7"/>
       <c r="C462" s="8" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="D462" s="6" t="s">
         <v>7</v>
@@ -7039,11 +7042,11 @@
     </row>
     <row r="463" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A463" s="7" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="B463" s="7"/>
       <c r="C463" s="8" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="D463" s="6" t="s">
         <v>7</v>
@@ -7051,11 +7054,11 @@
     </row>
     <row r="464" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A464" s="7" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="B464" s="7"/>
       <c r="C464" s="8" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="D464" s="6" t="s">
         <v>7</v>
@@ -7063,11 +7066,11 @@
     </row>
     <row r="465" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A465" s="7" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="B465" s="7"/>
       <c r="C465" s="8" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="D465" s="6" t="s">
         <v>7</v>
@@ -7075,11 +7078,11 @@
     </row>
     <row r="466" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A466" s="7" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="B466" s="7"/>
       <c r="C466" s="8" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="D466" s="6" t="s">
         <v>7</v>
@@ -7087,11 +7090,11 @@
     </row>
     <row r="467" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A467" s="7" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="B467" s="7"/>
       <c r="C467" s="8" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="D467" s="6" t="s">
         <v>7</v>
@@ -7099,11 +7102,11 @@
     </row>
     <row r="468" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A468" s="7" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="B468" s="7"/>
       <c r="C468" s="8" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="D468" s="6" t="s">
         <v>7</v>
@@ -7111,11 +7114,11 @@
     </row>
     <row r="469" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A469" s="7" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="B469" s="7"/>
       <c r="C469" s="8" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="D469" s="6" t="s">
         <v>7</v>
@@ -7133,11 +7136,11 @@
     </row>
     <row r="472" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A472" s="7" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="B472" s="7"/>
       <c r="C472" s="8" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="D472" s="6" t="s">
         <v>7</v>
@@ -7145,11 +7148,11 @@
     </row>
     <row r="473" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A473" s="7" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="B473" s="7"/>
       <c r="C473" s="8" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="D473" s="6" t="s">
         <v>7</v>
@@ -7157,11 +7160,11 @@
     </row>
     <row r="474" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A474" s="7" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="B474" s="7"/>
       <c r="C474" s="8" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="D474" s="6" t="s">
         <v>7</v>
@@ -7169,11 +7172,11 @@
     </row>
     <row r="475" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A475" s="7" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="B475" s="7"/>
       <c r="C475" s="8" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="D475" s="6" t="s">
         <v>7</v>
@@ -7181,11 +7184,11 @@
     </row>
     <row r="476" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A476" s="7" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="B476" s="7"/>
       <c r="C476" s="8" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="D476" s="6" t="s">
         <v>7</v>
@@ -7193,11 +7196,11 @@
     </row>
     <row r="477" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A477" s="7" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="B477" s="7"/>
       <c r="C477" s="8" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="D477" s="6" t="s">
         <v>7</v>
@@ -7205,11 +7208,11 @@
     </row>
     <row r="478" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A478" s="7" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="B478" s="7"/>
       <c r="C478" s="8" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="D478" s="6" t="s">
         <v>7</v>
@@ -7217,11 +7220,11 @@
     </row>
     <row r="479" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A479" s="7" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="B479" s="7"/>
       <c r="C479" s="8" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="D479" s="6" t="s">
         <v>7</v>
@@ -7229,11 +7232,11 @@
     </row>
     <row r="480" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A480" s="7" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="B480" s="7"/>
       <c r="C480" s="8" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="D480" s="6" t="s">
         <v>7</v>
@@ -7241,11 +7244,11 @@
     </row>
     <row r="481" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A481" s="7" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="B481" s="7"/>
       <c r="C481" s="8" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="D481" s="6" t="s">
         <v>7</v>

--- a/DSA_QUESTION.xlsx
+++ b/DSA_QUESTION.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1354" uniqueCount="469">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1357" uniqueCount="473">
   <si>
     <t xml:space="preserve">Number</t>
   </si>
@@ -106,6 +106,9 @@
     <t xml:space="preserve">Best time to buy and Sell stock</t>
   </si>
   <si>
+    <t xml:space="preserve">Redo</t>
+  </si>
+  <si>
     <t xml:space="preserve">find all pairs on integer array whose sum is equal to given number</t>
   </si>
   <si>
@@ -115,9 +118,15 @@
     <t xml:space="preserve">Rearrange the array in alternating positive and negative items with O(1) extra space</t>
   </si>
   <si>
+    <t xml:space="preserve">do in O(n)</t>
+  </si>
+  <si>
     <t xml:space="preserve">Find if there is any subarray with sum equal to 0</t>
   </si>
   <si>
+    <t xml:space="preserve">good question</t>
+  </si>
+  <si>
     <t xml:space="preserve">Find factorial of a large number</t>
   </si>
   <si>
@@ -554,6 +563,9 @@
   </si>
   <si>
     <t xml:space="preserve">level order traversal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">yes</t>
   </si>
   <si>
     <t xml:space="preserve">Reverse Level Order traversal</t>
@@ -1517,12 +1529,24 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF81D41A"/>
+        <bgColor rgb="FF969696"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor rgb="FF993300"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -1562,7 +1586,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1599,7 +1623,15 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="165" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1665,7 +1697,7 @@
       <rgbColor rgb="FFFFCC99"/>
       <rgbColor rgb="FF3366FF"/>
       <rgbColor rgb="FF33CCCC"/>
-      <rgbColor rgb="FF99CC00"/>
+      <rgbColor rgb="FF81D41A"/>
       <rgbColor rgb="FFFFCC00"/>
       <rgbColor rgb="FFFF9900"/>
       <rgbColor rgb="FFFF6600"/>
@@ -1689,10 +1721,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D481"/>
+  <dimension ref="A1:E481"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B15" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C15" activeCellId="0" sqref="C15"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A176" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C187" activeCellId="0" sqref="C187"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1746,7 +1778,7 @@
       <c r="C6" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="6" t="s">
+      <c r="D6" s="9" t="s">
         <v>10</v>
       </c>
     </row>
@@ -1760,7 +1792,7 @@
       <c r="C7" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="D7" s="6" t="s">
+      <c r="D7" s="9" t="s">
         <v>10</v>
       </c>
     </row>
@@ -1774,7 +1806,7 @@
       <c r="C8" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D8" s="6" t="s">
+      <c r="D8" s="9" t="s">
         <v>10</v>
       </c>
     </row>
@@ -1788,7 +1820,7 @@
       <c r="C9" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="D9" s="6" t="s">
+      <c r="D9" s="9" t="s">
         <v>10</v>
       </c>
     </row>
@@ -1796,13 +1828,13 @@
       <c r="A10" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="9" t="n">
+      <c r="B10" s="10" t="n">
         <v>5</v>
       </c>
       <c r="C10" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="D10" s="6" t="s">
+      <c r="D10" s="9" t="s">
         <v>10</v>
       </c>
     </row>
@@ -1816,7 +1848,7 @@
       <c r="C11" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="D11" s="6" t="s">
+      <c r="D11" s="9" t="s">
         <v>10</v>
       </c>
     </row>
@@ -1830,7 +1862,7 @@
       <c r="C12" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="D12" s="6" t="s">
+      <c r="D12" s="9" t="s">
         <v>7</v>
       </c>
     </row>
@@ -1844,7 +1876,7 @@
       <c r="C13" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="D13" s="6" t="s">
+      <c r="D13" s="9" t="s">
         <v>10</v>
       </c>
     </row>
@@ -1858,7 +1890,7 @@
       <c r="C14" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="D14" s="6" t="s">
+      <c r="D14" s="9" t="s">
         <v>19</v>
       </c>
     </row>
@@ -1872,7 +1904,7 @@
       <c r="C15" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="D15" s="6" t="s">
+      <c r="D15" s="11" t="s">
         <v>7</v>
       </c>
     </row>
@@ -1886,7 +1918,7 @@
       <c r="C16" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="D16" s="6" t="s">
+      <c r="D16" s="9" t="s">
         <v>10</v>
       </c>
     </row>
@@ -1900,7 +1932,7 @@
       <c r="C17" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="D17" s="6" t="s">
+      <c r="D17" s="9" t="s">
         <v>10</v>
       </c>
     </row>
@@ -1914,7 +1946,7 @@
       <c r="C18" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="D18" s="6" t="s">
+      <c r="D18" s="9" t="s">
         <v>10</v>
       </c>
     </row>
@@ -1928,7 +1960,7 @@
       <c r="C19" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="D19" s="6" t="s">
+      <c r="D19" s="9" t="s">
         <v>10</v>
       </c>
     </row>
@@ -1942,7 +1974,7 @@
       <c r="C20" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="D20" s="6" t="s">
+      <c r="D20" s="9" t="s">
         <v>10</v>
       </c>
     </row>
@@ -1950,11 +1982,13 @@
       <c r="A21" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="B21" s="7"/>
+      <c r="B21" s="7" t="n">
+        <v>16</v>
+      </c>
       <c r="C21" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="D21" s="6" t="s">
+      <c r="D21" s="9" t="s">
         <v>10</v>
       </c>
     </row>
@@ -1962,23 +1996,30 @@
       <c r="A22" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="B22" s="7"/>
+      <c r="B22" s="7" t="n">
+        <v>17</v>
+      </c>
       <c r="C22" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="D22" s="6" t="s">
-        <v>7</v>
+      <c r="D22" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="E22" s="0" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="B23" s="7"/>
+      <c r="B23" s="7" t="n">
+        <v>18</v>
+      </c>
       <c r="C23" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="D23" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="D23" s="11" t="s">
         <v>7</v>
       </c>
     </row>
@@ -1986,59 +2027,75 @@
       <c r="A24" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="B24" s="7"/>
+      <c r="B24" s="7" t="n">
+        <v>19</v>
+      </c>
       <c r="C24" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="D24" s="6" t="s">
-        <v>7</v>
+        <v>30</v>
+      </c>
+      <c r="D24" s="9" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="B25" s="7"/>
+      <c r="B25" s="7" t="n">
+        <v>20</v>
+      </c>
       <c r="C25" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="D25" s="6" t="s">
-        <v>7</v>
+        <v>31</v>
+      </c>
+      <c r="D25" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="E25" s="0" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="B26" s="7"/>
+      <c r="B26" s="7" t="n">
+        <v>21</v>
+      </c>
       <c r="C26" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="D26" s="6" t="s">
-        <v>7</v>
+        <v>33</v>
+      </c>
+      <c r="D26" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="E26" s="0" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="B27" s="7"/>
+      <c r="B27" s="7" t="n">
+        <v>22</v>
+      </c>
       <c r="C27" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="D27" s="6" t="s">
-        <v>7</v>
+        <v>35</v>
+      </c>
+      <c r="D27" s="9" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="B28" s="7"/>
+      <c r="B28" s="7" t="n">
+        <v>23</v>
+      </c>
       <c r="C28" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="D28" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="D28" s="11" t="s">
         <v>7</v>
       </c>
     </row>
@@ -2046,33 +2103,39 @@
       <c r="A29" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="B29" s="7"/>
+      <c r="B29" s="7" t="n">
+        <v>24</v>
+      </c>
       <c r="C29" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="D29" s="6" t="s">
-        <v>7</v>
+        <v>37</v>
+      </c>
+      <c r="D29" s="9" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="B30" s="7"/>
+      <c r="B30" s="7" t="n">
+        <v>25</v>
+      </c>
       <c r="C30" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="D30" s="6" t="s">
-        <v>7</v>
+        <v>38</v>
+      </c>
+      <c r="D30" s="9" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="B31" s="7"/>
+      <c r="B31" s="7" t="n">
+        <v>26</v>
+      </c>
       <c r="C31" s="8" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="D31" s="6" t="s">
         <v>7</v>
@@ -2082,33 +2145,40 @@
       <c r="A32" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="B32" s="7"/>
+      <c r="B32" s="7" t="n">
+        <v>27</v>
+      </c>
       <c r="C32" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="D32" s="6" t="s">
-        <v>7</v>
+        <v>40</v>
+      </c>
+      <c r="D32" s="9" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="B33" s="7"/>
+      <c r="B33" s="7" t="n">
+        <v>28</v>
+      </c>
       <c r="C33" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="D33" s="6" t="s">
-        <v>7</v>
+        <v>41</v>
+      </c>
+      <c r="D33" s="9" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="B34" s="7"/>
+      <c r="B34" s="7" t="n">
+        <f aca="false">28+1</f>
+        <v>29</v>
+      </c>
       <c r="C34" s="8" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="D34" s="6" t="s">
         <v>7</v>
@@ -2118,9 +2188,12 @@
       <c r="A35" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="B35" s="7"/>
+      <c r="B35" s="7" t="n">
+        <f aca="false">29+1</f>
+        <v>30</v>
+      </c>
       <c r="C35" s="8" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="D35" s="6" t="s">
         <v>7</v>
@@ -2132,7 +2205,7 @@
       </c>
       <c r="B36" s="7"/>
       <c r="C36" s="8" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="D36" s="6" t="s">
         <v>7</v>
@@ -2144,7 +2217,7 @@
       </c>
       <c r="B37" s="7"/>
       <c r="C37" s="8" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="D37" s="6" t="s">
         <v>7</v>
@@ -2156,7 +2229,7 @@
       </c>
       <c r="B38" s="7"/>
       <c r="C38" s="8" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="D38" s="6" t="s">
         <v>7</v>
@@ -2168,7 +2241,7 @@
       </c>
       <c r="B39" s="7"/>
       <c r="C39" s="8" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="D39" s="6" t="s">
         <v>7</v>
@@ -2180,7 +2253,7 @@
       </c>
       <c r="B40" s="7"/>
       <c r="C40" s="8" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="D40" s="6" t="s">
         <v>7</v>
@@ -2192,14 +2265,15 @@
       </c>
       <c r="B41" s="7"/>
       <c r="C41" s="8" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="D41" s="6" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C42" s="10"/>
+      <c r="B42" s="7"/>
+      <c r="C42" s="12"/>
       <c r="D42" s="6" t="s">
         <v>7</v>
       </c>
@@ -2207,18 +2281,18 @@
     <row r="43" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="7"/>
       <c r="B43" s="7"/>
-      <c r="C43" s="10"/>
+      <c r="C43" s="12"/>
       <c r="D43" s="6" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="7" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B44" s="7"/>
       <c r="C44" s="8" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="D44" s="6" t="s">
         <v>7</v>
@@ -2226,11 +2300,11 @@
     </row>
     <row r="45" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="7" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B45" s="7"/>
       <c r="C45" s="8" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="D45" s="6" t="s">
         <v>7</v>
@@ -2238,11 +2312,11 @@
     </row>
     <row r="46" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="7" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B46" s="7"/>
       <c r="C46" s="8" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="D46" s="6" t="s">
         <v>7</v>
@@ -2250,11 +2324,11 @@
     </row>
     <row r="47" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="7" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B47" s="7"/>
       <c r="C47" s="8" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="D47" s="6" t="s">
         <v>7</v>
@@ -2262,11 +2336,11 @@
     </row>
     <row r="48" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="7" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B48" s="7"/>
       <c r="C48" s="8" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="D48" s="6" t="s">
         <v>7</v>
@@ -2274,11 +2348,11 @@
     </row>
     <row r="49" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="7" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B49" s="7"/>
       <c r="C49" s="8" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="D49" s="6" t="s">
         <v>7</v>
@@ -2286,11 +2360,11 @@
     </row>
     <row r="50" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="7" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B50" s="7"/>
       <c r="C50" s="8" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="D50" s="6" t="s">
         <v>7</v>
@@ -2298,11 +2372,11 @@
     </row>
     <row r="51" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="7" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B51" s="7"/>
       <c r="C51" s="8" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="D51" s="6" t="s">
         <v>7</v>
@@ -2310,11 +2384,11 @@
     </row>
     <row r="52" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="7" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B52" s="7"/>
       <c r="C52" s="8" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="D52" s="6" t="s">
         <v>7</v>
@@ -2322,29 +2396,32 @@
     </row>
     <row r="53" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="7" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B53" s="7"/>
       <c r="C53" s="8" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="D53" s="6" t="s">
         <v>7</v>
       </c>
+    </row>
+    <row r="54" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B54" s="7"/>
     </row>
     <row r="55" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="7"/>
       <c r="B55" s="7"/>
-      <c r="C55" s="10"/>
+      <c r="C55" s="12"/>
       <c r="D55" s="6"/>
     </row>
     <row r="56" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="7" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B56" s="7"/>
       <c r="C56" s="8" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="D56" s="6" t="s">
         <v>7</v>
@@ -2352,11 +2429,11 @@
     </row>
     <row r="57" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="7" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B57" s="7"/>
       <c r="C57" s="8" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="D57" s="6" t="s">
         <v>7</v>
@@ -2364,11 +2441,11 @@
     </row>
     <row r="58" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="7" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B58" s="7"/>
       <c r="C58" s="8" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="D58" s="6" t="s">
         <v>7</v>
@@ -2376,11 +2453,11 @@
     </row>
     <row r="59" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="7" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B59" s="7"/>
-      <c r="C59" s="10" t="s">
-        <v>62</v>
+      <c r="C59" s="12" t="s">
+        <v>65</v>
       </c>
       <c r="D59" s="6" t="s">
         <v>7</v>
@@ -2388,11 +2465,11 @@
     </row>
     <row r="60" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="7" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B60" s="7"/>
       <c r="C60" s="8" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="D60" s="6" t="s">
         <v>7</v>
@@ -2400,11 +2477,11 @@
     </row>
     <row r="61" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="7" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B61" s="7"/>
       <c r="C61" s="8" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="D61" s="6" t="s">
         <v>7</v>
@@ -2412,11 +2489,11 @@
     </row>
     <row r="62" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="7" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B62" s="7"/>
       <c r="C62" s="8" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="D62" s="6" t="s">
         <v>7</v>
@@ -2424,11 +2501,11 @@
     </row>
     <row r="63" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="7" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B63" s="7"/>
       <c r="C63" s="8" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="D63" s="6" t="s">
         <v>7</v>
@@ -2436,11 +2513,11 @@
     </row>
     <row r="64" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="7" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B64" s="7"/>
       <c r="C64" s="8" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="D64" s="6" t="s">
         <v>7</v>
@@ -2448,11 +2525,11 @@
     </row>
     <row r="65" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="7" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B65" s="7"/>
       <c r="C65" s="8" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="D65" s="6" t="s">
         <v>7</v>
@@ -2460,11 +2537,11 @@
     </row>
     <row r="66" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="7" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B66" s="7"/>
       <c r="C66" s="8" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="D66" s="6" t="s">
         <v>7</v>
@@ -2472,11 +2549,11 @@
     </row>
     <row r="67" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="7" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B67" s="7"/>
       <c r="C67" s="8" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="D67" s="6" t="s">
         <v>7</v>
@@ -2484,11 +2561,11 @@
     </row>
     <row r="68" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="7" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B68" s="7"/>
       <c r="C68" s="8" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="D68" s="6" t="s">
         <v>7</v>
@@ -2496,11 +2573,11 @@
     </row>
     <row r="69" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="7" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B69" s="7"/>
       <c r="C69" s="8" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="D69" s="6" t="s">
         <v>7</v>
@@ -2508,11 +2585,11 @@
     </row>
     <row r="70" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="7" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B70" s="7"/>
       <c r="C70" s="8" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="D70" s="6" t="s">
         <v>7</v>
@@ -2520,11 +2597,11 @@
     </row>
     <row r="71" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="7" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B71" s="7"/>
       <c r="C71" s="8" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="D71" s="6" t="s">
         <v>7</v>
@@ -2532,11 +2609,11 @@
     </row>
     <row r="72" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="7" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B72" s="7"/>
       <c r="C72" s="8" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="D72" s="6" t="s">
         <v>7</v>
@@ -2544,11 +2621,11 @@
     </row>
     <row r="73" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="7" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B73" s="7"/>
       <c r="C73" s="8" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="D73" s="6" t="s">
         <v>7</v>
@@ -2556,11 +2633,11 @@
     </row>
     <row r="74" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="7" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B74" s="7"/>
       <c r="C74" s="8" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="D74" s="6" t="s">
         <v>7</v>
@@ -2568,11 +2645,11 @@
     </row>
     <row r="75" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="7" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B75" s="7"/>
       <c r="C75" s="8" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="D75" s="6" t="s">
         <v>7</v>
@@ -2580,11 +2657,11 @@
     </row>
     <row r="76" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="7" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B76" s="7"/>
       <c r="C76" s="8" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="D76" s="6" t="s">
         <v>7</v>
@@ -2592,11 +2669,11 @@
     </row>
     <row r="77" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="7" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B77" s="7"/>
       <c r="C77" s="8" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="D77" s="6" t="s">
         <v>7</v>
@@ -2604,11 +2681,11 @@
     </row>
     <row r="78" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="7" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B78" s="7"/>
       <c r="C78" s="8" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="D78" s="6" t="s">
         <v>7</v>
@@ -2616,11 +2693,11 @@
     </row>
     <row r="79" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="7" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B79" s="7"/>
       <c r="C79" s="8" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="D79" s="6" t="s">
         <v>7</v>
@@ -2628,11 +2705,11 @@
     </row>
     <row r="80" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="7" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B80" s="7"/>
       <c r="C80" s="8" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="D80" s="6" t="s">
         <v>7</v>
@@ -2640,11 +2717,11 @@
     </row>
     <row r="81" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="7" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B81" s="7"/>
       <c r="C81" s="8" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="D81" s="6" t="s">
         <v>7</v>
@@ -2652,11 +2729,11 @@
     </row>
     <row r="82" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="7" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B82" s="7"/>
       <c r="C82" s="8" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="D82" s="6" t="s">
         <v>7</v>
@@ -2664,11 +2741,11 @@
     </row>
     <row r="83" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="7" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B83" s="7"/>
       <c r="C83" s="8" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="D83" s="6" t="s">
         <v>7</v>
@@ -2676,11 +2753,11 @@
     </row>
     <row r="84" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="7" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B84" s="7"/>
       <c r="C84" s="8" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="D84" s="6" t="s">
         <v>7</v>
@@ -2688,11 +2765,11 @@
     </row>
     <row r="85" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="7" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B85" s="7"/>
       <c r="C85" s="8" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="D85" s="6" t="s">
         <v>7</v>
@@ -2700,11 +2777,11 @@
     </row>
     <row r="86" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="7" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B86" s="7"/>
       <c r="C86" s="8" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="D86" s="6" t="s">
         <v>7</v>
@@ -2712,11 +2789,11 @@
     </row>
     <row r="87" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="7" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B87" s="7"/>
       <c r="C87" s="8" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="D87" s="6" t="s">
         <v>7</v>
@@ -2724,11 +2801,11 @@
     </row>
     <row r="88" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="7" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B88" s="7"/>
       <c r="C88" s="8" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="D88" s="6" t="s">
         <v>7</v>
@@ -2736,11 +2813,11 @@
     </row>
     <row r="89" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="7" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B89" s="7"/>
       <c r="C89" s="8" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="D89" s="6" t="s">
         <v>7</v>
@@ -2748,11 +2825,11 @@
     </row>
     <row r="90" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="7" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B90" s="7"/>
       <c r="C90" s="8" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="D90" s="6" t="s">
         <v>7</v>
@@ -2760,11 +2837,11 @@
     </row>
     <row r="91" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="7" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B91" s="7"/>
       <c r="C91" s="8" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="D91" s="6" t="s">
         <v>7</v>
@@ -2772,11 +2849,11 @@
     </row>
     <row r="92" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="7" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B92" s="7"/>
       <c r="C92" s="8" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="D92" s="6" t="s">
         <v>7</v>
@@ -2784,11 +2861,11 @@
     </row>
     <row r="93" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="7" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B93" s="7"/>
       <c r="C93" s="8" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="D93" s="6" t="s">
         <v>7</v>
@@ -2796,11 +2873,11 @@
     </row>
     <row r="94" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="7" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B94" s="7"/>
       <c r="C94" s="8" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="D94" s="6" t="s">
         <v>7</v>
@@ -2808,11 +2885,11 @@
     </row>
     <row r="95" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="7" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B95" s="7"/>
       <c r="C95" s="8" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="D95" s="6" t="s">
         <v>7</v>
@@ -2820,11 +2897,11 @@
     </row>
     <row r="96" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="7" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B96" s="7"/>
       <c r="C96" s="8" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="D96" s="6" t="s">
         <v>7</v>
@@ -2832,11 +2909,11 @@
     </row>
     <row r="97" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="7" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B97" s="7"/>
       <c r="C97" s="8" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="D97" s="6" t="s">
         <v>7</v>
@@ -2844,29 +2921,32 @@
     </row>
     <row r="98" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="7" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B98" s="7"/>
       <c r="C98" s="8" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="D98" s="6" t="s">
         <v>7</v>
       </c>
+    </row>
+    <row r="99" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B99" s="7"/>
     </row>
     <row r="100" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="7"/>
       <c r="B100" s="7"/>
-      <c r="C100" s="10"/>
+      <c r="C100" s="12"/>
       <c r="D100" s="6"/>
     </row>
     <row r="101" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="7" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B101" s="7"/>
       <c r="C101" s="8" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="D101" s="6" t="s">
         <v>7</v>
@@ -2874,11 +2954,11 @@
     </row>
     <row r="102" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="7" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B102" s="7"/>
       <c r="C102" s="8" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="D102" s="6" t="s">
         <v>7</v>
@@ -2886,11 +2966,11 @@
     </row>
     <row r="103" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="7" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B103" s="7"/>
       <c r="C103" s="8" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="D103" s="6" t="s">
         <v>7</v>
@@ -2898,11 +2978,11 @@
     </row>
     <row r="104" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="7" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B104" s="7"/>
       <c r="C104" s="8" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="D104" s="6" t="s">
         <v>7</v>
@@ -2910,11 +2990,11 @@
     </row>
     <row r="105" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="7" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B105" s="7"/>
       <c r="C105" s="8" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="D105" s="6" t="s">
         <v>7</v>
@@ -2922,11 +3002,11 @@
     </row>
     <row r="106" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="7" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B106" s="7"/>
       <c r="C106" s="8" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="D106" s="6" t="s">
         <v>7</v>
@@ -2934,11 +3014,11 @@
     </row>
     <row r="107" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="7" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B107" s="7"/>
       <c r="C107" s="8" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="D107" s="6" t="s">
         <v>7</v>
@@ -2946,11 +3026,11 @@
     </row>
     <row r="108" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="7" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B108" s="7"/>
       <c r="C108" s="8" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="D108" s="6" t="s">
         <v>7</v>
@@ -2958,11 +3038,11 @@
     </row>
     <row r="109" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="7" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B109" s="7"/>
       <c r="C109" s="8" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="D109" s="6" t="s">
         <v>7</v>
@@ -2970,11 +3050,11 @@
     </row>
     <row r="110" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="7" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B110" s="7"/>
       <c r="C110" s="8" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="D110" s="6" t="s">
         <v>7</v>
@@ -2982,11 +3062,11 @@
     </row>
     <row r="111" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="7" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B111" s="7"/>
       <c r="C111" s="8" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="D111" s="6" t="s">
         <v>7</v>
@@ -2994,11 +3074,11 @@
     </row>
     <row r="112" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="7" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B112" s="7"/>
       <c r="C112" s="8" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="D112" s="6" t="s">
         <v>7</v>
@@ -3006,11 +3086,11 @@
     </row>
     <row r="113" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="7" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B113" s="7"/>
       <c r="C113" s="8" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="D113" s="6" t="s">
         <v>7</v>
@@ -3018,11 +3098,11 @@
     </row>
     <row r="114" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="7" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B114" s="7"/>
       <c r="C114" s="8" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="D114" s="6" t="s">
         <v>7</v>
@@ -3030,11 +3110,11 @@
     </row>
     <row r="115" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="7" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B115" s="7"/>
       <c r="C115" s="8" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="D115" s="6" t="s">
         <v>7</v>
@@ -3042,11 +3122,11 @@
     </row>
     <row r="116" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="7" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B116" s="7"/>
       <c r="C116" s="8" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="D116" s="6" t="s">
         <v>7</v>
@@ -3054,11 +3134,11 @@
     </row>
     <row r="117" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="7" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B117" s="7"/>
       <c r="C117" s="8" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="D117" s="6" t="s">
         <v>7</v>
@@ -3066,11 +3146,11 @@
     </row>
     <row r="118" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="7" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B118" s="7"/>
       <c r="C118" s="8" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="D118" s="6" t="s">
         <v>7</v>
@@ -3078,11 +3158,11 @@
     </row>
     <row r="119" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="7" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B119" s="7"/>
       <c r="C119" s="8" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="D119" s="6" t="s">
         <v>7</v>
@@ -3090,11 +3170,11 @@
     </row>
     <row r="120" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="7" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B120" s="7"/>
       <c r="C120" s="8" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="D120" s="6" t="s">
         <v>7</v>
@@ -3102,11 +3182,11 @@
     </row>
     <row r="121" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="7" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B121" s="7"/>
       <c r="C121" s="8" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="D121" s="6" t="s">
         <v>7</v>
@@ -3114,11 +3194,11 @@
     </row>
     <row r="122" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="7" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B122" s="7"/>
       <c r="C122" s="8" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="D122" s="6" t="s">
         <v>7</v>
@@ -3126,11 +3206,11 @@
     </row>
     <row r="123" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="7" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B123" s="7"/>
       <c r="C123" s="8" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="D123" s="6" t="s">
         <v>7</v>
@@ -3138,11 +3218,11 @@
     </row>
     <row r="124" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="7" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B124" s="7"/>
       <c r="C124" s="8" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="D124" s="6" t="s">
         <v>7</v>
@@ -3150,11 +3230,11 @@
     </row>
     <row r="125" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="7" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B125" s="7"/>
       <c r="C125" s="8" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="D125" s="6" t="s">
         <v>7</v>
@@ -3162,11 +3242,11 @@
     </row>
     <row r="126" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="7" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B126" s="7"/>
       <c r="C126" s="8" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="D126" s="6" t="s">
         <v>7</v>
@@ -3174,11 +3254,11 @@
     </row>
     <row r="127" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="7" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B127" s="7"/>
       <c r="C127" s="8" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="D127" s="6" t="s">
         <v>7</v>
@@ -3186,11 +3266,11 @@
     </row>
     <row r="128" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="7" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B128" s="7"/>
       <c r="C128" s="8" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="D128" s="6" t="s">
         <v>7</v>
@@ -3198,11 +3278,11 @@
     </row>
     <row r="129" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="7" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B129" s="7"/>
       <c r="C129" s="8" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="D129" s="6" t="s">
         <v>7</v>
@@ -3210,11 +3290,11 @@
     </row>
     <row r="130" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="7" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B130" s="7"/>
       <c r="C130" s="8" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="D130" s="6" t="s">
         <v>7</v>
@@ -3222,11 +3302,11 @@
     </row>
     <row r="131" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A131" s="7" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B131" s="7"/>
       <c r="C131" s="8" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="D131" s="6" t="s">
         <v>7</v>
@@ -3234,11 +3314,11 @@
     </row>
     <row r="132" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A132" s="7" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B132" s="7"/>
       <c r="C132" s="8" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="D132" s="6" t="s">
         <v>7</v>
@@ -3246,11 +3326,11 @@
     </row>
     <row r="133" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A133" s="7" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B133" s="7"/>
       <c r="C133" s="8" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="D133" s="6" t="s">
         <v>7</v>
@@ -3258,11 +3338,11 @@
     </row>
     <row r="134" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A134" s="7" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B134" s="7"/>
       <c r="C134" s="8" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="D134" s="6" t="s">
         <v>7</v>
@@ -3270,11 +3350,11 @@
     </row>
     <row r="135" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A135" s="7" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B135" s="7"/>
       <c r="C135" s="8" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="D135" s="6" t="s">
         <v>7</v>
@@ -3282,27 +3362,31 @@
     </row>
     <row r="136" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A136" s="7" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B136" s="7"/>
       <c r="C136" s="8" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="D136" s="6" t="s">
         <v>7</v>
       </c>
     </row>
+    <row r="137" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B137" s="7"/>
+    </row>
     <row r="138" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C138" s="10"/>
+      <c r="B138" s="7"/>
+      <c r="C138" s="12"/>
       <c r="D138" s="6"/>
     </row>
     <row r="139" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A139" s="7" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="B139" s="7"/>
       <c r="C139" s="8" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="D139" s="6" t="s">
         <v>7</v>
@@ -3310,11 +3394,11 @@
     </row>
     <row r="140" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A140" s="7" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="B140" s="7"/>
       <c r="C140" s="8" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="D140" s="6" t="s">
         <v>7</v>
@@ -3322,11 +3406,11 @@
     </row>
     <row r="141" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A141" s="7" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="B141" s="7"/>
       <c r="C141" s="8" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="D141" s="6" t="s">
         <v>7</v>
@@ -3334,11 +3418,11 @@
     </row>
     <row r="142" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A142" s="7" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="B142" s="7"/>
       <c r="C142" s="8" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="D142" s="6" t="s">
         <v>7</v>
@@ -3346,11 +3430,11 @@
     </row>
     <row r="143" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A143" s="7" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="B143" s="7"/>
       <c r="C143" s="8" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="D143" s="6" t="s">
         <v>7</v>
@@ -3358,11 +3442,11 @@
     </row>
     <row r="144" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A144" s="7" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="B144" s="7"/>
       <c r="C144" s="8" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="D144" s="6" t="s">
         <v>7</v>
@@ -3370,11 +3454,11 @@
     </row>
     <row r="145" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A145" s="7" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="B145" s="7"/>
       <c r="C145" s="8" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="D145" s="6" t="s">
         <v>7</v>
@@ -3382,11 +3466,11 @@
     </row>
     <row r="146" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A146" s="7" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="B146" s="7"/>
       <c r="C146" s="8" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="D146" s="6" t="s">
         <v>7</v>
@@ -3394,11 +3478,11 @@
     </row>
     <row r="147" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A147" s="7" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="B147" s="7"/>
       <c r="C147" s="8" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="D147" s="6" t="s">
         <v>7</v>
@@ -3406,11 +3490,11 @@
     </row>
     <row r="148" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A148" s="7" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="B148" s="7"/>
       <c r="C148" s="8" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="D148" s="6" t="s">
         <v>7</v>
@@ -3418,11 +3502,11 @@
     </row>
     <row r="149" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A149" s="7" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="B149" s="7"/>
       <c r="C149" s="8" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="D149" s="6" t="s">
         <v>7</v>
@@ -3430,11 +3514,11 @@
     </row>
     <row r="150" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A150" s="7" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="B150" s="7"/>
       <c r="C150" s="8" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="D150" s="6" t="s">
         <v>7</v>
@@ -3442,11 +3526,11 @@
     </row>
     <row r="151" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A151" s="7" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="B151" s="7"/>
       <c r="C151" s="8" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="D151" s="6" t="s">
         <v>7</v>
@@ -3454,11 +3538,11 @@
     </row>
     <row r="152" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A152" s="7" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="B152" s="7"/>
       <c r="C152" s="8" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="D152" s="6" t="s">
         <v>7</v>
@@ -3466,11 +3550,11 @@
     </row>
     <row r="153" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A153" s="7" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="B153" s="7"/>
       <c r="C153" s="8" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="D153" s="6" t="s">
         <v>7</v>
@@ -3478,11 +3562,11 @@
     </row>
     <row r="154" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A154" s="7" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="B154" s="7"/>
       <c r="C154" s="8" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="D154" s="6" t="s">
         <v>7</v>
@@ -3490,11 +3574,11 @@
     </row>
     <row r="155" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A155" s="7" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="B155" s="7"/>
       <c r="C155" s="8" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="D155" s="6" t="s">
         <v>7</v>
@@ -3502,11 +3586,11 @@
     </row>
     <row r="156" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A156" s="7" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="B156" s="7"/>
       <c r="C156" s="8" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="D156" s="6" t="s">
         <v>7</v>
@@ -3514,11 +3598,11 @@
     </row>
     <row r="157" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A157" s="7" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="B157" s="7"/>
       <c r="C157" s="8" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="D157" s="6" t="s">
         <v>7</v>
@@ -3526,11 +3610,11 @@
     </row>
     <row r="158" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A158" s="7" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="B158" s="7"/>
       <c r="C158" s="8" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="D158" s="6" t="s">
         <v>7</v>
@@ -3538,11 +3622,11 @@
     </row>
     <row r="159" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A159" s="7" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="B159" s="7"/>
       <c r="C159" s="8" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="D159" s="6" t="s">
         <v>7</v>
@@ -3550,11 +3634,11 @@
     </row>
     <row r="160" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A160" s="7" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="B160" s="7"/>
       <c r="C160" s="8" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="D160" s="6" t="s">
         <v>7</v>
@@ -3562,11 +3646,11 @@
     </row>
     <row r="161" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A161" s="7" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="B161" s="7"/>
       <c r="C161" s="8" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="D161" s="6" t="s">
         <v>7</v>
@@ -3574,11 +3658,11 @@
     </row>
     <row r="162" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A162" s="7" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="B162" s="7"/>
       <c r="C162" s="8" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="D162" s="6" t="s">
         <v>7</v>
@@ -3586,11 +3670,11 @@
     </row>
     <row r="163" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A163" s="7" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="B163" s="7"/>
       <c r="C163" s="8" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="D163" s="6" t="s">
         <v>7</v>
@@ -3598,11 +3682,11 @@
     </row>
     <row r="164" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A164" s="7" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="B164" s="7"/>
-      <c r="C164" s="10" t="s">
-        <v>165</v>
+      <c r="C164" s="12" t="s">
+        <v>168</v>
       </c>
       <c r="D164" s="6" t="s">
         <v>7</v>
@@ -3610,11 +3694,11 @@
     </row>
     <row r="165" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A165" s="7" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="B165" s="7"/>
-      <c r="C165" s="10" t="s">
-        <v>166</v>
+      <c r="C165" s="12" t="s">
+        <v>169</v>
       </c>
       <c r="D165" s="6" t="s">
         <v>7</v>
@@ -3622,11 +3706,11 @@
     </row>
     <row r="166" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A166" s="7" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="B166" s="7"/>
       <c r="C166" s="8" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="D166" s="6" t="s">
         <v>7</v>
@@ -3634,11 +3718,11 @@
     </row>
     <row r="167" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A167" s="7" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="B167" s="7"/>
       <c r="C167" s="8" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="D167" s="6" t="s">
         <v>7</v>
@@ -3646,11 +3730,11 @@
     </row>
     <row r="168" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A168" s="7" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="B168" s="7"/>
       <c r="C168" s="8" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="D168" s="6" t="s">
         <v>7</v>
@@ -3658,11 +3742,11 @@
     </row>
     <row r="169" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A169" s="7" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="B169" s="7"/>
       <c r="C169" s="8" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="D169" s="6" t="s">
         <v>7</v>
@@ -3670,11 +3754,11 @@
     </row>
     <row r="170" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A170" s="7" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="B170" s="7"/>
       <c r="C170" s="8" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="D170" s="6" t="s">
         <v>7</v>
@@ -3682,11 +3766,11 @@
     </row>
     <row r="171" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A171" s="7" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="B171" s="7"/>
       <c r="C171" s="8" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="D171" s="6" t="s">
         <v>7</v>
@@ -3694,11 +3778,11 @@
     </row>
     <row r="172" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A172" s="7" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="B172" s="7"/>
       <c r="C172" s="8" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="D172" s="6" t="s">
         <v>7</v>
@@ -3706,11 +3790,11 @@
     </row>
     <row r="173" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A173" s="7" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="B173" s="7"/>
       <c r="C173" s="8" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="D173" s="6" t="s">
         <v>7</v>
@@ -3718,39 +3802,47 @@
     </row>
     <row r="174" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A174" s="7" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="B174" s="7"/>
       <c r="C174" s="8" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="D174" s="6" t="s">
         <v>7</v>
       </c>
     </row>
+    <row r="175" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B175" s="7"/>
+    </row>
     <row r="176" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C176" s="10"/>
+      <c r="B176" s="7"/>
+      <c r="C176" s="12"/>
       <c r="D176" s="6"/>
     </row>
     <row r="177" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A177" s="7" t="s">
-        <v>176</v>
-      </c>
-      <c r="B177" s="7"/>
+        <v>179</v>
+      </c>
+      <c r="B177" s="7" t="n">
+        <v>1</v>
+      </c>
       <c r="C177" s="8" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="D177" s="6" t="s">
-        <v>7</v>
+        <v>181</v>
       </c>
     </row>
     <row r="178" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A178" s="7" t="s">
-        <v>176</v>
-      </c>
-      <c r="B178" s="7"/>
+        <v>179</v>
+      </c>
+      <c r="B178" s="7" t="n">
+        <v>1.5</v>
+      </c>
       <c r="C178" s="8" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="D178" s="6" t="s">
         <v>7</v>
@@ -3758,23 +3850,27 @@
     </row>
     <row r="179" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A179" s="7" t="s">
-        <v>176</v>
-      </c>
-      <c r="B179" s="7"/>
+        <v>179</v>
+      </c>
+      <c r="B179" s="7" t="n">
+        <v>2</v>
+      </c>
       <c r="C179" s="8" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="D179" s="6" t="s">
-        <v>7</v>
+        <v>181</v>
       </c>
     </row>
     <row r="180" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A180" s="7" t="s">
-        <v>176</v>
-      </c>
-      <c r="B180" s="7"/>
+        <v>179</v>
+      </c>
+      <c r="B180" s="7" t="n">
+        <v>2.5</v>
+      </c>
       <c r="C180" s="8" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="D180" s="6" t="s">
         <v>7</v>
@@ -3782,23 +3878,27 @@
     </row>
     <row r="181" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A181" s="7" t="s">
-        <v>176</v>
-      </c>
-      <c r="B181" s="7"/>
+        <v>179</v>
+      </c>
+      <c r="B181" s="7" t="n">
+        <v>3</v>
+      </c>
       <c r="C181" s="8" t="s">
+        <v>185</v>
+      </c>
+      <c r="D181" s="6" t="s">
         <v>181</v>
-      </c>
-      <c r="D181" s="6" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="182" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A182" s="7" t="s">
-        <v>176</v>
-      </c>
-      <c r="B182" s="7"/>
+        <v>179</v>
+      </c>
+      <c r="B182" s="7" t="n">
+        <v>4</v>
+      </c>
       <c r="C182" s="8" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="D182" s="6" t="s">
         <v>7</v>
@@ -3806,11 +3906,13 @@
     </row>
     <row r="183" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A183" s="7" t="s">
-        <v>176</v>
-      </c>
-      <c r="B183" s="7"/>
+        <v>179</v>
+      </c>
+      <c r="B183" s="7" t="n">
+        <v>5</v>
+      </c>
       <c r="C183" s="8" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="D183" s="6" t="s">
         <v>7</v>
@@ -3818,11 +3920,13 @@
     </row>
     <row r="184" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A184" s="7" t="s">
-        <v>176</v>
-      </c>
-      <c r="B184" s="7"/>
+        <v>179</v>
+      </c>
+      <c r="B184" s="7" t="n">
+        <v>6</v>
+      </c>
       <c r="C184" s="8" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="D184" s="6" t="s">
         <v>7</v>
@@ -3830,35 +3934,41 @@
     </row>
     <row r="185" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A185" s="7" t="s">
-        <v>176</v>
-      </c>
-      <c r="B185" s="7"/>
+        <v>179</v>
+      </c>
+      <c r="B185" s="7" t="n">
+        <v>7</v>
+      </c>
       <c r="C185" s="8" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="D185" s="6" t="s">
-        <v>7</v>
+        <v>181</v>
       </c>
     </row>
     <row r="186" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A186" s="7" t="s">
-        <v>176</v>
-      </c>
-      <c r="B186" s="7"/>
+        <v>179</v>
+      </c>
+      <c r="B186" s="7" t="n">
+        <v>8</v>
+      </c>
       <c r="C186" s="8" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="D186" s="6" t="s">
-        <v>7</v>
+        <v>181</v>
       </c>
     </row>
     <row r="187" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A187" s="7" t="s">
-        <v>176</v>
-      </c>
-      <c r="B187" s="7"/>
+        <v>179</v>
+      </c>
+      <c r="B187" s="7" t="n">
+        <v>9</v>
+      </c>
       <c r="C187" s="8" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="D187" s="6" t="s">
         <v>7</v>
@@ -3866,11 +3976,11 @@
     </row>
     <row r="188" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A188" s="7" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="B188" s="7"/>
       <c r="C188" s="8" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="D188" s="6" t="s">
         <v>7</v>
@@ -3878,11 +3988,11 @@
     </row>
     <row r="189" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A189" s="7" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="B189" s="7"/>
       <c r="C189" s="8" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="D189" s="6" t="s">
         <v>7</v>
@@ -3890,11 +4000,11 @@
     </row>
     <row r="190" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A190" s="7" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="B190" s="7"/>
       <c r="C190" s="8" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="D190" s="6" t="s">
         <v>7</v>
@@ -3902,11 +4012,11 @@
     </row>
     <row r="191" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A191" s="7" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="B191" s="7"/>
       <c r="C191" s="8" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="D191" s="6" t="s">
         <v>7</v>
@@ -3914,11 +4024,11 @@
     </row>
     <row r="192" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A192" s="7" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="B192" s="7"/>
       <c r="C192" s="8" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="D192" s="6" t="s">
         <v>7</v>
@@ -3926,11 +4036,11 @@
     </row>
     <row r="193" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A193" s="7" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="B193" s="7"/>
       <c r="C193" s="8" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="D193" s="6" t="s">
         <v>7</v>
@@ -3938,11 +4048,11 @@
     </row>
     <row r="194" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A194" s="7" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="B194" s="7"/>
       <c r="C194" s="8" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="D194" s="6" t="s">
         <v>7</v>
@@ -3950,11 +4060,11 @@
     </row>
     <row r="195" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A195" s="7" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="B195" s="7"/>
       <c r="C195" s="8" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="D195" s="6" t="s">
         <v>7</v>
@@ -3962,11 +4072,11 @@
     </row>
     <row r="196" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A196" s="7" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="B196" s="7"/>
       <c r="C196" s="8" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="D196" s="6" t="s">
         <v>7</v>
@@ -3974,11 +4084,11 @@
     </row>
     <row r="197" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A197" s="7" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="B197" s="7"/>
       <c r="C197" s="8" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="D197" s="6" t="s">
         <v>7</v>
@@ -3986,11 +4096,11 @@
     </row>
     <row r="198" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A198" s="7" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="B198" s="7"/>
       <c r="C198" s="8" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="D198" s="6" t="s">
         <v>7</v>
@@ -3998,11 +4108,11 @@
     </row>
     <row r="199" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A199" s="7" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="B199" s="7"/>
       <c r="C199" s="8" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="D199" s="6" t="s">
         <v>7</v>
@@ -4010,11 +4120,11 @@
     </row>
     <row r="200" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A200" s="7" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="B200" s="7"/>
       <c r="C200" s="8" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="D200" s="6" t="s">
         <v>7</v>
@@ -4022,11 +4132,11 @@
     </row>
     <row r="201" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A201" s="7" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="B201" s="7"/>
       <c r="C201" s="8" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="D201" s="6" t="s">
         <v>7</v>
@@ -4034,11 +4144,11 @@
     </row>
     <row r="202" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A202" s="7" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="B202" s="7"/>
       <c r="C202" s="8" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="D202" s="6" t="s">
         <v>7</v>
@@ -4046,11 +4156,11 @@
     </row>
     <row r="203" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A203" s="7" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="B203" s="7"/>
       <c r="C203" s="8" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="D203" s="6" t="s">
         <v>7</v>
@@ -4058,11 +4168,11 @@
     </row>
     <row r="204" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A204" s="7" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="B204" s="7"/>
       <c r="C204" s="8" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="D204" s="6" t="s">
         <v>7</v>
@@ -4070,11 +4180,11 @@
     </row>
     <row r="205" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A205" s="7" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="B205" s="7"/>
       <c r="C205" s="8" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="D205" s="6" t="s">
         <v>7</v>
@@ -4082,11 +4192,11 @@
     </row>
     <row r="206" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A206" s="7" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="B206" s="7"/>
       <c r="C206" s="8" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="D206" s="6" t="s">
         <v>7</v>
@@ -4094,11 +4204,11 @@
     </row>
     <row r="207" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A207" s="7" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="B207" s="7"/>
       <c r="C207" s="8" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="D207" s="6" t="s">
         <v>7</v>
@@ -4106,11 +4216,11 @@
     </row>
     <row r="208" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A208" s="7" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="B208" s="7"/>
       <c r="C208" s="8" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="D208" s="6" t="s">
         <v>7</v>
@@ -4118,11 +4228,11 @@
     </row>
     <row r="209" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A209" s="7" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="B209" s="7"/>
       <c r="C209" s="8" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="D209" s="6" t="s">
         <v>7</v>
@@ -4130,11 +4240,11 @@
     </row>
     <row r="210" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A210" s="7" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="B210" s="7"/>
       <c r="C210" s="8" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="D210" s="6" t="s">
         <v>7</v>
@@ -4142,11 +4252,11 @@
     </row>
     <row r="211" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A211" s="7" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="B211" s="7"/>
       <c r="C211" s="8" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="D211" s="6" t="s">
         <v>7</v>
@@ -4155,22 +4265,22 @@
     <row r="212" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A212" s="7"/>
       <c r="B212" s="7"/>
-      <c r="C212" s="10"/>
+      <c r="C212" s="12"/>
       <c r="D212" s="6"/>
     </row>
     <row r="213" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A213" s="7"/>
       <c r="B213" s="7"/>
-      <c r="C213" s="10"/>
+      <c r="C213" s="12"/>
       <c r="D213" s="6"/>
     </row>
     <row r="214" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A214" s="7" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="B214" s="7"/>
       <c r="C214" s="8" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="D214" s="6" t="s">
         <v>7</v>
@@ -4178,11 +4288,11 @@
     </row>
     <row r="215" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A215" s="7" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="B215" s="7"/>
       <c r="C215" s="8" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="D215" s="6" t="s">
         <v>7</v>
@@ -4190,11 +4300,11 @@
     </row>
     <row r="216" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A216" s="7" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="B216" s="7"/>
       <c r="C216" s="8" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="D216" s="6" t="s">
         <v>7</v>
@@ -4202,11 +4312,11 @@
     </row>
     <row r="217" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A217" s="7" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="B217" s="7"/>
       <c r="C217" s="8" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="D217" s="6" t="s">
         <v>7</v>
@@ -4214,11 +4324,11 @@
     </row>
     <row r="218" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A218" s="7" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="B218" s="7"/>
       <c r="C218" s="8" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="D218" s="6" t="s">
         <v>7</v>
@@ -4226,11 +4336,11 @@
     </row>
     <row r="219" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A219" s="7" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="B219" s="7"/>
       <c r="C219" s="8" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="D219" s="6" t="s">
         <v>7</v>
@@ -4238,11 +4348,11 @@
     </row>
     <row r="220" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A220" s="7" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="B220" s="7"/>
-      <c r="C220" s="11" t="s">
-        <v>219</v>
+      <c r="C220" s="13" t="s">
+        <v>223</v>
       </c>
       <c r="D220" s="6" t="s">
         <v>7</v>
@@ -4250,11 +4360,11 @@
     </row>
     <row r="221" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A221" s="7" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="B221" s="7"/>
       <c r="C221" s="8" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="D221" s="6" t="s">
         <v>7</v>
@@ -4262,11 +4372,11 @@
     </row>
     <row r="222" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A222" s="7" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="B222" s="7"/>
       <c r="C222" s="8" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="D222" s="6" t="s">
         <v>7</v>
@@ -4274,11 +4384,11 @@
     </row>
     <row r="223" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A223" s="7" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="B223" s="7"/>
       <c r="C223" s="8" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="D223" s="6" t="s">
         <v>7</v>
@@ -4286,11 +4396,11 @@
     </row>
     <row r="224" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A224" s="7" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="B224" s="7"/>
       <c r="C224" s="8" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="D224" s="6" t="s">
         <v>7</v>
@@ -4298,11 +4408,11 @@
     </row>
     <row r="225" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A225" s="7" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="B225" s="7"/>
       <c r="C225" s="8" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="D225" s="6" t="s">
         <v>7</v>
@@ -4310,11 +4420,11 @@
     </row>
     <row r="226" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A226" s="7" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="B226" s="7"/>
       <c r="C226" s="8" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="D226" s="6" t="s">
         <v>7</v>
@@ -4322,11 +4432,11 @@
     </row>
     <row r="227" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A227" s="7" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="B227" s="7"/>
       <c r="C227" s="8" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="D227" s="6" t="s">
         <v>7</v>
@@ -4334,11 +4444,11 @@
     </row>
     <row r="228" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A228" s="7" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="B228" s="7"/>
       <c r="C228" s="8" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="D228" s="6" t="s">
         <v>7</v>
@@ -4346,11 +4456,11 @@
     </row>
     <row r="229" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A229" s="7" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="B229" s="7"/>
       <c r="C229" s="8" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="D229" s="6" t="s">
         <v>7</v>
@@ -4358,11 +4468,11 @@
     </row>
     <row r="230" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A230" s="7" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="B230" s="7"/>
       <c r="C230" s="8" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="D230" s="6" t="s">
         <v>7</v>
@@ -4370,11 +4480,11 @@
     </row>
     <row r="231" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A231" s="7" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="B231" s="7"/>
       <c r="C231" s="8" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="D231" s="6" t="s">
         <v>7</v>
@@ -4382,11 +4492,11 @@
     </row>
     <row r="232" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A232" s="7" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="B232" s="7"/>
       <c r="C232" s="8" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="D232" s="6" t="s">
         <v>7</v>
@@ -4394,11 +4504,11 @@
     </row>
     <row r="233" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A233" s="7" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="B233" s="7"/>
       <c r="C233" s="8" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="D233" s="6" t="s">
         <v>7</v>
@@ -4406,11 +4516,11 @@
     </row>
     <row r="234" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A234" s="7" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="B234" s="7"/>
       <c r="C234" s="8" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="D234" s="6" t="s">
         <v>7</v>
@@ -4418,31 +4528,31 @@
     </row>
     <row r="235" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A235" s="7" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="B235" s="7"/>
       <c r="C235" s="8" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="D235" s="6" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="236" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C236" s="10"/>
+      <c r="C236" s="12"/>
       <c r="D236" s="6"/>
     </row>
     <row r="237" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C237" s="10"/>
+      <c r="C237" s="12"/>
       <c r="D237" s="6"/>
     </row>
     <row r="238" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A238" s="7" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="B238" s="7"/>
       <c r="C238" s="8" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="D238" s="6" t="s">
         <v>7</v>
@@ -4450,11 +4560,11 @@
     </row>
     <row r="239" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A239" s="7" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="B239" s="7"/>
       <c r="C239" s="8" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="D239" s="6" t="s">
         <v>7</v>
@@ -4462,11 +4572,11 @@
     </row>
     <row r="240" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A240" s="7" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="B240" s="7"/>
       <c r="C240" s="8" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="D240" s="6" t="s">
         <v>7</v>
@@ -4474,11 +4584,11 @@
     </row>
     <row r="241" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A241" s="7" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="B241" s="7"/>
       <c r="C241" s="8" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="D241" s="6" t="s">
         <v>7</v>
@@ -4486,11 +4596,11 @@
     </row>
     <row r="242" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A242" s="7" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="B242" s="7"/>
       <c r="C242" s="8" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="D242" s="6" t="s">
         <v>7</v>
@@ -4498,11 +4608,11 @@
     </row>
     <row r="243" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A243" s="7" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="B243" s="7"/>
       <c r="C243" s="8" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="D243" s="6" t="s">
         <v>7</v>
@@ -4510,11 +4620,11 @@
     </row>
     <row r="244" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A244" s="7" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="B244" s="7"/>
       <c r="C244" s="8" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="D244" s="6" t="s">
         <v>7</v>
@@ -4522,11 +4632,11 @@
     </row>
     <row r="245" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A245" s="7" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="B245" s="7"/>
       <c r="C245" s="8" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="D245" s="6" t="s">
         <v>7</v>
@@ -4534,11 +4644,11 @@
     </row>
     <row r="246" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A246" s="7" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="B246" s="7"/>
       <c r="C246" s="8" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="D246" s="6" t="s">
         <v>7</v>
@@ -4546,11 +4656,11 @@
     </row>
     <row r="247" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A247" s="7" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="B247" s="7"/>
       <c r="C247" s="8" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="D247" s="6" t="s">
         <v>7</v>
@@ -4558,11 +4668,11 @@
     </row>
     <row r="248" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A248" s="7" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="B248" s="7"/>
       <c r="C248" s="8" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="D248" s="6" t="s">
         <v>7</v>
@@ -4570,11 +4680,11 @@
     </row>
     <row r="249" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A249" s="7" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="B249" s="7"/>
       <c r="C249" s="8" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="D249" s="6" t="s">
         <v>7</v>
@@ -4582,11 +4692,11 @@
     </row>
     <row r="250" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A250" s="7" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="B250" s="7"/>
       <c r="C250" s="8" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="D250" s="6" t="s">
         <v>7</v>
@@ -4594,11 +4704,11 @@
     </row>
     <row r="251" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A251" s="7" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="B251" s="7"/>
       <c r="C251" s="8" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="D251" s="6" t="s">
         <v>7</v>
@@ -4606,11 +4716,11 @@
     </row>
     <row r="252" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A252" s="7" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="B252" s="7"/>
       <c r="C252" s="8" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="D252" s="6" t="s">
         <v>7</v>
@@ -4618,11 +4728,11 @@
     </row>
     <row r="253" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A253" s="7" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="B253" s="7"/>
       <c r="C253" s="8" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="D253" s="6" t="s">
         <v>7</v>
@@ -4630,11 +4740,11 @@
     </row>
     <row r="254" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A254" s="7" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="B254" s="7"/>
       <c r="C254" s="8" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="D254" s="6" t="s">
         <v>7</v>
@@ -4642,11 +4752,11 @@
     </row>
     <row r="255" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A255" s="7" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="B255" s="7"/>
       <c r="C255" s="8" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="D255" s="6" t="s">
         <v>7</v>
@@ -4654,11 +4764,11 @@
     </row>
     <row r="256" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A256" s="7" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="B256" s="7"/>
       <c r="C256" s="8" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="D256" s="6" t="s">
         <v>7</v>
@@ -4666,11 +4776,11 @@
     </row>
     <row r="257" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A257" s="7" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="B257" s="7"/>
       <c r="C257" s="8" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="D257" s="6" t="s">
         <v>7</v>
@@ -4678,11 +4788,11 @@
     </row>
     <row r="258" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A258" s="7" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="B258" s="7"/>
       <c r="C258" s="8" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="D258" s="6" t="s">
         <v>7</v>
@@ -4690,11 +4800,11 @@
     </row>
     <row r="259" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A259" s="7" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="B259" s="7"/>
       <c r="C259" s="8" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="D259" s="6" t="s">
         <v>7</v>
@@ -4702,11 +4812,11 @@
     </row>
     <row r="260" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A260" s="7" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="B260" s="7"/>
       <c r="C260" s="8" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="D260" s="6" t="s">
         <v>7</v>
@@ -4714,11 +4824,11 @@
     </row>
     <row r="261" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A261" s="7" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="B261" s="7"/>
       <c r="C261" s="8" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="D261" s="6" t="s">
         <v>7</v>
@@ -4726,11 +4836,11 @@
     </row>
     <row r="262" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A262" s="7" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="B262" s="7"/>
       <c r="C262" s="8" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="D262" s="6" t="s">
         <v>7</v>
@@ -4738,11 +4848,11 @@
     </row>
     <row r="263" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A263" s="7" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="B263" s="7"/>
       <c r="C263" s="8" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="D263" s="6" t="s">
         <v>7</v>
@@ -4750,11 +4860,11 @@
     </row>
     <row r="264" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A264" s="7" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="B264" s="7"/>
       <c r="C264" s="8" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="D264" s="6" t="s">
         <v>7</v>
@@ -4762,11 +4872,11 @@
     </row>
     <row r="265" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A265" s="7" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="B265" s="7"/>
       <c r="C265" s="8" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="D265" s="6" t="s">
         <v>7</v>
@@ -4774,11 +4884,11 @@
     </row>
     <row r="266" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A266" s="7" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="B266" s="7"/>
       <c r="C266" s="8" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="D266" s="6" t="s">
         <v>7</v>
@@ -4786,11 +4896,11 @@
     </row>
     <row r="267" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A267" s="7" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="B267" s="7"/>
       <c r="C267" s="8" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="D267" s="6" t="s">
         <v>7</v>
@@ -4798,11 +4908,11 @@
     </row>
     <row r="268" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A268" s="7" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="B268" s="7"/>
       <c r="C268" s="8" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="D268" s="6" t="s">
         <v>7</v>
@@ -4810,11 +4920,11 @@
     </row>
     <row r="269" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A269" s="7" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="B269" s="7"/>
       <c r="C269" s="8" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="D269" s="6" t="s">
         <v>7</v>
@@ -4822,11 +4932,11 @@
     </row>
     <row r="270" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A270" s="7" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="B270" s="7"/>
       <c r="C270" s="8" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="D270" s="6" t="s">
         <v>7</v>
@@ -4834,11 +4944,11 @@
     </row>
     <row r="271" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A271" s="7" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="B271" s="7"/>
       <c r="C271" s="8" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="D271" s="6" t="s">
         <v>7</v>
@@ -4846,31 +4956,31 @@
     </row>
     <row r="272" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A272" s="7" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="B272" s="7"/>
       <c r="C272" s="8" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="D272" s="6" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="273" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C273" s="10"/>
+      <c r="C273" s="12"/>
       <c r="D273" s="6"/>
     </row>
     <row r="274" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C274" s="10"/>
+      <c r="C274" s="12"/>
       <c r="D274" s="6"/>
     </row>
     <row r="275" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A275" s="7" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="B275" s="7"/>
       <c r="C275" s="8" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="D275" s="6" t="s">
         <v>7</v>
@@ -4878,11 +4988,11 @@
     </row>
     <row r="276" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A276" s="7" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="B276" s="7"/>
       <c r="C276" s="8" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="D276" s="6" t="s">
         <v>7</v>
@@ -4890,11 +5000,11 @@
     </row>
     <row r="277" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A277" s="7" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="B277" s="7"/>
       <c r="C277" s="8" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="D277" s="6" t="s">
         <v>7</v>
@@ -4902,11 +5012,11 @@
     </row>
     <row r="278" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A278" s="7" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="B278" s="7"/>
       <c r="C278" s="8" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="D278" s="6" t="s">
         <v>7</v>
@@ -4914,11 +5024,11 @@
     </row>
     <row r="279" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A279" s="7" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="B279" s="7"/>
       <c r="C279" s="8" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="D279" s="6" t="s">
         <v>7</v>
@@ -4926,11 +5036,11 @@
     </row>
     <row r="280" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A280" s="7" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="B280" s="7"/>
       <c r="C280" s="8" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="D280" s="6" t="s">
         <v>7</v>
@@ -4938,11 +5048,11 @@
     </row>
     <row r="281" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A281" s="7" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="B281" s="7"/>
       <c r="C281" s="8" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="D281" s="6" t="s">
         <v>7</v>
@@ -4950,11 +5060,11 @@
     </row>
     <row r="282" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A282" s="7" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="B282" s="7"/>
       <c r="C282" s="8" t="s">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="D282" s="6" t="s">
         <v>7</v>
@@ -4962,11 +5072,11 @@
     </row>
     <row r="283" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A283" s="7" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="B283" s="7"/>
       <c r="C283" s="8" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="D283" s="6" t="s">
         <v>7</v>
@@ -4974,11 +5084,11 @@
     </row>
     <row r="284" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A284" s="7" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="B284" s="7"/>
       <c r="C284" s="8" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="D284" s="6" t="s">
         <v>7</v>
@@ -4986,11 +5096,11 @@
     </row>
     <row r="285" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A285" s="7" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="B285" s="7"/>
       <c r="C285" s="8" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="D285" s="6" t="s">
         <v>7</v>
@@ -4998,11 +5108,11 @@
     </row>
     <row r="286" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A286" s="7" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="B286" s="7"/>
       <c r="C286" s="8" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="D286" s="6" t="s">
         <v>7</v>
@@ -5010,11 +5120,11 @@
     </row>
     <row r="287" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A287" s="7" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="B287" s="7"/>
       <c r="C287" s="8" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="D287" s="6" t="s">
         <v>7</v>
@@ -5022,11 +5132,11 @@
     </row>
     <row r="288" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A288" s="7" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="B288" s="7"/>
       <c r="C288" s="8" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="D288" s="6" t="s">
         <v>7</v>
@@ -5034,11 +5144,11 @@
     </row>
     <row r="289" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A289" s="7" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="B289" s="7"/>
       <c r="C289" s="8" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="D289" s="6" t="s">
         <v>7</v>
@@ -5046,11 +5156,11 @@
     </row>
     <row r="290" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A290" s="7" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="B290" s="7"/>
       <c r="C290" s="8" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="D290" s="6" t="s">
         <v>7</v>
@@ -5058,11 +5168,11 @@
     </row>
     <row r="291" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A291" s="7" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="B291" s="7"/>
       <c r="C291" s="8" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="D291" s="6" t="s">
         <v>7</v>
@@ -5070,11 +5180,11 @@
     </row>
     <row r="292" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A292" s="7" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="B292" s="7"/>
       <c r="C292" s="8" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="D292" s="6" t="s">
         <v>7</v>
@@ -5082,31 +5192,31 @@
     </row>
     <row r="293" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A293" s="7" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="B293" s="7"/>
       <c r="C293" s="8" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="D293" s="6" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="294" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C294" s="10"/>
+      <c r="C294" s="12"/>
       <c r="D294" s="6"/>
     </row>
     <row r="295" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C295" s="10"/>
+      <c r="C295" s="12"/>
       <c r="D295" s="6"/>
     </row>
     <row r="296" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A296" s="7" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="B296" s="7"/>
       <c r="C296" s="8" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="D296" s="6" t="s">
         <v>7</v>
@@ -5114,11 +5224,11 @@
     </row>
     <row r="297" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A297" s="7" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="B297" s="7"/>
       <c r="C297" s="8" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="D297" s="6" t="s">
         <v>7</v>
@@ -5126,11 +5236,11 @@
     </row>
     <row r="298" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A298" s="7" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="B298" s="7"/>
       <c r="C298" s="8" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="D298" s="6" t="s">
         <v>7</v>
@@ -5138,11 +5248,11 @@
     </row>
     <row r="299" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A299" s="7" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="B299" s="7"/>
       <c r="C299" s="8" t="s">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="D299" s="6" t="s">
         <v>7</v>
@@ -5150,11 +5260,11 @@
     </row>
     <row r="300" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A300" s="7" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="B300" s="7"/>
       <c r="C300" s="8" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="D300" s="6" t="s">
         <v>7</v>
@@ -5162,11 +5272,11 @@
     </row>
     <row r="301" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A301" s="7" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="B301" s="7"/>
       <c r="C301" s="8" t="s">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="D301" s="6" t="s">
         <v>7</v>
@@ -5174,11 +5284,11 @@
     </row>
     <row r="302" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A302" s="7" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="B302" s="7"/>
       <c r="C302" s="8" t="s">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="D302" s="6" t="s">
         <v>7</v>
@@ -5186,11 +5296,11 @@
     </row>
     <row r="303" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A303" s="7" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="B303" s="7"/>
       <c r="C303" s="8" t="s">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="D303" s="6" t="s">
         <v>7</v>
@@ -5198,11 +5308,11 @@
     </row>
     <row r="304" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A304" s="7" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="B304" s="7"/>
       <c r="C304" s="8" t="s">
-        <v>299</v>
+        <v>303</v>
       </c>
       <c r="D304" s="6" t="s">
         <v>7</v>
@@ -5210,11 +5320,11 @@
     </row>
     <row r="305" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A305" s="7" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="B305" s="7"/>
       <c r="C305" s="8" t="s">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="D305" s="6" t="s">
         <v>7</v>
@@ -5222,11 +5332,11 @@
     </row>
     <row r="306" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A306" s="7" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="B306" s="7"/>
       <c r="C306" s="8" t="s">
-        <v>301</v>
+        <v>305</v>
       </c>
       <c r="D306" s="6" t="s">
         <v>7</v>
@@ -5234,11 +5344,11 @@
     </row>
     <row r="307" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A307" s="7" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="B307" s="7"/>
       <c r="C307" s="8" t="s">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="D307" s="6" t="s">
         <v>7</v>
@@ -5246,11 +5356,11 @@
     </row>
     <row r="308" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A308" s="7" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="B308" s="7"/>
       <c r="C308" s="8" t="s">
-        <v>303</v>
+        <v>307</v>
       </c>
       <c r="D308" s="6" t="s">
         <v>7</v>
@@ -5258,11 +5368,11 @@
     </row>
     <row r="309" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A309" s="7" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="B309" s="7"/>
-      <c r="C309" s="11" t="s">
-        <v>304</v>
+      <c r="C309" s="13" t="s">
+        <v>308</v>
       </c>
       <c r="D309" s="6" t="s">
         <v>7</v>
@@ -5270,11 +5380,11 @@
     </row>
     <row r="310" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A310" s="7" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="B310" s="7"/>
       <c r="C310" s="8" t="s">
-        <v>305</v>
+        <v>309</v>
       </c>
       <c r="D310" s="6" t="s">
         <v>7</v>
@@ -5282,11 +5392,11 @@
     </row>
     <row r="311" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A311" s="7" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="B311" s="7"/>
       <c r="C311" s="8" t="s">
-        <v>306</v>
+        <v>310</v>
       </c>
       <c r="D311" s="6" t="s">
         <v>7</v>
@@ -5294,11 +5404,11 @@
     </row>
     <row r="312" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A312" s="7" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="B312" s="7"/>
       <c r="C312" s="8" t="s">
-        <v>307</v>
+        <v>311</v>
       </c>
       <c r="D312" s="6" t="s">
         <v>7</v>
@@ -5306,11 +5416,11 @@
     </row>
     <row r="313" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A313" s="7" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="B313" s="7"/>
       <c r="C313" s="8" t="s">
-        <v>308</v>
+        <v>312</v>
       </c>
       <c r="D313" s="6" t="s">
         <v>7</v>
@@ -5318,11 +5428,11 @@
     </row>
     <row r="314" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A314" s="7" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="B314" s="7"/>
       <c r="C314" s="8" t="s">
-        <v>309</v>
+        <v>313</v>
       </c>
       <c r="D314" s="6" t="s">
         <v>7</v>
@@ -5330,11 +5440,11 @@
     </row>
     <row r="315" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A315" s="7" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="B315" s="7"/>
       <c r="C315" s="8" t="s">
-        <v>310</v>
+        <v>314</v>
       </c>
       <c r="D315" s="6" t="s">
         <v>7</v>
@@ -5342,11 +5452,11 @@
     </row>
     <row r="316" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A316" s="7" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="B316" s="7"/>
       <c r="C316" s="8" t="s">
-        <v>311</v>
+        <v>315</v>
       </c>
       <c r="D316" s="6" t="s">
         <v>7</v>
@@ -5354,11 +5464,11 @@
     </row>
     <row r="317" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A317" s="7" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="B317" s="7"/>
       <c r="C317" s="8" t="s">
-        <v>312</v>
+        <v>316</v>
       </c>
       <c r="D317" s="6" t="s">
         <v>7</v>
@@ -5366,11 +5476,11 @@
     </row>
     <row r="318" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A318" s="7" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="B318" s="7"/>
       <c r="C318" s="8" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="D318" s="6" t="s">
         <v>7</v>
@@ -5378,11 +5488,11 @@
     </row>
     <row r="319" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A319" s="7" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="B319" s="7"/>
       <c r="C319" s="8" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="D319" s="6" t="s">
         <v>7</v>
@@ -5390,11 +5500,11 @@
     </row>
     <row r="320" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A320" s="7" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="B320" s="7"/>
       <c r="C320" s="8" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="D320" s="6" t="s">
         <v>7</v>
@@ -5402,11 +5512,11 @@
     </row>
     <row r="321" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A321" s="7" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="B321" s="7"/>
       <c r="C321" s="8" t="s">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="D321" s="6" t="s">
         <v>7</v>
@@ -5414,11 +5524,11 @@
     </row>
     <row r="322" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A322" s="7" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="B322" s="7"/>
       <c r="C322" s="8" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="D322" s="6" t="s">
         <v>7</v>
@@ -5426,11 +5536,11 @@
     </row>
     <row r="323" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A323" s="7" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="B323" s="7"/>
       <c r="C323" s="8" t="s">
-        <v>318</v>
+        <v>322</v>
       </c>
       <c r="D323" s="6" t="s">
         <v>7</v>
@@ -5438,11 +5548,11 @@
     </row>
     <row r="324" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A324" s="7" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="B324" s="7"/>
       <c r="C324" s="8" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="D324" s="6" t="s">
         <v>7</v>
@@ -5450,11 +5560,11 @@
     </row>
     <row r="325" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A325" s="7" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="B325" s="7"/>
       <c r="C325" s="8" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="D325" s="6" t="s">
         <v>7</v>
@@ -5462,11 +5572,11 @@
     </row>
     <row r="326" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A326" s="7" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="B326" s="7"/>
       <c r="C326" s="8" t="s">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="D326" s="6" t="s">
         <v>7</v>
@@ -5474,11 +5584,11 @@
     </row>
     <row r="327" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A327" s="7" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="B327" s="7"/>
       <c r="C327" s="8" t="s">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="D327" s="6" t="s">
         <v>7</v>
@@ -5486,11 +5596,11 @@
     </row>
     <row r="328" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A328" s="7" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="B328" s="7"/>
       <c r="C328" s="8" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="D328" s="6" t="s">
         <v>7</v>
@@ -5498,11 +5608,11 @@
     </row>
     <row r="329" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A329" s="7" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="B329" s="7"/>
       <c r="C329" s="8" t="s">
-        <v>324</v>
+        <v>328</v>
       </c>
       <c r="D329" s="6" t="s">
         <v>7</v>
@@ -5510,11 +5620,11 @@
     </row>
     <row r="330" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A330" s="7" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="B330" s="7"/>
       <c r="C330" s="8" t="s">
-        <v>325</v>
+        <v>329</v>
       </c>
       <c r="D330" s="6" t="s">
         <v>7</v>
@@ -5522,11 +5632,11 @@
     </row>
     <row r="331" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A331" s="7" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="B331" s="7"/>
       <c r="C331" s="8" t="s">
-        <v>326</v>
+        <v>330</v>
       </c>
       <c r="D331" s="6" t="s">
         <v>7</v>
@@ -5534,11 +5644,11 @@
     </row>
     <row r="332" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A332" s="7" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="B332" s="7"/>
       <c r="C332" s="8" t="s">
-        <v>327</v>
+        <v>331</v>
       </c>
       <c r="D332" s="6" t="s">
         <v>7</v>
@@ -5546,31 +5656,31 @@
     </row>
     <row r="333" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A333" s="7" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="B333" s="7"/>
       <c r="C333" s="8" t="s">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="D333" s="6" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="334" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C334" s="10"/>
+      <c r="C334" s="12"/>
       <c r="D334" s="6"/>
     </row>
     <row r="335" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C335" s="10"/>
+      <c r="C335" s="12"/>
       <c r="D335" s="6"/>
     </row>
     <row r="336" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A336" s="7" t="s">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="B336" s="7"/>
       <c r="C336" s="8" t="s">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="D336" s="6" t="s">
         <v>7</v>
@@ -5578,11 +5688,11 @@
     </row>
     <row r="337" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A337" s="7" t="s">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="B337" s="7"/>
       <c r="C337" s="8" t="s">
-        <v>331</v>
+        <v>335</v>
       </c>
       <c r="D337" s="6" t="s">
         <v>7</v>
@@ -5590,11 +5700,11 @@
     </row>
     <row r="338" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A338" s="7" t="s">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="B338" s="7"/>
       <c r="C338" s="8" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="D338" s="6" t="s">
         <v>7</v>
@@ -5602,11 +5712,11 @@
     </row>
     <row r="339" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A339" s="7" t="s">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="B339" s="7"/>
       <c r="C339" s="8" t="s">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="D339" s="6" t="s">
         <v>7</v>
@@ -5614,11 +5724,11 @@
     </row>
     <row r="340" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A340" s="7" t="s">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="B340" s="7"/>
       <c r="C340" s="8" t="s">
-        <v>334</v>
+        <v>338</v>
       </c>
       <c r="D340" s="6" t="s">
         <v>7</v>
@@ -5626,11 +5736,11 @@
     </row>
     <row r="341" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A341" s="7" t="s">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="B341" s="7"/>
       <c r="C341" s="8" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="D341" s="6" t="s">
         <v>7</v>
@@ -5638,11 +5748,11 @@
     </row>
     <row r="342" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A342" s="7" t="s">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="B342" s="7"/>
       <c r="C342" s="8" t="s">
-        <v>336</v>
+        <v>340</v>
       </c>
       <c r="D342" s="6" t="s">
         <v>7</v>
@@ -5650,11 +5760,11 @@
     </row>
     <row r="343" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A343" s="7" t="s">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="B343" s="7"/>
       <c r="C343" s="8" t="s">
-        <v>337</v>
+        <v>341</v>
       </c>
       <c r="D343" s="6" t="s">
         <v>7</v>
@@ -5662,11 +5772,11 @@
     </row>
     <row r="344" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A344" s="7" t="s">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="B344" s="7"/>
-      <c r="C344" s="11" t="s">
-        <v>338</v>
+      <c r="C344" s="13" t="s">
+        <v>342</v>
       </c>
       <c r="D344" s="6" t="s">
         <v>7</v>
@@ -5674,11 +5784,11 @@
     </row>
     <row r="345" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A345" s="7" t="s">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="B345" s="7"/>
       <c r="C345" s="8" t="s">
-        <v>339</v>
+        <v>343</v>
       </c>
       <c r="D345" s="6" t="s">
         <v>7</v>
@@ -5686,11 +5796,11 @@
     </row>
     <row r="346" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A346" s="7" t="s">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="B346" s="7"/>
       <c r="C346" s="8" t="s">
-        <v>340</v>
+        <v>344</v>
       </c>
       <c r="D346" s="6" t="s">
         <v>7</v>
@@ -5698,11 +5808,11 @@
     </row>
     <row r="347" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A347" s="7" t="s">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="B347" s="7"/>
       <c r="C347" s="8" t="s">
-        <v>341</v>
+        <v>345</v>
       </c>
       <c r="D347" s="6" t="s">
         <v>7</v>
@@ -5710,11 +5820,11 @@
     </row>
     <row r="348" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A348" s="7" t="s">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="B348" s="7"/>
       <c r="C348" s="8" t="s">
-        <v>342</v>
+        <v>346</v>
       </c>
       <c r="D348" s="6" t="s">
         <v>7</v>
@@ -5722,11 +5832,11 @@
     </row>
     <row r="349" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A349" s="7" t="s">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="B349" s="7"/>
       <c r="C349" s="8" t="s">
-        <v>343</v>
+        <v>347</v>
       </c>
       <c r="D349" s="6" t="s">
         <v>7</v>
@@ -5734,11 +5844,11 @@
     </row>
     <row r="350" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A350" s="7" t="s">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="B350" s="7"/>
       <c r="C350" s="8" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="D350" s="6" t="s">
         <v>7</v>
@@ -5746,11 +5856,11 @@
     </row>
     <row r="351" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A351" s="7" t="s">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="B351" s="7"/>
       <c r="C351" s="8" t="s">
-        <v>345</v>
+        <v>349</v>
       </c>
       <c r="D351" s="6" t="s">
         <v>7</v>
@@ -5758,11 +5868,11 @@
     </row>
     <row r="352" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A352" s="7" t="s">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="B352" s="7"/>
       <c r="C352" s="8" t="s">
-        <v>346</v>
+        <v>350</v>
       </c>
       <c r="D352" s="6" t="s">
         <v>7</v>
@@ -5770,31 +5880,31 @@
     </row>
     <row r="353" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A353" s="7" t="s">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="B353" s="7"/>
       <c r="C353" s="8" t="s">
-        <v>347</v>
+        <v>351</v>
       </c>
       <c r="D353" s="6" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="354" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C354" s="10"/>
+      <c r="C354" s="12"/>
       <c r="D354" s="6"/>
     </row>
     <row r="355" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C355" s="10"/>
+      <c r="C355" s="12"/>
       <c r="D355" s="6"/>
     </row>
     <row r="356" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A356" s="7" t="s">
-        <v>348</v>
+        <v>352</v>
       </c>
       <c r="B356" s="7"/>
       <c r="C356" s="8" t="s">
-        <v>349</v>
+        <v>353</v>
       </c>
       <c r="D356" s="6" t="s">
         <v>7</v>
@@ -5802,11 +5912,11 @@
     </row>
     <row r="357" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A357" s="7" t="s">
-        <v>348</v>
+        <v>352</v>
       </c>
       <c r="B357" s="7"/>
       <c r="C357" s="8" t="s">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="D357" s="6" t="s">
         <v>7</v>
@@ -5814,11 +5924,11 @@
     </row>
     <row r="358" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A358" s="7" t="s">
-        <v>348</v>
+        <v>352</v>
       </c>
       <c r="B358" s="7"/>
       <c r="C358" s="8" t="s">
-        <v>351</v>
+        <v>355</v>
       </c>
       <c r="D358" s="6" t="s">
         <v>7</v>
@@ -5826,11 +5936,11 @@
     </row>
     <row r="359" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A359" s="7" t="s">
-        <v>348</v>
+        <v>352</v>
       </c>
       <c r="B359" s="7"/>
       <c r="C359" s="8" t="s">
-        <v>352</v>
+        <v>356</v>
       </c>
       <c r="D359" s="6" t="s">
         <v>7</v>
@@ -5838,11 +5948,11 @@
     </row>
     <row r="360" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A360" s="7" t="s">
-        <v>348</v>
+        <v>352</v>
       </c>
       <c r="B360" s="7"/>
       <c r="C360" s="8" t="s">
-        <v>353</v>
+        <v>357</v>
       </c>
       <c r="D360" s="6" t="s">
         <v>7</v>
@@ -5850,11 +5960,11 @@
     </row>
     <row r="361" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A361" s="7" t="s">
-        <v>348</v>
+        <v>352</v>
       </c>
       <c r="B361" s="7"/>
       <c r="C361" s="8" t="s">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="D361" s="6" t="s">
         <v>7</v>
@@ -5862,11 +5972,11 @@
     </row>
     <row r="362" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A362" s="7" t="s">
-        <v>348</v>
+        <v>352</v>
       </c>
       <c r="B362" s="7"/>
       <c r="C362" s="8" t="s">
-        <v>355</v>
+        <v>359</v>
       </c>
       <c r="D362" s="6" t="s">
         <v>7</v>
@@ -5874,11 +5984,11 @@
     </row>
     <row r="363" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A363" s="7" t="s">
-        <v>348</v>
+        <v>352</v>
       </c>
       <c r="B363" s="7"/>
       <c r="C363" s="8" t="s">
-        <v>356</v>
+        <v>360</v>
       </c>
       <c r="D363" s="6" t="s">
         <v>7</v>
@@ -5886,11 +5996,11 @@
     </row>
     <row r="364" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A364" s="7" t="s">
-        <v>348</v>
+        <v>352</v>
       </c>
       <c r="B364" s="7"/>
       <c r="C364" s="8" t="s">
-        <v>357</v>
+        <v>361</v>
       </c>
       <c r="D364" s="6" t="s">
         <v>7</v>
@@ -5898,11 +6008,11 @@
     </row>
     <row r="365" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A365" s="7" t="s">
-        <v>348</v>
+        <v>352</v>
       </c>
       <c r="B365" s="7"/>
       <c r="C365" s="8" t="s">
-        <v>358</v>
+        <v>362</v>
       </c>
       <c r="D365" s="6" t="s">
         <v>7</v>
@@ -5910,11 +6020,11 @@
     </row>
     <row r="366" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A366" s="7" t="s">
-        <v>348</v>
+        <v>352</v>
       </c>
       <c r="B366" s="7"/>
       <c r="C366" s="8" t="s">
-        <v>359</v>
+        <v>363</v>
       </c>
       <c r="D366" s="6" t="s">
         <v>7</v>
@@ -5922,11 +6032,11 @@
     </row>
     <row r="367" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A367" s="7" t="s">
-        <v>348</v>
+        <v>352</v>
       </c>
       <c r="B367" s="7"/>
       <c r="C367" s="8" t="s">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="D367" s="6" t="s">
         <v>7</v>
@@ -5934,11 +6044,11 @@
     </row>
     <row r="368" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A368" s="7" t="s">
-        <v>348</v>
+        <v>352</v>
       </c>
       <c r="B368" s="7"/>
       <c r="C368" s="8" t="s">
-        <v>361</v>
+        <v>365</v>
       </c>
       <c r="D368" s="6" t="s">
         <v>7</v>
@@ -5946,11 +6056,11 @@
     </row>
     <row r="369" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A369" s="7" t="s">
-        <v>348</v>
+        <v>352</v>
       </c>
       <c r="B369" s="7"/>
       <c r="C369" s="8" t="s">
-        <v>362</v>
+        <v>366</v>
       </c>
       <c r="D369" s="6" t="s">
         <v>7</v>
@@ -5958,11 +6068,11 @@
     </row>
     <row r="370" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A370" s="7" t="s">
-        <v>348</v>
+        <v>352</v>
       </c>
       <c r="B370" s="7"/>
       <c r="C370" s="8" t="s">
-        <v>363</v>
+        <v>367</v>
       </c>
       <c r="D370" s="6" t="s">
         <v>7</v>
@@ -5970,11 +6080,11 @@
     </row>
     <row r="371" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A371" s="7" t="s">
-        <v>348</v>
+        <v>352</v>
       </c>
       <c r="B371" s="7"/>
       <c r="C371" s="8" t="s">
-        <v>364</v>
+        <v>368</v>
       </c>
       <c r="D371" s="6" t="s">
         <v>7</v>
@@ -5982,11 +6092,11 @@
     </row>
     <row r="372" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A372" s="7" t="s">
-        <v>348</v>
+        <v>352</v>
       </c>
       <c r="B372" s="7"/>
       <c r="C372" s="8" t="s">
-        <v>365</v>
+        <v>369</v>
       </c>
       <c r="D372" s="6" t="s">
         <v>7</v>
@@ -5994,11 +6104,11 @@
     </row>
     <row r="373" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A373" s="7" t="s">
-        <v>348</v>
+        <v>352</v>
       </c>
       <c r="B373" s="7"/>
       <c r="C373" s="8" t="s">
-        <v>366</v>
+        <v>370</v>
       </c>
       <c r="D373" s="6" t="s">
         <v>7</v>
@@ -6006,11 +6116,11 @@
     </row>
     <row r="374" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A374" s="7" t="s">
-        <v>348</v>
+        <v>352</v>
       </c>
       <c r="B374" s="7"/>
       <c r="C374" s="8" t="s">
-        <v>367</v>
+        <v>371</v>
       </c>
       <c r="D374" s="6" t="s">
         <v>7</v>
@@ -6018,11 +6128,11 @@
     </row>
     <row r="375" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A375" s="7" t="s">
-        <v>348</v>
+        <v>352</v>
       </c>
       <c r="B375" s="7"/>
       <c r="C375" s="8" t="s">
-        <v>368</v>
+        <v>372</v>
       </c>
       <c r="D375" s="6" t="s">
         <v>7</v>
@@ -6030,11 +6140,11 @@
     </row>
     <row r="376" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A376" s="7" t="s">
-        <v>348</v>
+        <v>352</v>
       </c>
       <c r="B376" s="7"/>
       <c r="C376" s="8" t="s">
-        <v>369</v>
+        <v>373</v>
       </c>
       <c r="D376" s="6" t="s">
         <v>7</v>
@@ -6042,11 +6152,11 @@
     </row>
     <row r="377" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A377" s="7" t="s">
-        <v>348</v>
+        <v>352</v>
       </c>
       <c r="B377" s="7"/>
       <c r="C377" s="8" t="s">
-        <v>370</v>
+        <v>374</v>
       </c>
       <c r="D377" s="6" t="s">
         <v>7</v>
@@ -6054,11 +6164,11 @@
     </row>
     <row r="378" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A378" s="7" t="s">
-        <v>348</v>
+        <v>352</v>
       </c>
       <c r="B378" s="7"/>
       <c r="C378" s="8" t="s">
-        <v>371</v>
+        <v>375</v>
       </c>
       <c r="D378" s="6" t="s">
         <v>7</v>
@@ -6066,11 +6176,11 @@
     </row>
     <row r="379" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A379" s="7" t="s">
-        <v>348</v>
+        <v>352</v>
       </c>
       <c r="B379" s="7"/>
       <c r="C379" s="8" t="s">
-        <v>372</v>
+        <v>376</v>
       </c>
       <c r="D379" s="6" t="s">
         <v>7</v>
@@ -6078,11 +6188,11 @@
     </row>
     <row r="380" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A380" s="7" t="s">
-        <v>348</v>
+        <v>352</v>
       </c>
       <c r="B380" s="7"/>
       <c r="C380" s="8" t="s">
-        <v>373</v>
+        <v>377</v>
       </c>
       <c r="D380" s="6" t="s">
         <v>7</v>
@@ -6090,11 +6200,11 @@
     </row>
     <row r="381" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A381" s="7" t="s">
-        <v>348</v>
+        <v>352</v>
       </c>
       <c r="B381" s="7"/>
       <c r="C381" s="8" t="s">
-        <v>374</v>
+        <v>378</v>
       </c>
       <c r="D381" s="6" t="s">
         <v>7</v>
@@ -6102,11 +6212,11 @@
     </row>
     <row r="382" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A382" s="7" t="s">
-        <v>348</v>
+        <v>352</v>
       </c>
       <c r="B382" s="7"/>
       <c r="C382" s="8" t="s">
-        <v>375</v>
+        <v>379</v>
       </c>
       <c r="D382" s="6" t="s">
         <v>7</v>
@@ -6114,11 +6224,11 @@
     </row>
     <row r="383" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A383" s="7" t="s">
-        <v>348</v>
+        <v>352</v>
       </c>
       <c r="B383" s="7"/>
       <c r="C383" s="8" t="s">
-        <v>376</v>
+        <v>380</v>
       </c>
       <c r="D383" s="6" t="s">
         <v>7</v>
@@ -6126,11 +6236,11 @@
     </row>
     <row r="384" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A384" s="7" t="s">
-        <v>348</v>
+        <v>352</v>
       </c>
       <c r="B384" s="7"/>
       <c r="C384" s="8" t="s">
-        <v>377</v>
+        <v>381</v>
       </c>
       <c r="D384" s="6" t="s">
         <v>7</v>
@@ -6138,11 +6248,11 @@
     </row>
     <row r="385" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A385" s="7" t="s">
-        <v>348</v>
+        <v>352</v>
       </c>
       <c r="B385" s="7"/>
       <c r="C385" s="8" t="s">
-        <v>378</v>
+        <v>382</v>
       </c>
       <c r="D385" s="6" t="s">
         <v>7</v>
@@ -6150,11 +6260,11 @@
     </row>
     <row r="386" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A386" s="7" t="s">
-        <v>348</v>
+        <v>352</v>
       </c>
       <c r="B386" s="7"/>
       <c r="C386" s="8" t="s">
-        <v>379</v>
+        <v>383</v>
       </c>
       <c r="D386" s="6" t="s">
         <v>7</v>
@@ -6162,11 +6272,11 @@
     </row>
     <row r="387" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A387" s="7" t="s">
-        <v>348</v>
+        <v>352</v>
       </c>
       <c r="B387" s="7"/>
       <c r="C387" s="8" t="s">
-        <v>380</v>
+        <v>384</v>
       </c>
       <c r="D387" s="6" t="s">
         <v>7</v>
@@ -6174,11 +6284,11 @@
     </row>
     <row r="388" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A388" s="7" t="s">
-        <v>348</v>
+        <v>352</v>
       </c>
       <c r="B388" s="7"/>
       <c r="C388" s="8" t="s">
-        <v>381</v>
+        <v>385</v>
       </c>
       <c r="D388" s="6" t="s">
         <v>7</v>
@@ -6186,11 +6296,11 @@
     </row>
     <row r="389" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A389" s="7" t="s">
-        <v>348</v>
+        <v>352</v>
       </c>
       <c r="B389" s="7"/>
       <c r="C389" s="8" t="s">
-        <v>382</v>
+        <v>386</v>
       </c>
       <c r="D389" s="6" t="s">
         <v>7</v>
@@ -6198,11 +6308,11 @@
     </row>
     <row r="390" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A390" s="7" t="s">
-        <v>348</v>
+        <v>352</v>
       </c>
       <c r="B390" s="7"/>
       <c r="C390" s="8" t="s">
-        <v>382</v>
+        <v>386</v>
       </c>
       <c r="D390" s="6" t="s">
         <v>7</v>
@@ -6210,11 +6320,11 @@
     </row>
     <row r="391" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A391" s="7" t="s">
-        <v>348</v>
+        <v>352</v>
       </c>
       <c r="B391" s="7"/>
       <c r="C391" s="8" t="s">
-        <v>383</v>
+        <v>387</v>
       </c>
       <c r="D391" s="6" t="s">
         <v>7</v>
@@ -6222,11 +6332,11 @@
     </row>
     <row r="392" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A392" s="7" t="s">
-        <v>348</v>
+        <v>352</v>
       </c>
       <c r="B392" s="7"/>
       <c r="C392" s="8" t="s">
-        <v>384</v>
+        <v>388</v>
       </c>
       <c r="D392" s="6" t="s">
         <v>7</v>
@@ -6234,11 +6344,11 @@
     </row>
     <row r="393" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A393" s="7" t="s">
-        <v>348</v>
+        <v>352</v>
       </c>
       <c r="B393" s="7"/>
       <c r="C393" s="8" t="s">
-        <v>385</v>
+        <v>389</v>
       </c>
       <c r="D393" s="6" t="s">
         <v>7</v>
@@ -6246,11 +6356,11 @@
     </row>
     <row r="394" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A394" s="7" t="s">
-        <v>348</v>
+        <v>352</v>
       </c>
       <c r="B394" s="7"/>
       <c r="C394" s="8" t="s">
-        <v>386</v>
+        <v>390</v>
       </c>
       <c r="D394" s="6" t="s">
         <v>7</v>
@@ -6258,11 +6368,11 @@
     </row>
     <row r="395" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A395" s="7" t="s">
-        <v>348</v>
+        <v>352</v>
       </c>
       <c r="B395" s="7"/>
       <c r="C395" s="8" t="s">
-        <v>387</v>
+        <v>391</v>
       </c>
       <c r="D395" s="6" t="s">
         <v>7</v>
@@ -6270,11 +6380,11 @@
     </row>
     <row r="396" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A396" s="7" t="s">
-        <v>348</v>
+        <v>352</v>
       </c>
       <c r="B396" s="7"/>
       <c r="C396" s="8" t="s">
-        <v>388</v>
+        <v>392</v>
       </c>
       <c r="D396" s="6" t="s">
         <v>7</v>
@@ -6282,11 +6392,11 @@
     </row>
     <row r="397" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A397" s="7" t="s">
-        <v>348</v>
+        <v>352</v>
       </c>
       <c r="B397" s="7"/>
       <c r="C397" s="8" t="s">
-        <v>389</v>
+        <v>393</v>
       </c>
       <c r="D397" s="6" t="s">
         <v>7</v>
@@ -6294,11 +6404,11 @@
     </row>
     <row r="398" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A398" s="7" t="s">
-        <v>348</v>
+        <v>352</v>
       </c>
       <c r="B398" s="7"/>
       <c r="C398" s="8" t="s">
-        <v>390</v>
+        <v>394</v>
       </c>
       <c r="D398" s="6" t="s">
         <v>7</v>
@@ -6306,31 +6416,31 @@
     </row>
     <row r="399" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A399" s="7" t="s">
-        <v>348</v>
+        <v>352</v>
       </c>
       <c r="B399" s="7"/>
       <c r="C399" s="8" t="s">
-        <v>391</v>
+        <v>395</v>
       </c>
       <c r="D399" s="6" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="400" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C400" s="10"/>
+      <c r="C400" s="12"/>
       <c r="D400" s="6"/>
     </row>
     <row r="401" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C401" s="10"/>
+      <c r="C401" s="12"/>
       <c r="D401" s="6"/>
     </row>
     <row r="402" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A402" s="7" t="s">
-        <v>392</v>
+        <v>396</v>
       </c>
       <c r="B402" s="7"/>
       <c r="C402" s="8" t="s">
-        <v>393</v>
+        <v>397</v>
       </c>
       <c r="D402" s="6" t="s">
         <v>7</v>
@@ -6338,11 +6448,11 @@
     </row>
     <row r="403" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A403" s="7" t="s">
-        <v>392</v>
+        <v>396</v>
       </c>
       <c r="B403" s="7"/>
       <c r="C403" s="8" t="s">
-        <v>394</v>
+        <v>398</v>
       </c>
       <c r="D403" s="6" t="s">
         <v>7</v>
@@ -6350,11 +6460,11 @@
     </row>
     <row r="404" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A404" s="7" t="s">
-        <v>392</v>
+        <v>396</v>
       </c>
       <c r="B404" s="7"/>
       <c r="C404" s="8" t="s">
-        <v>395</v>
+        <v>399</v>
       </c>
       <c r="D404" s="6" t="s">
         <v>7</v>
@@ -6362,11 +6472,11 @@
     </row>
     <row r="405" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A405" s="7" t="s">
-        <v>392</v>
+        <v>396</v>
       </c>
       <c r="B405" s="7"/>
       <c r="C405" s="8" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="D405" s="6" t="s">
         <v>7</v>
@@ -6374,11 +6484,11 @@
     </row>
     <row r="406" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A406" s="7" t="s">
-        <v>392</v>
+        <v>396</v>
       </c>
       <c r="B406" s="7"/>
       <c r="C406" s="8" t="s">
-        <v>396</v>
+        <v>400</v>
       </c>
       <c r="D406" s="6" t="s">
         <v>7</v>
@@ -6386,31 +6496,31 @@
     </row>
     <row r="407" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A407" s="7" t="s">
-        <v>392</v>
+        <v>396</v>
       </c>
       <c r="B407" s="7"/>
       <c r="C407" s="8" t="s">
-        <v>397</v>
+        <v>401</v>
       </c>
       <c r="D407" s="6" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="408" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C408" s="10"/>
+      <c r="C408" s="12"/>
       <c r="D408" s="6"/>
     </row>
     <row r="409" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C409" s="10"/>
+      <c r="C409" s="12"/>
       <c r="D409" s="6"/>
     </row>
     <row r="410" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A410" s="7" t="s">
-        <v>398</v>
+        <v>402</v>
       </c>
       <c r="B410" s="7"/>
       <c r="C410" s="8" t="s">
-        <v>399</v>
+        <v>403</v>
       </c>
       <c r="D410" s="6" t="s">
         <v>7</v>
@@ -6418,11 +6528,11 @@
     </row>
     <row r="411" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A411" s="7" t="s">
-        <v>398</v>
+        <v>402</v>
       </c>
       <c r="B411" s="7"/>
       <c r="C411" s="8" t="s">
-        <v>400</v>
+        <v>404</v>
       </c>
       <c r="D411" s="6" t="s">
         <v>7</v>
@@ -6430,11 +6540,11 @@
     </row>
     <row r="412" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A412" s="7" t="s">
-        <v>398</v>
+        <v>402</v>
       </c>
       <c r="B412" s="7"/>
       <c r="C412" s="8" t="s">
-        <v>401</v>
+        <v>405</v>
       </c>
       <c r="D412" s="6" t="s">
         <v>7</v>
@@ -6442,11 +6552,11 @@
     </row>
     <row r="413" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A413" s="7" t="s">
-        <v>398</v>
+        <v>402</v>
       </c>
       <c r="B413" s="7"/>
       <c r="C413" s="8" t="s">
-        <v>402</v>
+        <v>406</v>
       </c>
       <c r="D413" s="6" t="s">
         <v>7</v>
@@ -6454,11 +6564,11 @@
     </row>
     <row r="414" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A414" s="7" t="s">
-        <v>398</v>
+        <v>402</v>
       </c>
       <c r="B414" s="7"/>
       <c r="C414" s="8" t="s">
-        <v>403</v>
+        <v>407</v>
       </c>
       <c r="D414" s="6" t="s">
         <v>7</v>
@@ -6466,11 +6576,11 @@
     </row>
     <row r="415" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A415" s="7" t="s">
-        <v>398</v>
+        <v>402</v>
       </c>
       <c r="B415" s="7"/>
       <c r="C415" s="8" t="s">
-        <v>404</v>
+        <v>408</v>
       </c>
       <c r="D415" s="6" t="s">
         <v>7</v>
@@ -6478,11 +6588,11 @@
     </row>
     <row r="416" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A416" s="7" t="s">
-        <v>398</v>
+        <v>402</v>
       </c>
       <c r="B416" s="7"/>
       <c r="C416" s="8" t="s">
-        <v>405</v>
+        <v>409</v>
       </c>
       <c r="D416" s="6" t="s">
         <v>7</v>
@@ -6490,11 +6600,11 @@
     </row>
     <row r="417" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A417" s="7" t="s">
-        <v>398</v>
+        <v>402</v>
       </c>
       <c r="B417" s="7"/>
       <c r="C417" s="8" t="s">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="D417" s="6" t="s">
         <v>7</v>
@@ -6502,11 +6612,11 @@
     </row>
     <row r="418" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A418" s="7" t="s">
-        <v>398</v>
+        <v>402</v>
       </c>
       <c r="B418" s="7"/>
       <c r="C418" s="8" t="s">
-        <v>406</v>
+        <v>410</v>
       </c>
       <c r="D418" s="6" t="s">
         <v>7</v>
@@ -6514,11 +6624,11 @@
     </row>
     <row r="419" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A419" s="7" t="s">
-        <v>398</v>
+        <v>402</v>
       </c>
       <c r="B419" s="7"/>
       <c r="C419" s="8" t="s">
-        <v>407</v>
+        <v>411</v>
       </c>
       <c r="D419" s="6" t="s">
         <v>7</v>
@@ -6526,11 +6636,11 @@
     </row>
     <row r="420" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A420" s="7" t="s">
-        <v>398</v>
+        <v>402</v>
       </c>
       <c r="B420" s="7"/>
       <c r="C420" s="8" t="s">
-        <v>408</v>
+        <v>412</v>
       </c>
       <c r="D420" s="6" t="s">
         <v>7</v>
@@ -6538,11 +6648,11 @@
     </row>
     <row r="421" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A421" s="7" t="s">
-        <v>398</v>
+        <v>402</v>
       </c>
       <c r="B421" s="7"/>
       <c r="C421" s="8" t="s">
-        <v>409</v>
+        <v>413</v>
       </c>
       <c r="D421" s="6" t="s">
         <v>7</v>
@@ -6550,11 +6660,11 @@
     </row>
     <row r="422" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A422" s="7" t="s">
-        <v>398</v>
+        <v>402</v>
       </c>
       <c r="B422" s="7"/>
       <c r="C422" s="8" t="s">
-        <v>410</v>
+        <v>414</v>
       </c>
       <c r="D422" s="6" t="s">
         <v>7</v>
@@ -6562,11 +6672,11 @@
     </row>
     <row r="423" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A423" s="7" t="s">
-        <v>398</v>
+        <v>402</v>
       </c>
       <c r="B423" s="7"/>
       <c r="C423" s="8" t="s">
-        <v>411</v>
+        <v>415</v>
       </c>
       <c r="D423" s="6" t="s">
         <v>7</v>
@@ -6574,11 +6684,11 @@
     </row>
     <row r="424" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A424" s="7" t="s">
-        <v>398</v>
+        <v>402</v>
       </c>
       <c r="B424" s="7"/>
       <c r="C424" s="8" t="s">
-        <v>412</v>
+        <v>416</v>
       </c>
       <c r="D424" s="6" t="s">
         <v>7</v>
@@ -6586,11 +6696,11 @@
     </row>
     <row r="425" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A425" s="7" t="s">
-        <v>398</v>
+        <v>402</v>
       </c>
       <c r="B425" s="7"/>
       <c r="C425" s="8" t="s">
-        <v>413</v>
+        <v>417</v>
       </c>
       <c r="D425" s="6" t="s">
         <v>7</v>
@@ -6598,11 +6708,11 @@
     </row>
     <row r="426" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A426" s="7" t="s">
-        <v>398</v>
+        <v>402</v>
       </c>
       <c r="B426" s="7"/>
       <c r="C426" s="8" t="s">
-        <v>414</v>
+        <v>418</v>
       </c>
       <c r="D426" s="6" t="s">
         <v>7</v>
@@ -6610,11 +6720,11 @@
     </row>
     <row r="427" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A427" s="7" t="s">
-        <v>398</v>
+        <v>402</v>
       </c>
       <c r="B427" s="7"/>
       <c r="C427" s="8" t="s">
-        <v>415</v>
+        <v>419</v>
       </c>
       <c r="D427" s="6" t="s">
         <v>7</v>
@@ -6622,11 +6732,11 @@
     </row>
     <row r="428" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A428" s="7" t="s">
-        <v>398</v>
+        <v>402</v>
       </c>
       <c r="B428" s="7"/>
       <c r="C428" s="8" t="s">
-        <v>416</v>
+        <v>420</v>
       </c>
       <c r="D428" s="6" t="s">
         <v>7</v>
@@ -6634,11 +6744,11 @@
     </row>
     <row r="429" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A429" s="7" t="s">
-        <v>398</v>
+        <v>402</v>
       </c>
       <c r="B429" s="7"/>
       <c r="C429" s="8" t="s">
-        <v>417</v>
+        <v>421</v>
       </c>
       <c r="D429" s="6" t="s">
         <v>7</v>
@@ -6646,11 +6756,11 @@
     </row>
     <row r="430" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A430" s="7" t="s">
-        <v>398</v>
+        <v>402</v>
       </c>
       <c r="B430" s="7"/>
       <c r="C430" s="8" t="s">
-        <v>418</v>
+        <v>422</v>
       </c>
       <c r="D430" s="6" t="s">
         <v>7</v>
@@ -6658,11 +6768,11 @@
     </row>
     <row r="431" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A431" s="7" t="s">
-        <v>398</v>
+        <v>402</v>
       </c>
       <c r="B431" s="7"/>
       <c r="C431" s="8" t="s">
-        <v>419</v>
+        <v>423</v>
       </c>
       <c r="D431" s="6" t="s">
         <v>7</v>
@@ -6670,11 +6780,11 @@
     </row>
     <row r="432" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A432" s="7" t="s">
-        <v>398</v>
+        <v>402</v>
       </c>
       <c r="B432" s="7"/>
       <c r="C432" s="8" t="s">
-        <v>420</v>
+        <v>424</v>
       </c>
       <c r="D432" s="6" t="s">
         <v>7</v>
@@ -6682,11 +6792,11 @@
     </row>
     <row r="433" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A433" s="7" t="s">
-        <v>398</v>
+        <v>402</v>
       </c>
       <c r="B433" s="7"/>
       <c r="C433" s="8" t="s">
-        <v>421</v>
+        <v>425</v>
       </c>
       <c r="D433" s="6" t="s">
         <v>7</v>
@@ -6694,11 +6804,11 @@
     </row>
     <row r="434" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A434" s="7" t="s">
-        <v>398</v>
+        <v>402</v>
       </c>
       <c r="B434" s="7"/>
       <c r="C434" s="8" t="s">
-        <v>422</v>
+        <v>426</v>
       </c>
       <c r="D434" s="6" t="s">
         <v>7</v>
@@ -6706,11 +6816,11 @@
     </row>
     <row r="435" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A435" s="7" t="s">
-        <v>398</v>
+        <v>402</v>
       </c>
       <c r="B435" s="7"/>
       <c r="C435" s="8" t="s">
-        <v>423</v>
+        <v>427</v>
       </c>
       <c r="D435" s="6" t="s">
         <v>7</v>
@@ -6718,11 +6828,11 @@
     </row>
     <row r="436" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A436" s="7" t="s">
-        <v>398</v>
+        <v>402</v>
       </c>
       <c r="B436" s="7"/>
       <c r="C436" s="8" t="s">
-        <v>424</v>
+        <v>428</v>
       </c>
       <c r="D436" s="6" t="s">
         <v>7</v>
@@ -6730,11 +6840,11 @@
     </row>
     <row r="437" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A437" s="7" t="s">
-        <v>398</v>
+        <v>402</v>
       </c>
       <c r="B437" s="7"/>
       <c r="C437" s="8" t="s">
-        <v>425</v>
+        <v>429</v>
       </c>
       <c r="D437" s="6" t="s">
         <v>7</v>
@@ -6742,11 +6852,11 @@
     </row>
     <row r="438" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A438" s="7" t="s">
-        <v>398</v>
+        <v>402</v>
       </c>
       <c r="B438" s="7"/>
       <c r="C438" s="8" t="s">
-        <v>426</v>
+        <v>430</v>
       </c>
       <c r="D438" s="6" t="s">
         <v>7</v>
@@ -6754,11 +6864,11 @@
     </row>
     <row r="439" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A439" s="7" t="s">
-        <v>398</v>
+        <v>402</v>
       </c>
       <c r="B439" s="7"/>
       <c r="C439" s="8" t="s">
-        <v>427</v>
+        <v>431</v>
       </c>
       <c r="D439" s="6" t="s">
         <v>7</v>
@@ -6766,11 +6876,11 @@
     </row>
     <row r="440" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A440" s="7" t="s">
-        <v>398</v>
+        <v>402</v>
       </c>
       <c r="B440" s="7"/>
       <c r="C440" s="8" t="s">
-        <v>428</v>
+        <v>432</v>
       </c>
       <c r="D440" s="6" t="s">
         <v>7</v>
@@ -6778,11 +6888,11 @@
     </row>
     <row r="441" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A441" s="7" t="s">
-        <v>398</v>
+        <v>402</v>
       </c>
       <c r="B441" s="7"/>
       <c r="C441" s="8" t="s">
-        <v>429</v>
+        <v>433</v>
       </c>
       <c r="D441" s="6" t="s">
         <v>7</v>
@@ -6790,11 +6900,11 @@
     </row>
     <row r="442" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A442" s="7" t="s">
-        <v>398</v>
+        <v>402</v>
       </c>
       <c r="B442" s="7"/>
       <c r="C442" s="8" t="s">
-        <v>430</v>
+        <v>434</v>
       </c>
       <c r="D442" s="6" t="s">
         <v>7</v>
@@ -6802,11 +6912,11 @@
     </row>
     <row r="443" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A443" s="7" t="s">
-        <v>398</v>
+        <v>402</v>
       </c>
       <c r="B443" s="7"/>
       <c r="C443" s="8" t="s">
-        <v>431</v>
+        <v>435</v>
       </c>
       <c r="D443" s="6" t="s">
         <v>7</v>
@@ -6814,11 +6924,11 @@
     </row>
     <row r="444" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A444" s="7" t="s">
-        <v>398</v>
+        <v>402</v>
       </c>
       <c r="B444" s="7"/>
       <c r="C444" s="8" t="s">
-        <v>432</v>
+        <v>436</v>
       </c>
       <c r="D444" s="6" t="s">
         <v>7</v>
@@ -6826,11 +6936,11 @@
     </row>
     <row r="445" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A445" s="7" t="s">
-        <v>398</v>
+        <v>402</v>
       </c>
       <c r="B445" s="7"/>
       <c r="C445" s="8" t="s">
-        <v>433</v>
+        <v>437</v>
       </c>
       <c r="D445" s="6" t="s">
         <v>7</v>
@@ -6838,11 +6948,11 @@
     </row>
     <row r="446" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A446" s="7" t="s">
-        <v>398</v>
+        <v>402</v>
       </c>
       <c r="B446" s="7"/>
       <c r="C446" s="8" t="s">
-        <v>434</v>
+        <v>438</v>
       </c>
       <c r="D446" s="6" t="s">
         <v>7</v>
@@ -6850,11 +6960,11 @@
     </row>
     <row r="447" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A447" s="7" t="s">
-        <v>398</v>
+        <v>402</v>
       </c>
       <c r="B447" s="7"/>
       <c r="C447" s="8" t="s">
-        <v>435</v>
+        <v>439</v>
       </c>
       <c r="D447" s="6" t="s">
         <v>7</v>
@@ -6862,11 +6972,11 @@
     </row>
     <row r="448" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A448" s="7" t="s">
-        <v>398</v>
+        <v>402</v>
       </c>
       <c r="B448" s="7"/>
       <c r="C448" s="8" t="s">
-        <v>436</v>
+        <v>440</v>
       </c>
       <c r="D448" s="6" t="s">
         <v>7</v>
@@ -6874,11 +6984,11 @@
     </row>
     <row r="449" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A449" s="7" t="s">
-        <v>398</v>
+        <v>402</v>
       </c>
       <c r="B449" s="7"/>
       <c r="C449" s="8" t="s">
-        <v>437</v>
+        <v>441</v>
       </c>
       <c r="D449" s="6" t="s">
         <v>7</v>
@@ -6886,11 +6996,11 @@
     </row>
     <row r="450" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A450" s="7" t="s">
-        <v>398</v>
+        <v>402</v>
       </c>
       <c r="B450" s="7"/>
       <c r="C450" s="8" t="s">
-        <v>438</v>
+        <v>442</v>
       </c>
       <c r="D450" s="6" t="s">
         <v>7</v>
@@ -6898,11 +7008,11 @@
     </row>
     <row r="451" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A451" s="7" t="s">
-        <v>398</v>
+        <v>402</v>
       </c>
       <c r="B451" s="7"/>
       <c r="C451" s="8" t="s">
-        <v>439</v>
+        <v>443</v>
       </c>
       <c r="D451" s="6" t="s">
         <v>7</v>
@@ -6910,11 +7020,11 @@
     </row>
     <row r="452" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A452" s="7" t="s">
-        <v>398</v>
+        <v>402</v>
       </c>
       <c r="B452" s="7"/>
       <c r="C452" s="8" t="s">
-        <v>440</v>
+        <v>444</v>
       </c>
       <c r="D452" s="6" t="s">
         <v>7</v>
@@ -6922,11 +7032,11 @@
     </row>
     <row r="453" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A453" s="7" t="s">
-        <v>398</v>
+        <v>402</v>
       </c>
       <c r="B453" s="7"/>
       <c r="C453" s="8" t="s">
-        <v>441</v>
+        <v>445</v>
       </c>
       <c r="D453" s="6" t="s">
         <v>7</v>
@@ -6934,11 +7044,11 @@
     </row>
     <row r="454" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A454" s="7" t="s">
-        <v>398</v>
+        <v>402</v>
       </c>
       <c r="B454" s="7"/>
       <c r="C454" s="8" t="s">
-        <v>442</v>
+        <v>446</v>
       </c>
       <c r="D454" s="6" t="s">
         <v>7</v>
@@ -6946,11 +7056,11 @@
     </row>
     <row r="455" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A455" s="7" t="s">
-        <v>398</v>
+        <v>402</v>
       </c>
       <c r="B455" s="7"/>
       <c r="C455" s="8" t="s">
-        <v>443</v>
+        <v>447</v>
       </c>
       <c r="D455" s="6" t="s">
         <v>7</v>
@@ -6958,11 +7068,11 @@
     </row>
     <row r="456" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A456" s="7" t="s">
-        <v>398</v>
+        <v>402</v>
       </c>
       <c r="B456" s="7"/>
       <c r="C456" s="8" t="s">
-        <v>444</v>
+        <v>448</v>
       </c>
       <c r="D456" s="6" t="s">
         <v>7</v>
@@ -6970,11 +7080,11 @@
     </row>
     <row r="457" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A457" s="7" t="s">
-        <v>398</v>
+        <v>402</v>
       </c>
       <c r="B457" s="7"/>
       <c r="C457" s="8" t="s">
-        <v>445</v>
+        <v>449</v>
       </c>
       <c r="D457" s="6" t="s">
         <v>7</v>
@@ -6982,11 +7092,11 @@
     </row>
     <row r="458" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A458" s="7" t="s">
-        <v>398</v>
+        <v>402</v>
       </c>
       <c r="B458" s="7"/>
       <c r="C458" s="8" t="s">
-        <v>446</v>
+        <v>450</v>
       </c>
       <c r="D458" s="6" t="s">
         <v>7</v>
@@ -6994,11 +7104,11 @@
     </row>
     <row r="459" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A459" s="7" t="s">
-        <v>398</v>
+        <v>402</v>
       </c>
       <c r="B459" s="7"/>
       <c r="C459" s="8" t="s">
-        <v>447</v>
+        <v>451</v>
       </c>
       <c r="D459" s="6" t="s">
         <v>7</v>
@@ -7006,11 +7116,11 @@
     </row>
     <row r="460" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A460" s="7" t="s">
-        <v>398</v>
+        <v>402</v>
       </c>
       <c r="B460" s="7"/>
       <c r="C460" s="8" t="s">
-        <v>448</v>
+        <v>452</v>
       </c>
       <c r="D460" s="6" t="s">
         <v>7</v>
@@ -7018,11 +7128,11 @@
     </row>
     <row r="461" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A461" s="7" t="s">
-        <v>398</v>
+        <v>402</v>
       </c>
       <c r="B461" s="7"/>
       <c r="C461" s="8" t="s">
-        <v>449</v>
+        <v>453</v>
       </c>
       <c r="D461" s="6" t="s">
         <v>7</v>
@@ -7030,11 +7140,11 @@
     </row>
     <row r="462" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A462" s="7" t="s">
-        <v>398</v>
+        <v>402</v>
       </c>
       <c r="B462" s="7"/>
       <c r="C462" s="8" t="s">
-        <v>450</v>
+        <v>454</v>
       </c>
       <c r="D462" s="6" t="s">
         <v>7</v>
@@ -7042,11 +7152,11 @@
     </row>
     <row r="463" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A463" s="7" t="s">
-        <v>398</v>
+        <v>402</v>
       </c>
       <c r="B463" s="7"/>
       <c r="C463" s="8" t="s">
-        <v>451</v>
+        <v>455</v>
       </c>
       <c r="D463" s="6" t="s">
         <v>7</v>
@@ -7054,11 +7164,11 @@
     </row>
     <row r="464" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A464" s="7" t="s">
-        <v>398</v>
+        <v>402</v>
       </c>
       <c r="B464" s="7"/>
       <c r="C464" s="8" t="s">
-        <v>452</v>
+        <v>456</v>
       </c>
       <c r="D464" s="6" t="s">
         <v>7</v>
@@ -7066,11 +7176,11 @@
     </row>
     <row r="465" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A465" s="7" t="s">
-        <v>398</v>
+        <v>402</v>
       </c>
       <c r="B465" s="7"/>
       <c r="C465" s="8" t="s">
-        <v>453</v>
+        <v>457</v>
       </c>
       <c r="D465" s="6" t="s">
         <v>7</v>
@@ -7078,11 +7188,11 @@
     </row>
     <row r="466" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A466" s="7" t="s">
-        <v>398</v>
+        <v>402</v>
       </c>
       <c r="B466" s="7"/>
       <c r="C466" s="8" t="s">
-        <v>454</v>
+        <v>458</v>
       </c>
       <c r="D466" s="6" t="s">
         <v>7</v>
@@ -7090,11 +7200,11 @@
     </row>
     <row r="467" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A467" s="7" t="s">
-        <v>398</v>
+        <v>402</v>
       </c>
       <c r="B467" s="7"/>
       <c r="C467" s="8" t="s">
-        <v>455</v>
+        <v>459</v>
       </c>
       <c r="D467" s="6" t="s">
         <v>7</v>
@@ -7102,11 +7212,11 @@
     </row>
     <row r="468" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A468" s="7" t="s">
-        <v>398</v>
+        <v>402</v>
       </c>
       <c r="B468" s="7"/>
       <c r="C468" s="8" t="s">
-        <v>456</v>
+        <v>460</v>
       </c>
       <c r="D468" s="6" t="s">
         <v>7</v>
@@ -7114,33 +7224,33 @@
     </row>
     <row r="469" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A469" s="7" t="s">
-        <v>398</v>
+        <v>402</v>
       </c>
       <c r="B469" s="7"/>
       <c r="C469" s="8" t="s">
-        <v>457</v>
+        <v>461</v>
       </c>
       <c r="D469" s="6" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="470" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C470" s="10"/>
+      <c r="C470" s="12"/>
       <c r="D470" s="6"/>
     </row>
     <row r="471" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A471" s="7"/>
       <c r="B471" s="7"/>
-      <c r="C471" s="10"/>
+      <c r="C471" s="12"/>
       <c r="D471" s="6"/>
     </row>
     <row r="472" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A472" s="7" t="s">
-        <v>458</v>
+        <v>462</v>
       </c>
       <c r="B472" s="7"/>
       <c r="C472" s="8" t="s">
-        <v>459</v>
+        <v>463</v>
       </c>
       <c r="D472" s="6" t="s">
         <v>7</v>
@@ -7148,11 +7258,11 @@
     </row>
     <row r="473" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A473" s="7" t="s">
-        <v>458</v>
+        <v>462</v>
       </c>
       <c r="B473" s="7"/>
       <c r="C473" s="8" t="s">
-        <v>460</v>
+        <v>464</v>
       </c>
       <c r="D473" s="6" t="s">
         <v>7</v>
@@ -7160,11 +7270,11 @@
     </row>
     <row r="474" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A474" s="7" t="s">
-        <v>458</v>
+        <v>462</v>
       </c>
       <c r="B474" s="7"/>
       <c r="C474" s="8" t="s">
-        <v>461</v>
+        <v>465</v>
       </c>
       <c r="D474" s="6" t="s">
         <v>7</v>
@@ -7172,11 +7282,11 @@
     </row>
     <row r="475" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A475" s="7" t="s">
-        <v>458</v>
+        <v>462</v>
       </c>
       <c r="B475" s="7"/>
       <c r="C475" s="8" t="s">
-        <v>462</v>
+        <v>466</v>
       </c>
       <c r="D475" s="6" t="s">
         <v>7</v>
@@ -7184,11 +7294,11 @@
     </row>
     <row r="476" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A476" s="7" t="s">
-        <v>458</v>
+        <v>462</v>
       </c>
       <c r="B476" s="7"/>
       <c r="C476" s="8" t="s">
-        <v>463</v>
+        <v>467</v>
       </c>
       <c r="D476" s="6" t="s">
         <v>7</v>
@@ -7196,11 +7306,11 @@
     </row>
     <row r="477" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A477" s="7" t="s">
-        <v>458</v>
+        <v>462</v>
       </c>
       <c r="B477" s="7"/>
       <c r="C477" s="8" t="s">
-        <v>464</v>
+        <v>468</v>
       </c>
       <c r="D477" s="6" t="s">
         <v>7</v>
@@ -7208,11 +7318,11 @@
     </row>
     <row r="478" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A478" s="7" t="s">
-        <v>458</v>
+        <v>462</v>
       </c>
       <c r="B478" s="7"/>
       <c r="C478" s="8" t="s">
-        <v>465</v>
+        <v>469</v>
       </c>
       <c r="D478" s="6" t="s">
         <v>7</v>
@@ -7220,11 +7330,11 @@
     </row>
     <row r="479" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A479" s="7" t="s">
-        <v>458</v>
+        <v>462</v>
       </c>
       <c r="B479" s="7"/>
       <c r="C479" s="8" t="s">
-        <v>466</v>
+        <v>470</v>
       </c>
       <c r="D479" s="6" t="s">
         <v>7</v>
@@ -7232,11 +7342,11 @@
     </row>
     <row r="480" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A480" s="7" t="s">
-        <v>458</v>
+        <v>462</v>
       </c>
       <c r="B480" s="7"/>
       <c r="C480" s="8" t="s">
-        <v>467</v>
+        <v>471</v>
       </c>
       <c r="D480" s="6" t="s">
         <v>7</v>
@@ -7244,11 +7354,11 @@
     </row>
     <row r="481" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A481" s="7" t="s">
-        <v>458</v>
+        <v>462</v>
       </c>
       <c r="B481" s="7"/>
       <c r="C481" s="8" t="s">
-        <v>468</v>
+        <v>472</v>
       </c>
       <c r="D481" s="6" t="s">
         <v>7</v>
